--- a/BackTest/2019-11-01 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-01 BackTest ZRX.xlsx
@@ -451,17 +451,13 @@
         <v>320.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>324</v>
-      </c>
-      <c r="K2" t="n">
-        <v>324</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>320.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>324</v>
-      </c>
-      <c r="K3" t="n">
-        <v>324</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>320.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>324</v>
-      </c>
-      <c r="K4" t="n">
-        <v>324</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>321.0166666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>325</v>
-      </c>
-      <c r="K5" t="n">
-        <v>325</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>321.1333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>325</v>
-      </c>
-      <c r="K6" t="n">
-        <v>325</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>321.25</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>325</v>
-      </c>
-      <c r="K7" t="n">
-        <v>325</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>321.3666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>325</v>
-      </c>
-      <c r="K8" t="n">
-        <v>325</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>321.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>325</v>
-      </c>
-      <c r="K9" t="n">
-        <v>325</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>321.65</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>327</v>
-      </c>
-      <c r="K10" t="n">
-        <v>325</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -832,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>325</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>325</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -914,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>325</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -955,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>325</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -996,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>325</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1037,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>325</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1078,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>325</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1119,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>325</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1160,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>325</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1201,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>325</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1242,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>325</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1283,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>325</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1324,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>325</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1362,17 +1224,11 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>325</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1403,17 +1259,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>325</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1444,17 +1294,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>325</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1488,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>325</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1529,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>325</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1570,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>325</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1611,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>325</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1652,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>325</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1693,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>325</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1734,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>325</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1775,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>325</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1816,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>325</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1857,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>325</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1898,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>325</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1936,19 +1714,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>325</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>1.010384615384615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2012,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2047,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2187,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2222,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2257,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2292,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2327,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2362,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2397,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2432,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2467,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2502,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2537,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2677,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -5404,13 +5176,17 @@
         <v>334.0333333333334</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>330</v>
+      </c>
+      <c r="K137" t="n">
+        <v>330</v>
+      </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
@@ -5445,8 +5221,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>330</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5474,14 +5256,22 @@
         <v>333.9</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>330</v>
+      </c>
+      <c r="K139" t="n">
+        <v>330</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5544,13 +5334,17 @@
         <v>333.8666666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>333</v>
+      </c>
+      <c r="K141" t="n">
+        <v>333</v>
+      </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
@@ -5579,14 +5373,22 @@
         <v>333.8666666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>333</v>
+      </c>
+      <c r="K142" t="n">
+        <v>333</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5614,14 +5416,22 @@
         <v>333.8833333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>334</v>
+      </c>
+      <c r="K143" t="n">
+        <v>333</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5649,13 +5459,17 @@
         <v>333.9333333333333</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>336</v>
+      </c>
+      <c r="K144" t="n">
+        <v>336</v>
+      </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
@@ -5690,8 +5504,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>336</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5725,8 +5545,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>336</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5760,8 +5586,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>336</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5795,8 +5627,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>336</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5830,8 +5668,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>336</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5865,8 +5709,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>336</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5900,8 +5750,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>336</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5935,8 +5791,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>336</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5970,8 +5832,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>336</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6005,8 +5873,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>336</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6040,8 +5914,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>336</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6075,8 +5955,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>336</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6110,8 +5996,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>336</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6145,8 +6037,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>336</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6177,13 +6075,19 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>336</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M159" t="n">
-        <v>1</v>
+        <v>1.012857142857143</v>
       </c>
     </row>
     <row r="160">

--- a/BackTest/2019-11-01 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-01 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>324</v>
       </c>
       <c r="F2" t="n">
-        <v>168</v>
+        <v>4.01</v>
       </c>
       <c r="G2" t="n">
-        <v>320.7</v>
+        <v>320.6</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,19 +480,23 @@
         <v>324</v>
       </c>
       <c r="F3" t="n">
-        <v>1771.2829</v>
+        <v>168</v>
       </c>
       <c r="G3" t="n">
-        <v>320.8</v>
+        <v>320.7</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>324</v>
+      </c>
+      <c r="K3" t="n">
+        <v>324</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -515,20 +519,28 @@
         <v>324</v>
       </c>
       <c r="F4" t="n">
-        <v>2351.3591</v>
+        <v>1771.2829</v>
       </c>
       <c r="G4" t="n">
-        <v>320.9</v>
+        <v>320.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>324</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,22 +550,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C5" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D5" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E5" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F5" t="n">
-        <v>96.9696</v>
+        <v>2351.3591</v>
       </c>
       <c r="G5" t="n">
-        <v>321.0166666666667</v>
+        <v>320.9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,8 +574,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>324</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -585,10 +603,10 @@
         <v>325</v>
       </c>
       <c r="F6" t="n">
-        <v>967.9999</v>
+        <v>96.9696</v>
       </c>
       <c r="G6" t="n">
-        <v>321.1333333333333</v>
+        <v>321.0166666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +638,10 @@
         <v>325</v>
       </c>
       <c r="F7" t="n">
-        <v>946.6745</v>
+        <v>967.9999</v>
       </c>
       <c r="G7" t="n">
-        <v>321.25</v>
+        <v>321.1333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +673,10 @@
         <v>325</v>
       </c>
       <c r="F8" t="n">
-        <v>3394.348</v>
+        <v>946.6745</v>
       </c>
       <c r="G8" t="n">
-        <v>321.3666666666667</v>
+        <v>321.25</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +699,19 @@
         <v>325</v>
       </c>
       <c r="C9" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D9" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E9" t="n">
         <v>325</v>
       </c>
       <c r="F9" t="n">
-        <v>8589.318600000001</v>
+        <v>3394.348</v>
       </c>
       <c r="G9" t="n">
-        <v>321.5</v>
+        <v>321.3666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +731,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C10" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D10" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E10" t="n">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F10" t="n">
-        <v>1934.2253</v>
+        <v>8589.318600000001</v>
       </c>
       <c r="G10" t="n">
-        <v>321.65</v>
+        <v>321.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +778,10 @@
         <v>327</v>
       </c>
       <c r="F11" t="n">
-        <v>1227.5177</v>
+        <v>1934.2253</v>
       </c>
       <c r="G11" t="n">
-        <v>321.8</v>
+        <v>321.65</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +813,10 @@
         <v>327</v>
       </c>
       <c r="F12" t="n">
-        <v>649.2456</v>
+        <v>1227.5177</v>
       </c>
       <c r="G12" t="n">
-        <v>321.9666666666666</v>
+        <v>321.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +848,10 @@
         <v>327</v>
       </c>
       <c r="F13" t="n">
-        <v>2259.7218</v>
+        <v>649.2456</v>
       </c>
       <c r="G13" t="n">
-        <v>322.1333333333333</v>
+        <v>321.9666666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +874,19 @@
         <v>327</v>
       </c>
       <c r="C14" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D14" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E14" t="n">
         <v>327</v>
       </c>
       <c r="F14" t="n">
-        <v>2987.8964</v>
+        <v>2259.7218</v>
       </c>
       <c r="G14" t="n">
-        <v>322.3166666666667</v>
+        <v>322.1333333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C15" t="n">
         <v>328</v>
@@ -897,13 +915,13 @@
         <v>328</v>
       </c>
       <c r="E15" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>2987.8964</v>
       </c>
       <c r="G15" t="n">
-        <v>322.5</v>
+        <v>322.3166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +941,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C16" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D16" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E16" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F16" t="n">
-        <v>28.5369</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>322.6333333333333</v>
+        <v>322.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +976,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C17" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D17" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E17" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F17" t="n">
-        <v>920.433</v>
+        <v>28.5369</v>
       </c>
       <c r="G17" t="n">
-        <v>322.7666666666667</v>
+        <v>322.6333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1023,10 @@
         <v>326</v>
       </c>
       <c r="F18" t="n">
-        <v>1398.1133</v>
+        <v>920.433</v>
       </c>
       <c r="G18" t="n">
-        <v>322.9</v>
+        <v>322.7666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1046,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C19" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D19" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E19" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F19" t="n">
-        <v>1710.8798</v>
+        <v>1398.1133</v>
       </c>
       <c r="G19" t="n">
-        <v>323.0166666666667</v>
+        <v>322.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1081,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C20" t="n">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D20" t="n">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E20" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F20" t="n">
-        <v>3812.8816</v>
+        <v>1710.8798</v>
       </c>
       <c r="G20" t="n">
-        <v>323.1666666666667</v>
+        <v>323.0166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1116,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C21" t="n">
         <v>329</v>
@@ -1107,13 +1125,13 @@
         <v>329</v>
       </c>
       <c r="E21" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F21" t="n">
-        <v>468</v>
+        <v>3812.8816</v>
       </c>
       <c r="G21" t="n">
-        <v>323.3</v>
+        <v>323.1666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1163,10 @@
         <v>329</v>
       </c>
       <c r="F22" t="n">
-        <v>4895.543</v>
+        <v>468</v>
       </c>
       <c r="G22" t="n">
-        <v>323.4333333333333</v>
+        <v>323.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1198,10 @@
         <v>329</v>
       </c>
       <c r="F23" t="n">
-        <v>10239.6199</v>
+        <v>4895.543</v>
       </c>
       <c r="G23" t="n">
-        <v>323.5666666666667</v>
+        <v>323.4333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,16 +1233,16 @@
         <v>329</v>
       </c>
       <c r="F24" t="n">
-        <v>7968.5736</v>
+        <v>10239.6199</v>
       </c>
       <c r="G24" t="n">
-        <v>323.6833333333333</v>
+        <v>323.5666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1238,22 +1256,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C25" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D25" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E25" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F25" t="n">
-        <v>989.7371000000001</v>
+        <v>7968.5736</v>
       </c>
       <c r="G25" t="n">
-        <v>323.8</v>
+        <v>323.6833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1303,10 @@
         <v>330</v>
       </c>
       <c r="F26" t="n">
-        <v>117</v>
+        <v>989.7371000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9166666666667</v>
+        <v>323.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,16 +1338,16 @@
         <v>330</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G27" t="n">
-        <v>324.0166666666667</v>
+        <v>323.9166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1355,16 +1373,16 @@
         <v>330</v>
       </c>
       <c r="F28" t="n">
-        <v>7007.4995</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>324.1333333333333</v>
+        <v>324.0166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1390,10 +1408,10 @@
         <v>330</v>
       </c>
       <c r="F29" t="n">
-        <v>1848.4878</v>
+        <v>7007.4995</v>
       </c>
       <c r="G29" t="n">
-        <v>324.2166666666666</v>
+        <v>324.1333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1431,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C30" t="n">
         <v>330</v>
@@ -1422,19 +1440,19 @@
         <v>330</v>
       </c>
       <c r="E30" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F30" t="n">
-        <v>100.8792</v>
+        <v>1848.4878</v>
       </c>
       <c r="G30" t="n">
-        <v>324.35</v>
+        <v>324.2166666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1448,7 +1466,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C31" t="n">
         <v>330</v>
@@ -1457,13 +1475,13 @@
         <v>330</v>
       </c>
       <c r="E31" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F31" t="n">
-        <v>79.11450000000001</v>
+        <v>100.8792</v>
       </c>
       <c r="G31" t="n">
-        <v>324.45</v>
+        <v>324.35</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1513,10 @@
         <v>330</v>
       </c>
       <c r="F32" t="n">
-        <v>1649.9704</v>
+        <v>79.11450000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>324.55</v>
+        <v>324.45</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1548,10 @@
         <v>330</v>
       </c>
       <c r="F33" t="n">
-        <v>7690.3152</v>
+        <v>1649.9704</v>
       </c>
       <c r="G33" t="n">
-        <v>324.6833333333333</v>
+        <v>324.55</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1583,10 @@
         <v>330</v>
       </c>
       <c r="F34" t="n">
-        <v>936.7595</v>
+        <v>7690.3152</v>
       </c>
       <c r="G34" t="n">
-        <v>324.8166666666667</v>
+        <v>324.6833333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1618,10 @@
         <v>330</v>
       </c>
       <c r="F35" t="n">
-        <v>532.3097</v>
+        <v>936.7595</v>
       </c>
       <c r="G35" t="n">
-        <v>324.9833333333333</v>
+        <v>324.8166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1653,10 @@
         <v>330</v>
       </c>
       <c r="F36" t="n">
-        <v>2707.8488</v>
+        <v>532.3097</v>
       </c>
       <c r="G36" t="n">
-        <v>325.1333333333333</v>
+        <v>324.9833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1688,10 @@
         <v>330</v>
       </c>
       <c r="F37" t="n">
-        <v>815.6155</v>
+        <v>2707.8488</v>
       </c>
       <c r="G37" t="n">
-        <v>325.3166666666667</v>
+        <v>325.1333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1711,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C38" t="n">
         <v>330</v>
@@ -1702,13 +1720,13 @@
         <v>330</v>
       </c>
       <c r="E38" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F38" t="n">
-        <v>2596.1931</v>
+        <v>815.6155</v>
       </c>
       <c r="G38" t="n">
-        <v>325.4833333333333</v>
+        <v>325.3166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C39" t="n">
         <v>330</v>
@@ -1737,13 +1755,13 @@
         <v>330</v>
       </c>
       <c r="E39" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F39" t="n">
-        <v>1663.0419</v>
+        <v>2596.1931</v>
       </c>
       <c r="G39" t="n">
-        <v>325.6166666666667</v>
+        <v>325.4833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1781,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C40" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D40" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E40" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F40" t="n">
-        <v>542.123</v>
+        <v>1663.0419</v>
       </c>
       <c r="G40" t="n">
-        <v>325.8</v>
+        <v>325.6166666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1828,10 @@
         <v>331</v>
       </c>
       <c r="F41" t="n">
-        <v>5259.4</v>
+        <v>542.123</v>
       </c>
       <c r="G41" t="n">
-        <v>325.9833333333333</v>
+        <v>325.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1842,13 +1860,13 @@
         <v>331</v>
       </c>
       <c r="E42" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F42" t="n">
-        <v>2025.5029</v>
+        <v>5259.4</v>
       </c>
       <c r="G42" t="n">
-        <v>326.1666666666667</v>
+        <v>325.9833333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1877,13 +1895,13 @@
         <v>331</v>
       </c>
       <c r="E43" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F43" t="n">
-        <v>2955.3443</v>
+        <v>2025.5029</v>
       </c>
       <c r="G43" t="n">
-        <v>326.3333333333333</v>
+        <v>326.1666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1933,10 @@
         <v>331</v>
       </c>
       <c r="F44" t="n">
-        <v>2968.5826</v>
+        <v>2955.3443</v>
       </c>
       <c r="G44" t="n">
-        <v>326.5</v>
+        <v>326.3333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1968,10 @@
         <v>331</v>
       </c>
       <c r="F45" t="n">
-        <v>1811.9733</v>
+        <v>2968.5826</v>
       </c>
       <c r="G45" t="n">
-        <v>326.6833333333333</v>
+        <v>326.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2003,10 @@
         <v>331</v>
       </c>
       <c r="F46" t="n">
-        <v>193.0297</v>
+        <v>1811.9733</v>
       </c>
       <c r="G46" t="n">
-        <v>326.8666666666667</v>
+        <v>326.6833333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2029,19 @@
         <v>331</v>
       </c>
       <c r="C47" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D47" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E47" t="n">
         <v>331</v>
       </c>
       <c r="F47" t="n">
-        <v>1651.5827</v>
+        <v>193.0297</v>
       </c>
       <c r="G47" t="n">
-        <v>327.0166666666667</v>
+        <v>326.8666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,7 +2061,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C48" t="n">
         <v>332</v>
@@ -2052,13 +2070,13 @@
         <v>332</v>
       </c>
       <c r="E48" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F48" t="n">
-        <v>1984.7296</v>
+        <v>1651.5827</v>
       </c>
       <c r="G48" t="n">
-        <v>327.2166666666666</v>
+        <v>327.0166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2108,10 @@
         <v>332</v>
       </c>
       <c r="F49" t="n">
-        <v>628.8381000000001</v>
+        <v>1984.7296</v>
       </c>
       <c r="G49" t="n">
-        <v>327.3666666666667</v>
+        <v>327.2166666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2122,13 +2140,13 @@
         <v>332</v>
       </c>
       <c r="E50" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F50" t="n">
-        <v>2013.1194</v>
+        <v>628.8381000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>327.5666666666667</v>
+        <v>327.3666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2157,13 +2175,13 @@
         <v>332</v>
       </c>
       <c r="E51" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F51" t="n">
-        <v>673.5006</v>
+        <v>2013.1194</v>
       </c>
       <c r="G51" t="n">
-        <v>327.7166666666666</v>
+        <v>327.5666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2213,10 @@
         <v>332</v>
       </c>
       <c r="F52" t="n">
-        <v>1055.7461</v>
+        <v>673.5006</v>
       </c>
       <c r="G52" t="n">
-        <v>327.8666666666667</v>
+        <v>327.7166666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2248,10 @@
         <v>332</v>
       </c>
       <c r="F53" t="n">
-        <v>6763.5648</v>
+        <v>1055.7461</v>
       </c>
       <c r="G53" t="n">
-        <v>328.05</v>
+        <v>327.8666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2283,10 @@
         <v>332</v>
       </c>
       <c r="F54" t="n">
-        <v>6017.9344</v>
+        <v>6763.5648</v>
       </c>
       <c r="G54" t="n">
-        <v>328.2333333333333</v>
+        <v>328.05</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2318,10 @@
         <v>332</v>
       </c>
       <c r="F55" t="n">
-        <v>1280.9678</v>
+        <v>6017.9344</v>
       </c>
       <c r="G55" t="n">
-        <v>328.4333333333333</v>
+        <v>328.2333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,7 +2341,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C56" t="n">
         <v>332</v>
@@ -2332,13 +2350,13 @@
         <v>332</v>
       </c>
       <c r="E56" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F56" t="n">
-        <v>26527.4228</v>
+        <v>1280.9678</v>
       </c>
       <c r="G56" t="n">
-        <v>328.5833333333333</v>
+        <v>328.4333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2376,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C57" t="n">
         <v>332</v>
@@ -2367,13 +2385,13 @@
         <v>332</v>
       </c>
       <c r="E57" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F57" t="n">
-        <v>14603.2625</v>
+        <v>26527.4228</v>
       </c>
       <c r="G57" t="n">
-        <v>328.7333333333333</v>
+        <v>328.5833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,25 +2414,25 @@
         <v>332</v>
       </c>
       <c r="C58" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D58" t="n">
         <v>332</v>
       </c>
       <c r="E58" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F58" t="n">
-        <v>2047.8841</v>
+        <v>14603.2625</v>
       </c>
       <c r="G58" t="n">
-        <v>328.8666666666667</v>
+        <v>328.7333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2428,10 +2446,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>332</v>
+      </c>
+      <c r="C59" t="n">
         <v>331</v>
-      </c>
-      <c r="C59" t="n">
-        <v>332</v>
       </c>
       <c r="D59" t="n">
         <v>332</v>
@@ -2440,16 +2458,16 @@
         <v>331</v>
       </c>
       <c r="F59" t="n">
-        <v>3268.1555</v>
+        <v>2047.8841</v>
       </c>
       <c r="G59" t="n">
-        <v>329.0333333333334</v>
+        <v>328.8666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2463,7 +2481,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C60" t="n">
         <v>332</v>
@@ -2472,13 +2490,13 @@
         <v>332</v>
       </c>
       <c r="E60" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F60" t="n">
-        <v>1172.932</v>
+        <v>3268.1555</v>
       </c>
       <c r="G60" t="n">
-        <v>329.1833333333333</v>
+        <v>329.0333333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2528,10 @@
         <v>332</v>
       </c>
       <c r="F61" t="n">
-        <v>30.4991</v>
+        <v>1172.932</v>
       </c>
       <c r="G61" t="n">
-        <v>329.3166666666667</v>
+        <v>329.1833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2563,10 @@
         <v>332</v>
       </c>
       <c r="F62" t="n">
-        <v>2167.0545</v>
+        <v>30.4991</v>
       </c>
       <c r="G62" t="n">
-        <v>329.45</v>
+        <v>329.3166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2598,10 @@
         <v>332</v>
       </c>
       <c r="F63" t="n">
-        <v>18877.8396</v>
+        <v>2167.0545</v>
       </c>
       <c r="G63" t="n">
-        <v>329.5833333333333</v>
+        <v>329.45</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2633,10 @@
         <v>332</v>
       </c>
       <c r="F64" t="n">
-        <v>4117.369172289156</v>
+        <v>18877.8396</v>
       </c>
       <c r="G64" t="n">
-        <v>329.7166666666666</v>
+        <v>329.5833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2668,10 @@
         <v>332</v>
       </c>
       <c r="F65" t="n">
-        <v>116.366</v>
+        <v>4117.369172289156</v>
       </c>
       <c r="G65" t="n">
-        <v>329.8333333333333</v>
+        <v>329.7166666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2703,10 @@
         <v>332</v>
       </c>
       <c r="F66" t="n">
-        <v>2174.0823</v>
+        <v>116.366</v>
       </c>
       <c r="G66" t="n">
-        <v>329.95</v>
+        <v>329.8333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2738,10 @@
         <v>332</v>
       </c>
       <c r="F67" t="n">
-        <v>4262.5245</v>
+        <v>2174.0823</v>
       </c>
       <c r="G67" t="n">
-        <v>330.0666666666667</v>
+        <v>329.95</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2773,10 @@
         <v>332</v>
       </c>
       <c r="F68" t="n">
-        <v>5784.3459</v>
+        <v>4262.5245</v>
       </c>
       <c r="G68" t="n">
-        <v>330.1833333333333</v>
+        <v>330.0666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2808,10 @@
         <v>332</v>
       </c>
       <c r="F69" t="n">
-        <v>720.6416</v>
+        <v>5784.3459</v>
       </c>
       <c r="G69" t="n">
-        <v>330.2833333333334</v>
+        <v>330.1833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2831,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C70" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D70" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E70" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F70" t="n">
-        <v>5542.6009</v>
+        <v>720.6416</v>
       </c>
       <c r="G70" t="n">
-        <v>330.3833333333333</v>
+        <v>330.2833333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2878,10 @@
         <v>333</v>
       </c>
       <c r="F71" t="n">
-        <v>45.5938</v>
+        <v>5542.6009</v>
       </c>
       <c r="G71" t="n">
-        <v>330.4833333333333</v>
+        <v>330.3833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2901,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C72" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D72" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E72" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F72" t="n">
-        <v>1.4187</v>
+        <v>45.5938</v>
       </c>
       <c r="G72" t="n">
-        <v>330.5666666666667</v>
+        <v>330.4833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2948,10 @@
         <v>332</v>
       </c>
       <c r="F73" t="n">
-        <v>2.7446</v>
+        <v>1.4187</v>
       </c>
       <c r="G73" t="n">
-        <v>330.65</v>
+        <v>330.5666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2971,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C74" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D74" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E74" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F74" t="n">
-        <v>2096.3488</v>
+        <v>2.7446</v>
       </c>
       <c r="G74" t="n">
-        <v>330.75</v>
+        <v>330.65</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3018,10 @@
         <v>334</v>
       </c>
       <c r="F75" t="n">
-        <v>2219</v>
+        <v>2096.3488</v>
       </c>
       <c r="G75" t="n">
-        <v>330.85</v>
+        <v>330.75</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3044,19 @@
         <v>334</v>
       </c>
       <c r="C76" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D76" t="n">
         <v>334</v>
       </c>
       <c r="E76" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F76" t="n">
-        <v>1721.9189</v>
+        <v>2219</v>
       </c>
       <c r="G76" t="n">
-        <v>330.9333333333333</v>
+        <v>330.85</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3079,19 @@
         <v>334</v>
       </c>
       <c r="C77" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D77" t="n">
         <v>334</v>
       </c>
       <c r="E77" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F77" t="n">
-        <v>2114.57</v>
+        <v>1721.9189</v>
       </c>
       <c r="G77" t="n">
-        <v>331.0666666666667</v>
+        <v>330.9333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3123,10 @@
         <v>334</v>
       </c>
       <c r="F78" t="n">
-        <v>7975.4962</v>
+        <v>2114.57</v>
       </c>
       <c r="G78" t="n">
-        <v>331.2</v>
+        <v>331.0666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3158,10 @@
         <v>334</v>
       </c>
       <c r="F79" t="n">
-        <v>180</v>
+        <v>7975.4962</v>
       </c>
       <c r="G79" t="n">
-        <v>331.3166666666667</v>
+        <v>331.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3193,10 @@
         <v>334</v>
       </c>
       <c r="F80" t="n">
-        <v>1980.9878</v>
+        <v>180</v>
       </c>
       <c r="G80" t="n">
-        <v>331.4</v>
+        <v>331.3166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3228,10 @@
         <v>334</v>
       </c>
       <c r="F81" t="n">
-        <v>8838.907499999999</v>
+        <v>1980.9878</v>
       </c>
       <c r="G81" t="n">
-        <v>331.4833333333333</v>
+        <v>331.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3263,10 @@
         <v>334</v>
       </c>
       <c r="F82" t="n">
-        <v>6945.4939</v>
+        <v>8838.907499999999</v>
       </c>
       <c r="G82" t="n">
-        <v>331.5666666666667</v>
+        <v>331.4833333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3286,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C83" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D83" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E83" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F83" t="n">
-        <v>2760.1655</v>
+        <v>6945.4939</v>
       </c>
       <c r="G83" t="n">
-        <v>331.6666666666667</v>
+        <v>331.5666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3321,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C84" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D84" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E84" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F84" t="n">
-        <v>1000</v>
+        <v>2760.1655</v>
       </c>
       <c r="G84" t="n">
-        <v>331.7333333333333</v>
+        <v>331.6666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3353,7 +3371,7 @@
         <v>1000</v>
       </c>
       <c r="G85" t="n">
-        <v>331.7833333333334</v>
+        <v>331.7333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3391,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C86" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D86" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E86" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F86" t="n">
-        <v>54.7874</v>
+        <v>1000</v>
       </c>
       <c r="G86" t="n">
-        <v>331.85</v>
+        <v>331.7833333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3426,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C87" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D87" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E87" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F87" t="n">
-        <v>23757.6132</v>
+        <v>54.7874</v>
       </c>
       <c r="G87" t="n">
-        <v>331.95</v>
+        <v>331.85</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,19 +3464,19 @@
         <v>335</v>
       </c>
       <c r="C88" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D88" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E88" t="n">
         <v>335</v>
       </c>
       <c r="F88" t="n">
-        <v>1444.3792</v>
+        <v>23757.6132</v>
       </c>
       <c r="G88" t="n">
-        <v>332.0333333333334</v>
+        <v>331.95</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3508,10 @@
         <v>335</v>
       </c>
       <c r="F89" t="n">
-        <v>352.13</v>
+        <v>1444.3792</v>
       </c>
       <c r="G89" t="n">
-        <v>332.1166666666667</v>
+        <v>332.0333333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3543,10 @@
         <v>335</v>
       </c>
       <c r="F90" t="n">
-        <v>3060.7985</v>
+        <v>352.13</v>
       </c>
       <c r="G90" t="n">
-        <v>332.2</v>
+        <v>332.1166666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3578,10 @@
         <v>335</v>
       </c>
       <c r="F91" t="n">
-        <v>1403.4958</v>
+        <v>3060.7985</v>
       </c>
       <c r="G91" t="n">
-        <v>332.2833333333334</v>
+        <v>332.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3613,10 @@
         <v>335</v>
       </c>
       <c r="F92" t="n">
-        <v>2429.3285</v>
+        <v>1403.4958</v>
       </c>
       <c r="G92" t="n">
-        <v>332.3666666666667</v>
+        <v>332.2833333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3636,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C93" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D93" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E93" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F93" t="n">
-        <v>3424.362</v>
+        <v>2429.3285</v>
       </c>
       <c r="G93" t="n">
-        <v>332.4666666666666</v>
+        <v>332.3666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3671,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C94" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D94" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E94" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F94" t="n">
-        <v>817.1127</v>
+        <v>3424.362</v>
       </c>
       <c r="G94" t="n">
-        <v>332.5833333333333</v>
+        <v>332.4666666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3718,10 @@
         <v>337</v>
       </c>
       <c r="F95" t="n">
-        <v>310.991</v>
+        <v>817.1127</v>
       </c>
       <c r="G95" t="n">
-        <v>332.7</v>
+        <v>332.5833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3753,10 @@
         <v>337</v>
       </c>
       <c r="F96" t="n">
-        <v>969.7952</v>
+        <v>310.991</v>
       </c>
       <c r="G96" t="n">
-        <v>332.8166666666667</v>
+        <v>332.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C97" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D97" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E97" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F97" t="n">
-        <v>120</v>
+        <v>969.7952</v>
       </c>
       <c r="G97" t="n">
-        <v>332.9166666666667</v>
+        <v>332.8166666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3823,10 @@
         <v>336</v>
       </c>
       <c r="F98" t="n">
-        <v>340.7956</v>
+        <v>120</v>
       </c>
       <c r="G98" t="n">
-        <v>333.0166666666667</v>
+        <v>332.9166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3858,10 @@
         <v>336</v>
       </c>
       <c r="F99" t="n">
-        <v>1489.9732</v>
+        <v>340.7956</v>
       </c>
       <c r="G99" t="n">
-        <v>333.1166666666667</v>
+        <v>333.0166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3881,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C100" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D100" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E100" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F100" t="n">
-        <v>4294.1898</v>
+        <v>1489.9732</v>
       </c>
       <c r="G100" t="n">
-        <v>333.1666666666667</v>
+        <v>333.1166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3916,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C101" t="n">
         <v>334</v>
       </c>
       <c r="D101" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E101" t="n">
         <v>334</v>
       </c>
       <c r="F101" t="n">
-        <v>196.5686</v>
+        <v>4294.1898</v>
       </c>
       <c r="G101" t="n">
-        <v>333.2166666666666</v>
+        <v>333.1666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3951,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C102" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D102" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E102" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F102" t="n">
-        <v>815.0699</v>
+        <v>196.5686</v>
       </c>
       <c r="G102" t="n">
-        <v>333.25</v>
+        <v>333.2166666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3986,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C103" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D103" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E103" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F103" t="n">
-        <v>684.5085</v>
+        <v>815.0699</v>
       </c>
       <c r="G103" t="n">
-        <v>333.3166666666667</v>
+        <v>333.25</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4033,10 @@
         <v>335</v>
       </c>
       <c r="F104" t="n">
-        <v>279.1393</v>
+        <v>684.5085</v>
       </c>
       <c r="G104" t="n">
-        <v>333.3833333333333</v>
+        <v>333.3166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4059,19 @@
         <v>335</v>
       </c>
       <c r="C105" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D105" t="n">
         <v>335</v>
       </c>
       <c r="E105" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F105" t="n">
-        <v>3175.0171</v>
+        <v>279.1393</v>
       </c>
       <c r="G105" t="n">
-        <v>333.4</v>
+        <v>333.3833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4091,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C106" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D106" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E106" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F106" t="n">
-        <v>33.4418</v>
+        <v>3175.0171</v>
       </c>
       <c r="G106" t="n">
-        <v>333.45</v>
+        <v>333.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4138,10 @@
         <v>334</v>
       </c>
       <c r="F107" t="n">
-        <v>27.6172</v>
+        <v>33.4418</v>
       </c>
       <c r="G107" t="n">
-        <v>333.4833333333333</v>
+        <v>333.45</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C108" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D108" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E108" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F108" t="n">
-        <v>3357.9307</v>
+        <v>27.6172</v>
       </c>
       <c r="G108" t="n">
-        <v>333.5333333333334</v>
+        <v>333.4833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4208,10 @@
         <v>335</v>
       </c>
       <c r="F109" t="n">
-        <v>14.7418</v>
+        <v>3357.9307</v>
       </c>
       <c r="G109" t="n">
-        <v>333.5833333333333</v>
+        <v>333.5333333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4231,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C110" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D110" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E110" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F110" t="n">
-        <v>3420.7926</v>
+        <v>14.7418</v>
       </c>
       <c r="G110" t="n">
-        <v>333.6166666666667</v>
+        <v>333.5833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4266,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C111" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D111" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E111" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F111" t="n">
-        <v>1104.0173</v>
+        <v>3420.7926</v>
       </c>
       <c r="G111" t="n">
-        <v>333.6666666666667</v>
+        <v>333.6166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,7 +4301,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C112" t="n">
         <v>335</v>
@@ -4292,13 +4310,13 @@
         <v>335</v>
       </c>
       <c r="E112" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F112" t="n">
-        <v>1213.3363</v>
+        <v>1104.0173</v>
       </c>
       <c r="G112" t="n">
-        <v>333.7166666666666</v>
+        <v>333.6666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4348,10 @@
         <v>335</v>
       </c>
       <c r="F113" t="n">
-        <v>223.994</v>
+        <v>1213.3363</v>
       </c>
       <c r="G113" t="n">
-        <v>333.7666666666667</v>
+        <v>333.7166666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C114" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D114" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E114" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F114" t="n">
-        <v>609.9404</v>
+        <v>223.994</v>
       </c>
       <c r="G114" t="n">
-        <v>333.8</v>
+        <v>333.7666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4418,10 @@
         <v>334</v>
       </c>
       <c r="F115" t="n">
-        <v>358.9443</v>
+        <v>609.9404</v>
       </c>
       <c r="G115" t="n">
-        <v>333.8333333333333</v>
+        <v>333.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4441,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C116" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D116" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E116" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>358.9443</v>
       </c>
       <c r="G116" t="n">
-        <v>333.85</v>
+        <v>333.8333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4476,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C117" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D117" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E117" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F117" t="n">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>333.9</v>
+        <v>333.85</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C118" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D118" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E118" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F118" t="n">
-        <v>1245</v>
+        <v>9.5</v>
       </c>
       <c r="G118" t="n">
-        <v>333.95</v>
+        <v>333.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4558,10 @@
         <v>334</v>
       </c>
       <c r="F119" t="n">
-        <v>4697.8776</v>
+        <v>1245</v>
       </c>
       <c r="G119" t="n">
-        <v>333.9833333333333</v>
+        <v>333.95</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4593,10 @@
         <v>334</v>
       </c>
       <c r="F120" t="n">
-        <v>647.4153</v>
+        <v>4697.8776</v>
       </c>
       <c r="G120" t="n">
-        <v>334.0166666666667</v>
+        <v>333.9833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4616,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C121" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D121" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E121" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F121" t="n">
-        <v>969.7952</v>
+        <v>647.4153</v>
       </c>
       <c r="G121" t="n">
-        <v>334.0333333333334</v>
+        <v>334.0166666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4651,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C122" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D122" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E122" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F122" t="n">
-        <v>1159.7119</v>
+        <v>969.7952</v>
       </c>
       <c r="G122" t="n">
-        <v>334.0833333333333</v>
+        <v>334.0333333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4698,10 @@
         <v>335</v>
       </c>
       <c r="F123" t="n">
-        <v>13878.8776</v>
+        <v>1159.7119</v>
       </c>
       <c r="G123" t="n">
-        <v>334.1333333333333</v>
+        <v>334.0833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,19 +4724,19 @@
         <v>335</v>
       </c>
       <c r="C124" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D124" t="n">
         <v>335</v>
       </c>
       <c r="E124" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F124" t="n">
-        <v>927.176</v>
+        <v>13878.8776</v>
       </c>
       <c r="G124" t="n">
-        <v>334.1666666666667</v>
+        <v>334.1333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4741,19 +4759,19 @@
         <v>335</v>
       </c>
       <c r="C125" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D125" t="n">
         <v>335</v>
       </c>
       <c r="E125" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F125" t="n">
-        <v>72.3064</v>
+        <v>927.176</v>
       </c>
       <c r="G125" t="n">
-        <v>334.2166666666666</v>
+        <v>334.1666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4791,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C126" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D126" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E126" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F126" t="n">
-        <v>506.9183</v>
+        <v>72.3064</v>
       </c>
       <c r="G126" t="n">
-        <v>334.25</v>
+        <v>334.2166666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4826,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C127" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D127" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E127" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F127" t="n">
-        <v>8432.047699999999</v>
+        <v>506.9183</v>
       </c>
       <c r="G127" t="n">
-        <v>334.3</v>
+        <v>334.25</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4861,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C128" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D128" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E128" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F128" t="n">
-        <v>34.7079</v>
+        <v>8432.047699999999</v>
       </c>
       <c r="G128" t="n">
-        <v>334.3333333333333</v>
+        <v>334.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4896,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C129" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D129" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E129" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F129" t="n">
-        <v>3015.5109</v>
+        <v>34.7079</v>
       </c>
       <c r="G129" t="n">
-        <v>334.35</v>
+        <v>334.3333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,7 +4943,7 @@
         <v>333</v>
       </c>
       <c r="F130" t="n">
-        <v>3032.6554</v>
+        <v>3015.5109</v>
       </c>
       <c r="G130" t="n">
         <v>334.35</v>
@@ -4951,19 +4969,19 @@
         <v>333</v>
       </c>
       <c r="C131" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D131" t="n">
         <v>333</v>
       </c>
       <c r="E131" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F131" t="n">
-        <v>18488.6342</v>
+        <v>3032.6554</v>
       </c>
       <c r="G131" t="n">
-        <v>334.3166666666667</v>
+        <v>334.35</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5001,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C132" t="n">
         <v>331</v>
       </c>
       <c r="D132" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E132" t="n">
         <v>331</v>
       </c>
       <c r="F132" t="n">
-        <v>17.7789</v>
+        <v>18488.6342</v>
       </c>
       <c r="G132" t="n">
-        <v>334.3</v>
+        <v>334.3166666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5036,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C133" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D133" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E133" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F133" t="n">
-        <v>3368.6502</v>
+        <v>17.7789</v>
       </c>
       <c r="G133" t="n">
-        <v>334.25</v>
+        <v>334.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5071,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C134" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D134" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E134" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F134" t="n">
-        <v>29.8191</v>
+        <v>3368.6502</v>
       </c>
       <c r="G134" t="n">
-        <v>334.2</v>
+        <v>334.25</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5106,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C135" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D135" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E135" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F135" t="n">
-        <v>1939.2099</v>
+        <v>29.8191</v>
       </c>
       <c r="G135" t="n">
-        <v>334.1333333333333</v>
+        <v>334.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5153,10 @@
         <v>330</v>
       </c>
       <c r="F136" t="n">
-        <v>4064.0284</v>
+        <v>1939.2099</v>
       </c>
       <c r="G136" t="n">
-        <v>334.1</v>
+        <v>334.1333333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,23 +5188,19 @@
         <v>330</v>
       </c>
       <c r="F137" t="n">
-        <v>8051.2638</v>
+        <v>4064.0284</v>
       </c>
       <c r="G137" t="n">
-        <v>334.0333333333334</v>
+        <v>334.1</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>330</v>
-      </c>
-      <c r="K137" t="n">
-        <v>330</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
@@ -5209,143 +5223,141 @@
         <v>330</v>
       </c>
       <c r="F138" t="n">
+        <v>8051.2638</v>
+      </c>
+      <c r="G138" t="n">
+        <v>334.0333333333334</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>330</v>
+      </c>
+      <c r="C139" t="n">
+        <v>330</v>
+      </c>
+      <c r="D139" t="n">
+        <v>330</v>
+      </c>
+      <c r="E139" t="n">
+        <v>330</v>
+      </c>
+      <c r="F139" t="n">
         <v>2833.436</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G139" t="n">
         <v>333.9666666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>330</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>330</v>
+      </c>
+      <c r="K139" t="n">
+        <v>330</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>330</v>
+      </c>
+      <c r="C140" t="n">
+        <v>330</v>
+      </c>
+      <c r="D140" t="n">
+        <v>330</v>
+      </c>
+      <c r="E140" t="n">
+        <v>330</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2650.4845</v>
+      </c>
+      <c r="G140" t="n">
+        <v>333.9</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>330</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>330</v>
-      </c>
-      <c r="C139" t="n">
-        <v>330</v>
-      </c>
-      <c r="D139" t="n">
-        <v>330</v>
-      </c>
-      <c r="E139" t="n">
-        <v>330</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2650.4845</v>
-      </c>
-      <c r="G139" t="n">
-        <v>333.9</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>330</v>
-      </c>
-      <c r="K139" t="n">
-        <v>330</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>333</v>
+      </c>
+      <c r="C141" t="n">
+        <v>333</v>
+      </c>
+      <c r="D141" t="n">
+        <v>333</v>
+      </c>
+      <c r="E141" t="n">
+        <v>333</v>
+      </c>
+      <c r="F141" t="n">
+        <v>137.1681</v>
+      </c>
+      <c r="G141" t="n">
+        <v>333.8833333333333</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>330</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>333</v>
-      </c>
-      <c r="C140" t="n">
-        <v>333</v>
-      </c>
-      <c r="D140" t="n">
-        <v>333</v>
-      </c>
-      <c r="E140" t="n">
-        <v>333</v>
-      </c>
-      <c r="F140" t="n">
-        <v>137.1681</v>
-      </c>
-      <c r="G140" t="n">
-        <v>333.8833333333333</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>333</v>
-      </c>
-      <c r="C141" t="n">
-        <v>333</v>
-      </c>
-      <c r="D141" t="n">
-        <v>333</v>
-      </c>
-      <c r="E141" t="n">
-        <v>333</v>
-      </c>
-      <c r="F141" t="n">
-        <v>202.8361</v>
-      </c>
-      <c r="G141" t="n">
-        <v>333.8666666666667</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>333</v>
-      </c>
-      <c r="K141" t="n">
-        <v>333</v>
-      </c>
-      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5355,40 +5367,32 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C142" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D142" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E142" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F142" t="n">
-        <v>2926.9775</v>
+        <v>202.8361</v>
       </c>
       <c r="G142" t="n">
         <v>333.8666666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>333</v>
-      </c>
-      <c r="K142" t="n">
-        <v>333</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5398,40 +5402,32 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C143" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D143" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E143" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F143" t="n">
-        <v>2459.3133</v>
+        <v>2926.9775</v>
       </c>
       <c r="G143" t="n">
-        <v>333.8833333333333</v>
+        <v>333.8666666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>334</v>
-      </c>
-      <c r="K143" t="n">
-        <v>333</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5441,7 +5437,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C144" t="n">
         <v>336</v>
@@ -5450,26 +5446,22 @@
         <v>336</v>
       </c>
       <c r="E144" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F144" t="n">
-        <v>159.5028</v>
+        <v>2459.3133</v>
       </c>
       <c r="G144" t="n">
-        <v>333.9333333333333</v>
+        <v>333.8833333333333</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>336</v>
-      </c>
-      <c r="K144" t="n">
-        <v>336</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
@@ -5483,19 +5475,19 @@
         <v>336</v>
       </c>
       <c r="C145" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D145" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E145" t="n">
         <v>336</v>
       </c>
       <c r="F145" t="n">
-        <v>10762.6324</v>
+        <v>159.5028</v>
       </c>
       <c r="G145" t="n">
-        <v>334</v>
+        <v>333.9333333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5504,14 +5496,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>336</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5524,19 +5510,19 @@
         <v>336</v>
       </c>
       <c r="C146" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D146" t="n">
+        <v>337</v>
+      </c>
+      <c r="E146" t="n">
         <v>336</v>
       </c>
-      <c r="E146" t="n">
-        <v>335</v>
-      </c>
       <c r="F146" t="n">
-        <v>1000</v>
+        <v>10762.6324</v>
       </c>
       <c r="G146" t="n">
-        <v>334.0166666666667</v>
+        <v>334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5545,14 +5531,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>336</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5562,22 +5542,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C147" t="n">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D147" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E147" t="n">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F147" t="n">
-        <v>31.3127</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="n">
-        <v>334.0333333333334</v>
+        <v>334.0166666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5586,14 +5566,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>336</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5577,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C148" t="n">
         <v>337</v>
@@ -5612,13 +5586,13 @@
         <v>337</v>
       </c>
       <c r="E148" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F148" t="n">
-        <v>1300.9019</v>
+        <v>31.3127</v>
       </c>
       <c r="G148" t="n">
-        <v>334.0666666666667</v>
+        <v>334.0333333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5627,14 +5601,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>336</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5644,7 +5612,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C149" t="n">
         <v>337</v>
@@ -5653,13 +5621,13 @@
         <v>337</v>
       </c>
       <c r="E149" t="n">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F149" t="n">
-        <v>1565.6339</v>
+        <v>1300.9019</v>
       </c>
       <c r="G149" t="n">
-        <v>334.1</v>
+        <v>334.0666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5668,14 +5636,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>336</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5688,19 +5650,19 @@
         <v>337</v>
       </c>
       <c r="C150" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D150" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E150" t="n">
         <v>337</v>
       </c>
       <c r="F150" t="n">
-        <v>5278.9698</v>
+        <v>1565.6339</v>
       </c>
       <c r="G150" t="n">
-        <v>334.15</v>
+        <v>334.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5709,14 +5671,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>336</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5726,7 +5682,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C151" t="n">
         <v>338</v>
@@ -5735,13 +5691,13 @@
         <v>338</v>
       </c>
       <c r="E151" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F151" t="n">
-        <v>400.9604</v>
+        <v>5278.9698</v>
       </c>
       <c r="G151" t="n">
-        <v>334.2</v>
+        <v>334.15</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5750,14 +5706,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>336</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5770,19 +5720,19 @@
         <v>338</v>
       </c>
       <c r="C152" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D152" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E152" t="n">
         <v>338</v>
       </c>
       <c r="F152" t="n">
-        <v>3591.4773</v>
+        <v>400.9604</v>
       </c>
       <c r="G152" t="n">
-        <v>334.2666666666667</v>
+        <v>334.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5791,14 +5741,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>336</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5808,22 +5752,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>338</v>
+      </c>
+      <c r="C153" t="n">
         <v>339</v>
       </c>
-      <c r="C153" t="n">
-        <v>340</v>
-      </c>
       <c r="D153" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E153" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F153" t="n">
-        <v>6968.4663</v>
+        <v>3591.4773</v>
       </c>
       <c r="G153" t="n">
-        <v>334.3333333333333</v>
+        <v>334.2666666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5832,14 +5776,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>336</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5849,10 +5787,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>339</v>
+      </c>
+      <c r="C154" t="n">
         <v>340</v>
-      </c>
-      <c r="C154" t="n">
-        <v>339</v>
       </c>
       <c r="D154" t="n">
         <v>340</v>
@@ -5861,10 +5799,10 @@
         <v>339</v>
       </c>
       <c r="F154" t="n">
-        <v>6390.7349</v>
+        <v>6968.4663</v>
       </c>
       <c r="G154" t="n">
-        <v>334.3666666666667</v>
+        <v>334.3333333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5873,14 +5811,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>336</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5893,19 +5825,19 @@
         <v>340</v>
       </c>
       <c r="C155" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D155" t="n">
         <v>340</v>
       </c>
       <c r="E155" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F155" t="n">
-        <v>2550.1576</v>
+        <v>6390.7349</v>
       </c>
       <c r="G155" t="n">
-        <v>334.4166666666667</v>
+        <v>334.3666666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5914,14 +5846,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>336</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5931,22 +5857,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C156" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D156" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E156" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F156" t="n">
-        <v>4816.0409</v>
+        <v>2550.1576</v>
       </c>
       <c r="G156" t="n">
-        <v>334.4833333333333</v>
+        <v>334.4166666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5955,14 +5881,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>336</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5972,22 +5892,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C157" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D157" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E157" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F157" t="n">
-        <v>24003.1569</v>
+        <v>4816.0409</v>
       </c>
       <c r="G157" t="n">
-        <v>334.6</v>
+        <v>334.4833333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5996,14 +5916,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>336</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6013,7 +5927,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C158" t="n">
         <v>343</v>
@@ -6025,10 +5939,10 @@
         <v>342</v>
       </c>
       <c r="F158" t="n">
-        <v>7842.5467</v>
+        <v>24003.1569</v>
       </c>
       <c r="G158" t="n">
-        <v>334.7166666666666</v>
+        <v>334.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6037,14 +5951,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>336</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6057,37 +5965,31 @@
         <v>343</v>
       </c>
       <c r="C159" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D159" t="n">
         <v>343</v>
       </c>
       <c r="E159" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F159" t="n">
-        <v>5105.6809</v>
+        <v>7842.5467</v>
       </c>
       <c r="G159" t="n">
-        <v>334.8166666666667</v>
+        <v>334.7166666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>336</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>1.012857142857143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -6095,22 +5997,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C160" t="n">
         <v>342</v>
       </c>
       <c r="D160" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E160" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F160" t="n">
-        <v>5330.7935</v>
+        <v>5105.6809</v>
       </c>
       <c r="G160" t="n">
-        <v>334.95</v>
+        <v>334.8166666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6130,22 +6032,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C161" t="n">
         <v>342</v>
       </c>
       <c r="D161" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E161" t="n">
         <v>342</v>
       </c>
       <c r="F161" t="n">
-        <v>6537.7448</v>
+        <v>5330.7935</v>
       </c>
       <c r="G161" t="n">
-        <v>335.0833333333333</v>
+        <v>334.95</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6165,22 +6067,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C162" t="n">
         <v>342</v>
       </c>
       <c r="D162" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E162" t="n">
         <v>342</v>
       </c>
       <c r="F162" t="n">
-        <v>7991.6928</v>
+        <v>6537.7448</v>
       </c>
       <c r="G162" t="n">
-        <v>335.2333333333333</v>
+        <v>335.0833333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6200,22 +6102,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C163" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D163" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E163" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F163" t="n">
-        <v>20.852</v>
+        <v>7991.6928</v>
       </c>
       <c r="G163" t="n">
-        <v>335.3166666666667</v>
+        <v>335.2333333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6235,22 +6137,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C164" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D164" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E164" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F164" t="n">
-        <v>2491.2107</v>
+        <v>20.852</v>
       </c>
       <c r="G164" t="n">
-        <v>335.3833333333333</v>
+        <v>335.3166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6276,16 +6178,16 @@
         <v>339</v>
       </c>
       <c r="D165" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E165" t="n">
         <v>338</v>
       </c>
       <c r="F165" t="n">
-        <v>15056.1233</v>
+        <v>2491.2107</v>
       </c>
       <c r="G165" t="n">
-        <v>335.5</v>
+        <v>335.3833333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6305,22 +6207,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C166" t="n">
         <v>339</v>
       </c>
       <c r="D166" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E166" t="n">
         <v>338</v>
       </c>
       <c r="F166" t="n">
-        <v>4649.5635</v>
+        <v>15056.1233</v>
       </c>
       <c r="G166" t="n">
-        <v>335.5833333333333</v>
+        <v>335.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6349,13 +6251,13 @@
         <v>339</v>
       </c>
       <c r="E167" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F167" t="n">
-        <v>1573.3351</v>
+        <v>4649.5635</v>
       </c>
       <c r="G167" t="n">
-        <v>335.6666666666667</v>
+        <v>335.5833333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6387,10 +6289,10 @@
         <v>339</v>
       </c>
       <c r="F168" t="n">
-        <v>4356.8872</v>
+        <v>1573.3351</v>
       </c>
       <c r="G168" t="n">
-        <v>335.7333333333333</v>
+        <v>335.6666666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6410,22 +6312,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C169" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D169" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E169" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F169" t="n">
-        <v>25.4476</v>
+        <v>4356.8872</v>
       </c>
       <c r="G169" t="n">
-        <v>335.8166666666667</v>
+        <v>335.7333333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6457,10 +6359,10 @@
         <v>340</v>
       </c>
       <c r="F170" t="n">
-        <v>1892.2999</v>
+        <v>25.4476</v>
       </c>
       <c r="G170" t="n">
-        <v>335.9166666666667</v>
+        <v>335.8166666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6492,10 +6394,10 @@
         <v>340</v>
       </c>
       <c r="F171" t="n">
-        <v>249.7005</v>
+        <v>1892.2999</v>
       </c>
       <c r="G171" t="n">
-        <v>336</v>
+        <v>335.9166666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6518,19 +6420,19 @@
         <v>340</v>
       </c>
       <c r="C172" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D172" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E172" t="n">
         <v>340</v>
       </c>
       <c r="F172" t="n">
-        <v>2805.5096</v>
+        <v>249.7005</v>
       </c>
       <c r="G172" t="n">
-        <v>336.1</v>
+        <v>336</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6550,7 +6452,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C173" t="n">
         <v>341</v>
@@ -6559,13 +6461,13 @@
         <v>341</v>
       </c>
       <c r="E173" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F173" t="n">
-        <v>5773.3137</v>
+        <v>2805.5096</v>
       </c>
       <c r="G173" t="n">
-        <v>336.2</v>
+        <v>336.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6585,22 +6487,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C174" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D174" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E174" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F174" t="n">
-        <v>10112.6648</v>
+        <v>5773.3137</v>
       </c>
       <c r="G174" t="n">
-        <v>336.35</v>
+        <v>336.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6620,22 +6522,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C175" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D175" t="n">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E175" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F175" t="n">
-        <v>25642.46431710145</v>
+        <v>10112.6648</v>
       </c>
       <c r="G175" t="n">
-        <v>336.5166666666667</v>
+        <v>336.35</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6661,16 +6563,16 @@
         <v>344</v>
       </c>
       <c r="D176" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E176" t="n">
         <v>344</v>
       </c>
       <c r="F176" t="n">
-        <v>4046.2512</v>
+        <v>25642.46431710145</v>
       </c>
       <c r="G176" t="n">
-        <v>336.7</v>
+        <v>336.5166666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6696,16 +6598,16 @@
         <v>344</v>
       </c>
       <c r="D177" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E177" t="n">
         <v>344</v>
       </c>
       <c r="F177" t="n">
-        <v>1000</v>
+        <v>4046.2512</v>
       </c>
       <c r="G177" t="n">
-        <v>336.85</v>
+        <v>336.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6725,22 +6627,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C178" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D178" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E178" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F178" t="n">
-        <v>6205.809248554913</v>
+        <v>1000</v>
       </c>
       <c r="G178" t="n">
-        <v>337.05</v>
+        <v>336.85</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6772,10 +6674,10 @@
         <v>346</v>
       </c>
       <c r="F179" t="n">
-        <v>13090.0895</v>
+        <v>6205.809248554913</v>
       </c>
       <c r="G179" t="n">
-        <v>337.25</v>
+        <v>337.05</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6790,6 +6692,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>346</v>
+      </c>
+      <c r="C180" t="n">
+        <v>346</v>
+      </c>
+      <c r="D180" t="n">
+        <v>346</v>
+      </c>
+      <c r="E180" t="n">
+        <v>346</v>
+      </c>
+      <c r="F180" t="n">
+        <v>13090.0895</v>
+      </c>
+      <c r="G180" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-01 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M180"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4.01</v>
       </c>
       <c r="G2" t="n">
+        <v>322.1333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>320.6</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,25 @@
         <v>168</v>
       </c>
       <c r="G3" t="n">
+        <v>322.2</v>
+      </c>
+      <c r="H3" t="n">
         <v>320.7</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>324</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="L3" t="n">
+        <v>324</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,26 +533,29 @@
         <v>1771.2829</v>
       </c>
       <c r="G4" t="n">
+        <v>322.4666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>320.8</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>324</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>324</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -565,24 +579,29 @@
         <v>2351.3591</v>
       </c>
       <c r="G5" t="n">
+        <v>322.5333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>320.9</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="n">
         <v>324</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>324</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,18 +625,25 @@
         <v>96.9696</v>
       </c>
       <c r="G6" t="n">
+        <v>322.8666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>321.0166666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>324</v>
+      </c>
+      <c r="L6" t="n">
+        <v>324</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -641,18 +667,29 @@
         <v>967.9999</v>
       </c>
       <c r="G7" t="n">
+        <v>323</v>
+      </c>
+      <c r="H7" t="n">
         <v>321.1333333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>325</v>
+      </c>
+      <c r="L7" t="n">
+        <v>324</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -676,18 +713,27 @@
         <v>946.6745</v>
       </c>
       <c r="G8" t="n">
+        <v>323.1333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>321.25</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>324</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,18 +757,25 @@
         <v>3394.348</v>
       </c>
       <c r="G9" t="n">
+        <v>323.4</v>
+      </c>
+      <c r="H9" t="n">
         <v>321.3666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>325</v>
+      </c>
+      <c r="L9" t="n">
+        <v>325</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -746,18 +799,27 @@
         <v>8589.318600000001</v>
       </c>
       <c r="G10" t="n">
+        <v>323.7333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>321.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>325</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,18 +843,27 @@
         <v>1934.2253</v>
       </c>
       <c r="G11" t="n">
+        <v>324.2</v>
+      </c>
+      <c r="H11" t="n">
         <v>321.65</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>325</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -816,18 +887,27 @@
         <v>1227.5177</v>
       </c>
       <c r="G12" t="n">
+        <v>324.4666666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>321.8</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>325</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -851,18 +931,27 @@
         <v>649.2456</v>
       </c>
       <c r="G13" t="n">
+        <v>324.7333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>321.9666666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>325</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -886,18 +975,27 @@
         <v>2259.7218</v>
       </c>
       <c r="G14" t="n">
+        <v>325</v>
+      </c>
+      <c r="H14" t="n">
         <v>322.1333333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>325</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -921,18 +1019,27 @@
         <v>2987.8964</v>
       </c>
       <c r="G15" t="n">
+        <v>325.4</v>
+      </c>
+      <c r="H15" t="n">
         <v>322.3166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>325</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,18 +1063,27 @@
         <v>30</v>
       </c>
       <c r="G16" t="n">
+        <v>325.7333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>322.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>325</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -991,18 +1107,27 @@
         <v>28.5369</v>
       </c>
       <c r="G17" t="n">
+        <v>325.9333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>322.6333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>325</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1026,18 +1151,27 @@
         <v>920.433</v>
       </c>
       <c r="G18" t="n">
+        <v>326.0666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>322.7666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>325</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1061,18 +1195,27 @@
         <v>1398.1133</v>
       </c>
       <c r="G19" t="n">
+        <v>326.2</v>
+      </c>
+      <c r="H19" t="n">
         <v>322.9</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>325</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,18 +1239,27 @@
         <v>1710.8798</v>
       </c>
       <c r="G20" t="n">
+        <v>326.4</v>
+      </c>
+      <c r="H20" t="n">
         <v>323.0166666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>325</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1131,18 +1283,27 @@
         <v>3812.8816</v>
       </c>
       <c r="G21" t="n">
+        <v>326.6666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>323.1666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>325</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1166,18 +1327,27 @@
         <v>468</v>
       </c>
       <c r="G22" t="n">
+        <v>326.9333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>323.3</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>325</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,18 +1371,27 @@
         <v>4895.543</v>
       </c>
       <c r="G23" t="n">
+        <v>327.2</v>
+      </c>
+      <c r="H23" t="n">
         <v>323.4333333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>325</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,18 +1415,27 @@
         <v>10239.6199</v>
       </c>
       <c r="G24" t="n">
+        <v>327.4666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>323.5666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>325</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1271,18 +1459,27 @@
         <v>7968.5736</v>
       </c>
       <c r="G25" t="n">
+        <v>327.6666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>323.6833333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>325</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,18 +1503,27 @@
         <v>989.7371000000001</v>
       </c>
       <c r="G26" t="n">
+        <v>327.8666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>323.8</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>325</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1341,18 +1547,27 @@
         <v>117</v>
       </c>
       <c r="G27" t="n">
+        <v>328.0666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>323.9166666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>325</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1376,18 +1591,27 @@
         <v>100</v>
       </c>
       <c r="G28" t="n">
+        <v>328.2666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>324.0166666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>325</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,18 +1635,27 @@
         <v>7007.4995</v>
       </c>
       <c r="G29" t="n">
+        <v>328.4666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>324.1333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>325</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,18 +1679,27 @@
         <v>1848.4878</v>
       </c>
       <c r="G30" t="n">
+        <v>328.6</v>
+      </c>
+      <c r="H30" t="n">
         <v>324.2166666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>325</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1481,18 +1723,27 @@
         <v>100.8792</v>
       </c>
       <c r="G31" t="n">
+        <v>328.7333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>324.35</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>325</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1516,18 +1767,27 @@
         <v>79.11450000000001</v>
       </c>
       <c r="G32" t="n">
+        <v>328.9333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>324.45</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>325</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1551,18 +1811,27 @@
         <v>1649.9704</v>
       </c>
       <c r="G33" t="n">
+        <v>329.2</v>
+      </c>
+      <c r="H33" t="n">
         <v>324.55</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>325</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,18 +1855,27 @@
         <v>7690.3152</v>
       </c>
       <c r="G34" t="n">
+        <v>329.4666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>324.6833333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>325</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,18 +1899,27 @@
         <v>936.7595</v>
       </c>
       <c r="G35" t="n">
+        <v>329.6666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>324.8166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>325</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,18 +1943,27 @@
         <v>532.3097</v>
       </c>
       <c r="G36" t="n">
+        <v>329.7333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>324.9833333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>325</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,18 +1987,27 @@
         <v>2707.8488</v>
       </c>
       <c r="G37" t="n">
+        <v>329.8</v>
+      </c>
+      <c r="H37" t="n">
         <v>325.1333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>325</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,18 +2031,27 @@
         <v>815.6155</v>
       </c>
       <c r="G38" t="n">
+        <v>329.8666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>325.3166666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>325</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +2075,27 @@
         <v>2596.1931</v>
       </c>
       <c r="G39" t="n">
+        <v>329.9333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>325.4833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>325</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +2119,27 @@
         <v>1663.0419</v>
       </c>
       <c r="G40" t="n">
+        <v>330</v>
+      </c>
+      <c r="H40" t="n">
         <v>325.6166666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>325</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +2163,27 @@
         <v>542.123</v>
       </c>
       <c r="G41" t="n">
+        <v>330.0666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>325.8</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>325</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,18 +2207,27 @@
         <v>5259.4</v>
       </c>
       <c r="G42" t="n">
+        <v>330.1333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>325.9833333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>325</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,18 +2251,27 @@
         <v>2025.5029</v>
       </c>
       <c r="G43" t="n">
+        <v>330.2</v>
+      </c>
+      <c r="H43" t="n">
         <v>326.1666666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>325</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,18 +2295,27 @@
         <v>2955.3443</v>
       </c>
       <c r="G44" t="n">
+        <v>330.2666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>326.3333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>325</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,18 +2339,27 @@
         <v>2968.5826</v>
       </c>
       <c r="G45" t="n">
+        <v>330.3333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>326.5</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>325</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2383,27 @@
         <v>1811.9733</v>
       </c>
       <c r="G46" t="n">
+        <v>330.4</v>
+      </c>
+      <c r="H46" t="n">
         <v>326.6833333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>325</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,18 +2427,27 @@
         <v>193.0297</v>
       </c>
       <c r="G47" t="n">
+        <v>330.4666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>326.8666666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>325</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2471,27 @@
         <v>1651.5827</v>
       </c>
       <c r="G48" t="n">
+        <v>330.6</v>
+      </c>
+      <c r="H48" t="n">
         <v>327.0166666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>325</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,18 +2515,27 @@
         <v>1984.7296</v>
       </c>
       <c r="G49" t="n">
+        <v>330.7333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>327.2166666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>325</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,18 +2559,27 @@
         <v>628.8381000000001</v>
       </c>
       <c r="G50" t="n">
+        <v>330.8666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>327.3666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>325</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,18 +2603,27 @@
         <v>2013.1194</v>
       </c>
       <c r="G51" t="n">
+        <v>331</v>
+      </c>
+      <c r="H51" t="n">
         <v>327.5666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>325</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2647,27 @@
         <v>673.5006</v>
       </c>
       <c r="G52" t="n">
+        <v>331.1333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>327.7166666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>325</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2691,27 @@
         <v>1055.7461</v>
       </c>
       <c r="G53" t="n">
+        <v>331.2666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>327.8666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>325</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2735,27 @@
         <v>6763.5648</v>
       </c>
       <c r="G54" t="n">
+        <v>331.4</v>
+      </c>
+      <c r="H54" t="n">
         <v>328.05</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>325</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2779,27 @@
         <v>6017.9344</v>
       </c>
       <c r="G55" t="n">
+        <v>331.5333333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>328.2333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>325</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2823,27 @@
         <v>1280.9678</v>
       </c>
       <c r="G56" t="n">
+        <v>331.6</v>
+      </c>
+      <c r="H56" t="n">
         <v>328.4333333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>325</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2867,27 @@
         <v>26527.4228</v>
       </c>
       <c r="G57" t="n">
+        <v>331.6666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>328.5833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>325</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2911,27 @@
         <v>14603.2625</v>
       </c>
       <c r="G58" t="n">
+        <v>331.7333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>328.7333333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>325</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2955,27 @@
         <v>2047.8841</v>
       </c>
       <c r="G59" t="n">
+        <v>331.7333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>328.8666666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>325</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2999,27 @@
         <v>3268.1555</v>
       </c>
       <c r="G60" t="n">
+        <v>331.8</v>
+      </c>
+      <c r="H60" t="n">
         <v>329.0333333333334</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>325</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +3043,27 @@
         <v>1172.932</v>
       </c>
       <c r="G61" t="n">
+        <v>331.8666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>329.1833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>325</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +3087,27 @@
         <v>30.4991</v>
       </c>
       <c r="G62" t="n">
+        <v>331.9333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>329.3166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>325</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +3131,27 @@
         <v>2167.0545</v>
       </c>
       <c r="G63" t="n">
+        <v>331.9333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>329.45</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>325</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +3175,27 @@
         <v>18877.8396</v>
       </c>
       <c r="G64" t="n">
+        <v>331.9333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>329.5833333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>325</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +3219,27 @@
         <v>4117.369172289156</v>
       </c>
       <c r="G65" t="n">
+        <v>331.9333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>329.7166666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>325</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +3263,27 @@
         <v>116.366</v>
       </c>
       <c r="G66" t="n">
+        <v>331.9333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>329.8333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>325</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +3307,27 @@
         <v>2174.0823</v>
       </c>
       <c r="G67" t="n">
+        <v>331.9333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>329.95</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>325</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +3351,27 @@
         <v>4262.5245</v>
       </c>
       <c r="G68" t="n">
+        <v>331.9333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>330.0666666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>325</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,18 +3395,27 @@
         <v>5784.3459</v>
       </c>
       <c r="G69" t="n">
+        <v>331.9333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>330.1833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>325</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,18 +3439,27 @@
         <v>720.6416</v>
       </c>
       <c r="G70" t="n">
+        <v>331.9333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>330.2833333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>325</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,18 +3483,27 @@
         <v>5542.6009</v>
       </c>
       <c r="G71" t="n">
+        <v>332</v>
+      </c>
+      <c r="H71" t="n">
         <v>330.3833333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>325</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,18 +3527,27 @@
         <v>45.5938</v>
       </c>
       <c r="G72" t="n">
+        <v>332.0666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>330.4833333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>325</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +3571,27 @@
         <v>1.4187</v>
       </c>
       <c r="G73" t="n">
+        <v>332.0666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>330.5666666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>325</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3615,27 @@
         <v>2.7446</v>
       </c>
       <c r="G74" t="n">
+        <v>332.1333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>330.65</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>325</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3659,27 @@
         <v>2096.3488</v>
       </c>
       <c r="G75" t="n">
+        <v>332.2666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>330.75</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>325</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3703,27 @@
         <v>2219</v>
       </c>
       <c r="G76" t="n">
+        <v>332.4</v>
+      </c>
+      <c r="H76" t="n">
         <v>330.85</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>325</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3747,27 @@
         <v>1721.9189</v>
       </c>
       <c r="G77" t="n">
+        <v>332.4</v>
+      </c>
+      <c r="H77" t="n">
         <v>330.9333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>325</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3791,27 @@
         <v>2114.57</v>
       </c>
       <c r="G78" t="n">
+        <v>332.5333333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>331.0666666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>325</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3835,27 @@
         <v>7975.4962</v>
       </c>
       <c r="G79" t="n">
+        <v>332.6666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>331.2</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>325</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3879,27 @@
         <v>180</v>
       </c>
       <c r="G80" t="n">
+        <v>332.8</v>
+      </c>
+      <c r="H80" t="n">
         <v>331.3166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>325</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3923,27 @@
         <v>1980.9878</v>
       </c>
       <c r="G81" t="n">
+        <v>332.9333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>331.4</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>325</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3967,27 @@
         <v>8838.907499999999</v>
       </c>
       <c r="G82" t="n">
+        <v>333.0666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>331.4833333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>325</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +4011,27 @@
         <v>6945.4939</v>
       </c>
       <c r="G83" t="n">
+        <v>333.2</v>
+      </c>
+      <c r="H83" t="n">
         <v>331.5666666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>325</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +4055,27 @@
         <v>2760.1655</v>
       </c>
       <c r="G84" t="n">
+        <v>333.4</v>
+      </c>
+      <c r="H84" t="n">
         <v>331.6666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>325</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +4099,27 @@
         <v>1000</v>
       </c>
       <c r="G85" t="n">
+        <v>333.4666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>331.7333333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>325</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +4143,27 @@
         <v>1000</v>
       </c>
       <c r="G86" t="n">
+        <v>333.4666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>331.7833333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>325</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +4187,27 @@
         <v>54.7874</v>
       </c>
       <c r="G87" t="n">
+        <v>333.5333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>331.85</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>325</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +4231,27 @@
         <v>23757.6132</v>
       </c>
       <c r="G88" t="n">
+        <v>333.8</v>
+      </c>
+      <c r="H88" t="n">
         <v>331.95</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>325</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +4275,27 @@
         <v>1444.3792</v>
       </c>
       <c r="G89" t="n">
+        <v>334</v>
+      </c>
+      <c r="H89" t="n">
         <v>332.0333333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>325</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +4319,27 @@
         <v>352.13</v>
       </c>
       <c r="G90" t="n">
+        <v>334.0666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>332.1166666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>325</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +4363,27 @@
         <v>3060.7985</v>
       </c>
       <c r="G91" t="n">
+        <v>334.1333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>332.2</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>325</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +4407,27 @@
         <v>1403.4958</v>
       </c>
       <c r="G92" t="n">
+        <v>334.3333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>332.2833333333334</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>325</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +4451,27 @@
         <v>2429.3285</v>
       </c>
       <c r="G93" t="n">
+        <v>334.4</v>
+      </c>
+      <c r="H93" t="n">
         <v>332.3666666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>325</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +4495,27 @@
         <v>3424.362</v>
       </c>
       <c r="G94" t="n">
+        <v>334.5333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>332.4666666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>325</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +4539,27 @@
         <v>817.1127</v>
       </c>
       <c r="G95" t="n">
+        <v>334.7333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>332.5833333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>325</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4583,27 @@
         <v>310.991</v>
       </c>
       <c r="G96" t="n">
+        <v>334.9333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>332.7</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>325</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4627,27 @@
         <v>969.7952</v>
       </c>
       <c r="G97" t="n">
+        <v>335.1333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>332.8166666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>325</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4671,27 @@
         <v>120</v>
       </c>
       <c r="G98" t="n">
+        <v>335.2666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>332.9166666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>325</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4715,27 @@
         <v>340.7956</v>
       </c>
       <c r="G99" t="n">
+        <v>335.3333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>333.0166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>325</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4759,27 @@
         <v>1489.9732</v>
       </c>
       <c r="G100" t="n">
+        <v>335.5333333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>333.1166666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>325</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4803,27 @@
         <v>4294.1898</v>
       </c>
       <c r="G101" t="n">
+        <v>335.6</v>
+      </c>
+      <c r="H101" t="n">
         <v>333.1666666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>325</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4847,27 @@
         <v>196.5686</v>
       </c>
       <c r="G102" t="n">
+        <v>335.6</v>
+      </c>
+      <c r="H102" t="n">
         <v>333.2166666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>325</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4891,27 @@
         <v>815.0699</v>
       </c>
       <c r="G103" t="n">
+        <v>335.4</v>
+      </c>
+      <c r="H103" t="n">
         <v>333.25</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>325</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4935,27 @@
         <v>684.5085</v>
       </c>
       <c r="G104" t="n">
+        <v>335.4</v>
+      </c>
+      <c r="H104" t="n">
         <v>333.3166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>325</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4979,27 @@
         <v>279.1393</v>
       </c>
       <c r="G105" t="n">
+        <v>335.4</v>
+      </c>
+      <c r="H105" t="n">
         <v>333.3833333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>325</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +5023,27 @@
         <v>3175.0171</v>
       </c>
       <c r="G106" t="n">
+        <v>335.2</v>
+      </c>
+      <c r="H106" t="n">
         <v>333.4</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>325</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +5067,27 @@
         <v>33.4418</v>
       </c>
       <c r="G107" t="n">
+        <v>335.1333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>333.45</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>325</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +5111,27 @@
         <v>27.6172</v>
       </c>
       <c r="G108" t="n">
+        <v>335.0666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>333.4833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>325</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +5155,27 @@
         <v>3357.9307</v>
       </c>
       <c r="G109" t="n">
+        <v>335</v>
+      </c>
+      <c r="H109" t="n">
         <v>333.5333333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>325</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +5199,27 @@
         <v>14.7418</v>
       </c>
       <c r="G110" t="n">
+        <v>334.8666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>333.5833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>325</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +5243,27 @@
         <v>3420.7926</v>
       </c>
       <c r="G111" t="n">
+        <v>334.6666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>333.6166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>325</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +5287,27 @@
         <v>1104.0173</v>
       </c>
       <c r="G112" t="n">
+        <v>334.5333333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>333.6666666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>325</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +5331,27 @@
         <v>1213.3363</v>
       </c>
       <c r="G113" t="n">
+        <v>334.4666666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>333.7166666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>325</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +5375,27 @@
         <v>223.994</v>
       </c>
       <c r="G114" t="n">
+        <v>334.4</v>
+      </c>
+      <c r="H114" t="n">
         <v>333.7666666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>325</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +5419,27 @@
         <v>609.9404</v>
       </c>
       <c r="G115" t="n">
+        <v>334.2666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>333.8</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>325</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +5463,27 @@
         <v>358.9443</v>
       </c>
       <c r="G116" t="n">
+        <v>334.2666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>333.8333333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>325</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +5507,27 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
+        <v>334.2</v>
+      </c>
+      <c r="H117" t="n">
         <v>333.85</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>325</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +5551,27 @@
         <v>9.5</v>
       </c>
       <c r="G118" t="n">
+        <v>334.3333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>333.9</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>325</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +5595,27 @@
         <v>1245</v>
       </c>
       <c r="G119" t="n">
+        <v>334.2666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>333.95</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>325</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +5639,27 @@
         <v>4697.8776</v>
       </c>
       <c r="G120" t="n">
+        <v>334.2</v>
+      </c>
+      <c r="H120" t="n">
         <v>333.9833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>325</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +5683,27 @@
         <v>647.4153</v>
       </c>
       <c r="G121" t="n">
+        <v>334.3333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>334.0166666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>325</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5727,27 @@
         <v>969.7952</v>
       </c>
       <c r="G122" t="n">
+        <v>334.2666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>334.0333333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>325</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5771,27 @@
         <v>1159.7119</v>
       </c>
       <c r="G123" t="n">
+        <v>334.3333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>334.0833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>325</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5815,27 @@
         <v>13878.8776</v>
       </c>
       <c r="G124" t="n">
+        <v>334.3333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>334.1333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>325</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5859,27 @@
         <v>927.176</v>
       </c>
       <c r="G125" t="n">
+        <v>334.2666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>334.1666666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>325</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5903,27 @@
         <v>72.3064</v>
       </c>
       <c r="G126" t="n">
+        <v>334.3333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>334.2166666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>325</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5947,27 @@
         <v>506.9183</v>
       </c>
       <c r="G127" t="n">
+        <v>334.2666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>334.25</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>325</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5991,27 @@
         <v>8432.047699999999</v>
       </c>
       <c r="G128" t="n">
+        <v>334.2666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>334.3</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>325</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +6035,27 @@
         <v>34.7079</v>
       </c>
       <c r="G129" t="n">
+        <v>334.2</v>
+      </c>
+      <c r="H129" t="n">
         <v>334.3333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>325</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +6079,27 @@
         <v>3015.5109</v>
       </c>
       <c r="G130" t="n">
+        <v>334.1333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>334.35</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>325</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +6123,27 @@
         <v>3032.6554</v>
       </c>
       <c r="G131" t="n">
+        <v>334.0666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>334.35</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>325</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +6167,27 @@
         <v>18488.6342</v>
       </c>
       <c r="G132" t="n">
+        <v>333.9333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>334.3166666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>325</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +6211,27 @@
         <v>17.7789</v>
       </c>
       <c r="G133" t="n">
+        <v>333.6666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>334.3</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>325</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +6255,27 @@
         <v>3368.6502</v>
       </c>
       <c r="G134" t="n">
+        <v>333.3333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>334.25</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>325</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +6299,27 @@
         <v>29.8191</v>
       </c>
       <c r="G135" t="n">
+        <v>333.1333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>334.2</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>325</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +6343,27 @@
         <v>1939.2099</v>
       </c>
       <c r="G136" t="n">
+        <v>332.8666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>334.1333333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>325</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +6387,27 @@
         <v>4064.0284</v>
       </c>
       <c r="G137" t="n">
+        <v>332.6666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>334.1</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>325</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +6431,27 @@
         <v>8051.2638</v>
       </c>
       <c r="G138" t="n">
+        <v>332.3333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>334.0333333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>325</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,22 +6475,27 @@
         <v>2833.436</v>
       </c>
       <c r="G139" t="n">
+        <v>332</v>
+      </c>
+      <c r="H139" t="n">
         <v>333.9666666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>330</v>
-      </c>
-      <c r="K139" t="n">
-        <v>330</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>325</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5300,24 +6519,27 @@
         <v>2650.4845</v>
       </c>
       <c r="G140" t="n">
+        <v>331.7333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>333.9</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>330</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>325</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5341,24 +6563,27 @@
         <v>137.1681</v>
       </c>
       <c r="G141" t="n">
+        <v>331.6</v>
+      </c>
+      <c r="H141" t="n">
         <v>333.8833333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>330</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>325</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,18 +6607,27 @@
         <v>202.8361</v>
       </c>
       <c r="G142" t="n">
+        <v>331.5333333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>333.8666666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>325</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,18 +6651,27 @@
         <v>2926.9775</v>
       </c>
       <c r="G143" t="n">
+        <v>331.4666666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>333.8666666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>325</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5452,18 +6695,27 @@
         <v>2459.3133</v>
       </c>
       <c r="G144" t="n">
+        <v>331.6</v>
+      </c>
+      <c r="H144" t="n">
         <v>333.8833333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>325</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5487,18 +6739,27 @@
         <v>159.5028</v>
       </c>
       <c r="G145" t="n">
+        <v>331.8</v>
+      </c>
+      <c r="H145" t="n">
         <v>333.9333333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>325</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,18 +6783,27 @@
         <v>10762.6324</v>
       </c>
       <c r="G146" t="n">
-        <v>334</v>
+        <v>332.0666666666667</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>325</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,18 +6827,27 @@
         <v>1000</v>
       </c>
       <c r="G147" t="n">
+        <v>332.3333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>334.0166666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>325</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,18 +6871,27 @@
         <v>31.3127</v>
       </c>
       <c r="G148" t="n">
+        <v>332.7333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>334.0333333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>325</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5627,18 +6915,27 @@
         <v>1300.9019</v>
       </c>
       <c r="G149" t="n">
+        <v>333.2666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>334.0666666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>325</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,18 +6959,27 @@
         <v>1565.6339</v>
       </c>
       <c r="G150" t="n">
+        <v>333.6666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>334.1</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>325</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,18 +7003,27 @@
         <v>5278.9698</v>
       </c>
       <c r="G151" t="n">
+        <v>334.2</v>
+      </c>
+      <c r="H151" t="n">
         <v>334.15</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>325</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,18 +7047,27 @@
         <v>400.9604</v>
       </c>
       <c r="G152" t="n">
+        <v>334.7333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>334.2</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>325</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5767,18 +7091,27 @@
         <v>3591.4773</v>
       </c>
       <c r="G153" t="n">
+        <v>335.3333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>334.2666666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>325</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,18 +7135,27 @@
         <v>6968.4663</v>
       </c>
       <c r="G154" t="n">
+        <v>336</v>
+      </c>
+      <c r="H154" t="n">
         <v>334.3333333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>325</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5837,18 +7179,27 @@
         <v>6390.7349</v>
       </c>
       <c r="G155" t="n">
+        <v>336.6</v>
+      </c>
+      <c r="H155" t="n">
         <v>334.3666666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>325</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,18 +7223,27 @@
         <v>2550.1576</v>
       </c>
       <c r="G156" t="n">
+        <v>337.0666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>334.4166666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>325</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5907,18 +7267,27 @@
         <v>4816.0409</v>
       </c>
       <c r="G157" t="n">
+        <v>337.6</v>
+      </c>
+      <c r="H157" t="n">
         <v>334.4833333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>325</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5942,18 +7311,27 @@
         <v>24003.1569</v>
       </c>
       <c r="G158" t="n">
+        <v>338.2</v>
+      </c>
+      <c r="H158" t="n">
         <v>334.6</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>325</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5977,18 +7355,27 @@
         <v>7842.5467</v>
       </c>
       <c r="G159" t="n">
+        <v>338.6666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>334.7166666666666</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>325</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,18 +7399,27 @@
         <v>5105.6809</v>
       </c>
       <c r="G160" t="n">
+        <v>339.0666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>334.8166666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>325</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6047,18 +7443,27 @@
         <v>5330.7935</v>
       </c>
       <c r="G161" t="n">
+        <v>339.4</v>
+      </c>
+      <c r="H161" t="n">
         <v>334.95</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>325</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6082,18 +7487,27 @@
         <v>6537.7448</v>
       </c>
       <c r="G162" t="n">
+        <v>339.8666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>335.0833333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>325</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6117,18 +7531,27 @@
         <v>7991.6928</v>
       </c>
       <c r="G163" t="n">
+        <v>340.2</v>
+      </c>
+      <c r="H163" t="n">
         <v>335.2333333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>325</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,18 +7575,27 @@
         <v>20.852</v>
       </c>
       <c r="G164" t="n">
+        <v>340.4</v>
+      </c>
+      <c r="H164" t="n">
         <v>335.3166666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>325</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6187,18 +7619,27 @@
         <v>2491.2107</v>
       </c>
       <c r="G165" t="n">
+        <v>340.5333333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>335.3833333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>325</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,18 +7663,27 @@
         <v>15056.1233</v>
       </c>
       <c r="G166" t="n">
+        <v>340.6</v>
+      </c>
+      <c r="H166" t="n">
         <v>335.5</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>325</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6257,18 +7707,27 @@
         <v>4649.5635</v>
       </c>
       <c r="G167" t="n">
+        <v>340.6666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>335.5833333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>325</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6292,18 +7751,27 @@
         <v>1573.3351</v>
       </c>
       <c r="G168" t="n">
+        <v>340.6666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>335.6666666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>325</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6327,18 +7795,27 @@
         <v>4356.8872</v>
       </c>
       <c r="G169" t="n">
+        <v>340.6</v>
+      </c>
+      <c r="H169" t="n">
         <v>335.7333333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>325</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6362,18 +7839,27 @@
         <v>25.4476</v>
       </c>
       <c r="G170" t="n">
+        <v>340.6666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>335.8166666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>325</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6397,18 +7883,27 @@
         <v>1892.2999</v>
       </c>
       <c r="G171" t="n">
+        <v>340.6666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>335.9166666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>325</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6432,18 +7927,27 @@
         <v>249.7005</v>
       </c>
       <c r="G172" t="n">
+        <v>340.6</v>
+      </c>
+      <c r="H172" t="n">
         <v>336</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>325</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6467,18 +7971,27 @@
         <v>2805.5096</v>
       </c>
       <c r="G173" t="n">
+        <v>340.4666666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>336.1</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>325</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6502,18 +8015,27 @@
         <v>5773.3137</v>
       </c>
       <c r="G174" t="n">
+        <v>340.3333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>336.2</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>325</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6537,18 +8059,27 @@
         <v>10112.6648</v>
       </c>
       <c r="G175" t="n">
+        <v>340.4</v>
+      </c>
+      <c r="H175" t="n">
         <v>336.35</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>325</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6572,18 +8103,27 @@
         <v>25642.46431710145</v>
       </c>
       <c r="G176" t="n">
+        <v>340.5333333333334</v>
+      </c>
+      <c r="H176" t="n">
         <v>336.5166666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>325</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6607,18 +8147,27 @@
         <v>4046.2512</v>
       </c>
       <c r="G177" t="n">
+        <v>340.6666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>336.7</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>325</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6642,18 +8191,27 @@
         <v>1000</v>
       </c>
       <c r="G178" t="n">
+        <v>340.8</v>
+      </c>
+      <c r="H178" t="n">
         <v>336.85</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>325</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6677,18 +8235,27 @@
         <v>6205.809248554913</v>
       </c>
       <c r="G179" t="n">
+        <v>341.2</v>
+      </c>
+      <c r="H179" t="n">
         <v>337.05</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>325</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6712,18 +8279,419 @@
         <v>13090.0895</v>
       </c>
       <c r="G180" t="n">
+        <v>341.6666666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>337.25</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>325</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>345</v>
+      </c>
+      <c r="C181" t="n">
+        <v>345</v>
+      </c>
+      <c r="D181" t="n">
+        <v>345</v>
+      </c>
+      <c r="E181" t="n">
+        <v>345</v>
+      </c>
+      <c r="F181" t="n">
+        <v>30709.494</v>
+      </c>
+      <c r="G181" t="n">
+        <v>342.0666666666667</v>
+      </c>
+      <c r="H181" t="n">
+        <v>337.4333333333333</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>325</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>345</v>
+      </c>
+      <c r="C182" t="n">
+        <v>345</v>
+      </c>
+      <c r="D182" t="n">
+        <v>345</v>
+      </c>
+      <c r="E182" t="n">
+        <v>345</v>
+      </c>
+      <c r="F182" t="n">
+        <v>30996.1382</v>
+      </c>
+      <c r="G182" t="n">
+        <v>342.4666666666666</v>
+      </c>
+      <c r="H182" t="n">
+        <v>337.6333333333333</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>325</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>1.056538461538462</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>343</v>
+      </c>
+      <c r="C183" t="n">
+        <v>343</v>
+      </c>
+      <c r="D183" t="n">
+        <v>343</v>
+      </c>
+      <c r="E183" t="n">
+        <v>343</v>
+      </c>
+      <c r="F183" t="n">
+        <v>982.0622</v>
+      </c>
+      <c r="G183" t="n">
+        <v>342.7333333333333</v>
+      </c>
+      <c r="H183" t="n">
+        <v>337.7666666666667</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>345</v>
+      </c>
+      <c r="C184" t="n">
+        <v>346</v>
+      </c>
+      <c r="D184" t="n">
+        <v>346</v>
+      </c>
+      <c r="E184" t="n">
+        <v>345</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1632.4216</v>
+      </c>
+      <c r="G184" t="n">
+        <v>343.2</v>
+      </c>
+      <c r="H184" t="n">
+        <v>337.95</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>345</v>
+      </c>
+      <c r="C185" t="n">
+        <v>345</v>
+      </c>
+      <c r="D185" t="n">
+        <v>345</v>
+      </c>
+      <c r="E185" t="n">
+        <v>345</v>
+      </c>
+      <c r="F185" t="n">
+        <v>5057.258</v>
+      </c>
+      <c r="G185" t="n">
+        <v>343.5333333333334</v>
+      </c>
+      <c r="H185" t="n">
+        <v>338.1333333333333</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>345</v>
+      </c>
+      <c r="C186" t="n">
+        <v>345</v>
+      </c>
+      <c r="D186" t="n">
+        <v>345</v>
+      </c>
+      <c r="E186" t="n">
+        <v>345</v>
+      </c>
+      <c r="F186" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="G186" t="n">
+        <v>343.8666666666667</v>
+      </c>
+      <c r="H186" t="n">
+        <v>338.3</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>346</v>
+      </c>
+      <c r="C187" t="n">
+        <v>346</v>
+      </c>
+      <c r="D187" t="n">
+        <v>346</v>
+      </c>
+      <c r="E187" t="n">
+        <v>346</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3531.9913</v>
+      </c>
+      <c r="G187" t="n">
+        <v>344.2666666666667</v>
+      </c>
+      <c r="H187" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>345</v>
+      </c>
+      <c r="C188" t="n">
+        <v>346</v>
+      </c>
+      <c r="D188" t="n">
+        <v>346</v>
+      </c>
+      <c r="E188" t="n">
+        <v>345</v>
+      </c>
+      <c r="F188" t="n">
+        <v>770.7177</v>
+      </c>
+      <c r="G188" t="n">
+        <v>344.6</v>
+      </c>
+      <c r="H188" t="n">
+        <v>338.6833333333333</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>346</v>
+      </c>
+      <c r="C189" t="n">
+        <v>347</v>
+      </c>
+      <c r="D189" t="n">
+        <v>347</v>
+      </c>
+      <c r="E189" t="n">
+        <v>346</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1333.4583</v>
+      </c>
+      <c r="G189" t="n">
+        <v>345</v>
+      </c>
+      <c r="H189" t="n">
+        <v>338.9</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>346</v>
+      </c>
+      <c r="C190" t="n">
+        <v>346</v>
+      </c>
+      <c r="D190" t="n">
+        <v>346</v>
+      </c>
+      <c r="E190" t="n">
+        <v>346</v>
+      </c>
+      <c r="F190" t="n">
+        <v>695.2414</v>
+      </c>
+      <c r="G190" t="n">
+        <v>345.2</v>
+      </c>
+      <c r="H190" t="n">
+        <v>339.1166666666667</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-01 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:N248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C2" t="n">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D2" t="n">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E2" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F2" t="n">
-        <v>2987.8964</v>
+        <v>129</v>
       </c>
       <c r="G2" t="n">
-        <v>-233590.2952256967</v>
+        <v>-279365.1312256966</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C3" t="n">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D3" t="n">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E3" t="n">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="G3" t="n">
-        <v>-233590.2952256967</v>
+        <v>-279365.1312256966</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,31 +510,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C4" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D4" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E4" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F4" t="n">
-        <v>28.5369</v>
+        <v>16165.5898</v>
       </c>
       <c r="G4" t="n">
-        <v>-233618.8321256967</v>
+        <v>-279365.1312256966</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>318</v>
+      </c>
+      <c r="K4" t="n">
+        <v>318</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -546,22 +550,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C5" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D5" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E5" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F5" t="n">
-        <v>920.433</v>
+        <v>631.2849</v>
       </c>
       <c r="G5" t="n">
-        <v>-234539.2651256967</v>
+        <v>-279365.1312256966</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -570,8 +574,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>318</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +592,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C6" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D6" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E6" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F6" t="n">
-        <v>1398.1133</v>
+        <v>17219.611</v>
       </c>
       <c r="G6" t="n">
-        <v>-234539.2651256967</v>
+        <v>-279365.1312256966</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>318</v>
+      </c>
+      <c r="K6" t="n">
+        <v>318</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +636,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C7" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D7" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E7" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F7" t="n">
-        <v>1710.8798</v>
+        <v>2399.9961</v>
       </c>
       <c r="G7" t="n">
-        <v>-232828.3853256967</v>
+        <v>-279365.1312256966</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -642,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="K7" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
@@ -658,22 +676,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C8" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D8" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E8" t="n">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F8" t="n">
-        <v>3812.8816</v>
+        <v>165</v>
       </c>
       <c r="G8" t="n">
-        <v>-229015.5037256967</v>
+        <v>-279365.1312256966</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -682,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="K8" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -702,22 +720,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C9" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D9" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E9" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F9" t="n">
-        <v>468</v>
+        <v>329.47</v>
       </c>
       <c r="G9" t="n">
-        <v>-229015.5037256967</v>
+        <v>-279365.1312256966</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -726,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="K9" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -746,22 +764,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C10" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D10" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E10" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F10" t="n">
-        <v>4895.543</v>
+        <v>781.1126</v>
       </c>
       <c r="G10" t="n">
-        <v>-229015.5037256967</v>
+        <v>-279365.1312256966</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -770,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="K10" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
@@ -786,38 +804,36 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C11" t="n">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D11" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E11" t="n">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F11" t="n">
-        <v>10239.6199</v>
+        <v>7075</v>
       </c>
       <c r="G11" t="n">
-        <v>-229015.5037256967</v>
+        <v>-286440.1312256966</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>329</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -830,38 +846,36 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C12" t="n">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D12" t="n">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E12" t="n">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F12" t="n">
-        <v>7968.5736</v>
+        <v>1645.7199</v>
       </c>
       <c r="G12" t="n">
-        <v>-229015.5037256967</v>
+        <v>-286440.1312256966</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>329</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -874,36 +888,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C13" t="n">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D13" t="n">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="E13" t="n">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F13" t="n">
-        <v>989.7371000000001</v>
+        <v>9662.0221</v>
       </c>
       <c r="G13" t="n">
-        <v>-228025.7666256967</v>
+        <v>-286440.1312256966</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>329</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>329</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>318</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -914,38 +930,36 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C14" t="n">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D14" t="n">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="E14" t="n">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F14" t="n">
-        <v>117</v>
+        <v>4610.4103</v>
       </c>
       <c r="G14" t="n">
-        <v>-228025.7666256967</v>
+        <v>-286440.1312256966</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>330</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -958,38 +972,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C15" t="n">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D15" t="n">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E15" t="n">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>5013</v>
       </c>
       <c r="G15" t="n">
-        <v>-228025.7666256967</v>
+        <v>-281427.1312256966</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>330</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -1002,36 +1014,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C16" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D16" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E16" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F16" t="n">
-        <v>7007.4995</v>
+        <v>217.7646</v>
       </c>
       <c r="G16" t="n">
-        <v>-228025.7666256967</v>
+        <v>-281644.8958256966</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>330</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>330</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>318</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1042,38 +1056,36 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C17" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D17" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E17" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F17" t="n">
-        <v>1848.4878</v>
+        <v>2566.2672</v>
       </c>
       <c r="G17" t="n">
-        <v>-228025.7666256967</v>
+        <v>-281644.8958256966</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>330</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1086,22 +1098,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C18" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D18" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E18" t="n">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F18" t="n">
-        <v>100.8792</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>-228025.7666256967</v>
+        <v>-281635.8958256966</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1110,14 +1122,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="K18" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1130,22 +1142,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C19" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D19" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E19" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F19" t="n">
-        <v>79.11450000000001</v>
+        <v>2125.3312</v>
       </c>
       <c r="G19" t="n">
-        <v>-228025.7666256967</v>
+        <v>-281635.8958256966</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1154,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K19" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1174,22 +1186,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C20" t="n">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D20" t="n">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E20" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F20" t="n">
-        <v>1649.9704</v>
+        <v>13038.5739</v>
       </c>
       <c r="G20" t="n">
-        <v>-228025.7666256967</v>
+        <v>-268597.3219256966</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1198,10 +1210,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K20" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1218,32 +1230,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C21" t="n">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D21" t="n">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E21" t="n">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F21" t="n">
-        <v>7690.3152</v>
+        <v>1161.249</v>
       </c>
       <c r="G21" t="n">
-        <v>-228025.7666256967</v>
+        <v>-268597.3219256966</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>321</v>
+      </c>
       <c r="K21" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1260,32 +1274,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C22" t="n">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D22" t="n">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E22" t="n">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F22" t="n">
-        <v>936.7595</v>
+        <v>717.2465999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-228025.7666256967</v>
+        <v>-268597.3219256966</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>321</v>
+      </c>
       <c r="K22" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1302,22 +1318,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C23" t="n">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D23" t="n">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E23" t="n">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F23" t="n">
-        <v>532.3097</v>
+        <v>24047.6688</v>
       </c>
       <c r="G23" t="n">
-        <v>-228025.7666256967</v>
+        <v>-244549.6531256966</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1327,7 +1343,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1344,22 +1360,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C24" t="n">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D24" t="n">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E24" t="n">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F24" t="n">
-        <v>2707.8488</v>
+        <v>2807</v>
       </c>
       <c r="G24" t="n">
-        <v>-228025.7666256967</v>
+        <v>-241742.6531256966</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1369,7 +1385,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1386,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C25" t="n">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D25" t="n">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E25" t="n">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F25" t="n">
-        <v>815.6155</v>
+        <v>496.6368</v>
       </c>
       <c r="G25" t="n">
-        <v>-228025.7666256967</v>
+        <v>-241742.6531256966</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1411,7 +1427,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1428,22 +1444,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C26" t="n">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D26" t="n">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E26" t="n">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F26" t="n">
-        <v>2596.1931</v>
+        <v>697.4369</v>
       </c>
       <c r="G26" t="n">
-        <v>-228025.7666256967</v>
+        <v>-241045.2162256966</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1453,7 +1469,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1470,22 +1486,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C27" t="n">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D27" t="n">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E27" t="n">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F27" t="n">
-        <v>1663.0419</v>
+        <v>7.9713</v>
       </c>
       <c r="G27" t="n">
-        <v>-228025.7666256967</v>
+        <v>-241053.1875256966</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1495,7 +1511,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1512,22 +1528,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C28" t="n">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D28" t="n">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E28" t="n">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F28" t="n">
-        <v>542.123</v>
+        <v>198.4049</v>
       </c>
       <c r="G28" t="n">
-        <v>-227483.6436256967</v>
+        <v>-240854.7826256967</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1537,7 +1553,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1554,22 +1570,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C29" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D29" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E29" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F29" t="n">
-        <v>5259.4</v>
+        <v>1209.622</v>
       </c>
       <c r="G29" t="n">
-        <v>-227483.6436256967</v>
+        <v>-242064.4046256967</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1579,7 +1595,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1596,22 +1612,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C30" t="n">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D30" t="n">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E30" t="n">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F30" t="n">
-        <v>2025.5029</v>
+        <v>22.7021</v>
       </c>
       <c r="G30" t="n">
-        <v>-227483.6436256967</v>
+        <v>-242041.7025256967</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1621,7 +1637,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1638,22 +1654,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C31" t="n">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D31" t="n">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E31" t="n">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F31" t="n">
-        <v>2955.3443</v>
+        <v>1911.0804</v>
       </c>
       <c r="G31" t="n">
-        <v>-227483.6436256967</v>
+        <v>-242041.7025256967</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1663,7 +1679,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1680,22 +1696,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C32" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D32" t="n">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E32" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F32" t="n">
-        <v>2968.5826</v>
+        <v>2516.0064</v>
       </c>
       <c r="G32" t="n">
-        <v>-227483.6436256967</v>
+        <v>-244557.7089256967</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1705,7 +1721,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1722,22 +1738,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C33" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D33" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E33" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F33" t="n">
-        <v>1811.9733</v>
+        <v>615</v>
       </c>
       <c r="G33" t="n">
-        <v>-227483.6436256967</v>
+        <v>-244557.7089256967</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1747,7 +1763,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1764,22 +1780,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C34" t="n">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D34" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E34" t="n">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F34" t="n">
-        <v>193.0297</v>
+        <v>3756.4195</v>
       </c>
       <c r="G34" t="n">
-        <v>-227483.6436256967</v>
+        <v>-248314.1284256967</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1789,7 +1805,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1806,22 +1822,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C35" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D35" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E35" t="n">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F35" t="n">
-        <v>1651.5827</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>-225832.0609256967</v>
+        <v>-248311.1284256967</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1831,7 +1847,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1848,22 +1864,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C36" t="n">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D36" t="n">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E36" t="n">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="F36" t="n">
-        <v>1984.7296</v>
+        <v>498.4587</v>
       </c>
       <c r="G36" t="n">
-        <v>-225832.0609256967</v>
+        <v>-248809.5871256966</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1873,7 +1889,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1890,22 +1906,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C37" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D37" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E37" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F37" t="n">
-        <v>628.8381000000001</v>
+        <v>473.5357</v>
       </c>
       <c r="G37" t="n">
-        <v>-225832.0609256967</v>
+        <v>-248336.0514256966</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1915,7 +1931,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1932,22 +1948,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C38" t="n">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D38" t="n">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E38" t="n">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F38" t="n">
-        <v>2013.1194</v>
+        <v>1054.2419</v>
       </c>
       <c r="G38" t="n">
-        <v>-225832.0609256967</v>
+        <v>-247281.8095256966</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1957,7 +1973,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1974,22 +1990,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C39" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D39" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E39" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F39" t="n">
-        <v>673.5006</v>
+        <v>292</v>
       </c>
       <c r="G39" t="n">
-        <v>-225832.0609256967</v>
+        <v>-247573.8095256966</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1999,7 +2015,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2016,22 +2032,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C40" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D40" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E40" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F40" t="n">
-        <v>1055.7461</v>
+        <v>5.8217</v>
       </c>
       <c r="G40" t="n">
-        <v>-225832.0609256967</v>
+        <v>-247573.8095256966</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2041,7 +2057,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2058,22 +2074,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C41" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D41" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E41" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F41" t="n">
-        <v>6763.5648</v>
+        <v>192</v>
       </c>
       <c r="G41" t="n">
-        <v>-225832.0609256967</v>
+        <v>-247573.8095256966</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2083,7 +2099,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2100,22 +2116,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C42" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D42" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E42" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F42" t="n">
-        <v>6017.9344</v>
+        <v>384.5161</v>
       </c>
       <c r="G42" t="n">
-        <v>-225832.0609256967</v>
+        <v>-247189.2934256966</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2125,7 +2141,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2142,22 +2158,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C43" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D43" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E43" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F43" t="n">
-        <v>1280.9678</v>
+        <v>735.1556</v>
       </c>
       <c r="G43" t="n">
-        <v>-225832.0609256967</v>
+        <v>-247189.2934256966</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2167,7 +2183,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2184,22 +2200,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C44" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D44" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E44" t="n">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F44" t="n">
-        <v>26527.4228</v>
+        <v>32</v>
       </c>
       <c r="G44" t="n">
-        <v>-225832.0609256967</v>
+        <v>-247221.2934256966</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2209,7 +2225,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2226,22 +2242,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C45" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D45" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E45" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F45" t="n">
-        <v>14603.2625</v>
+        <v>907.7542999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-225832.0609256967</v>
+        <v>-247221.2934256966</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2251,7 +2267,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2268,22 +2284,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C46" t="n">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D46" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E46" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F46" t="n">
-        <v>2047.8841</v>
+        <v>483.9006</v>
       </c>
       <c r="G46" t="n">
-        <v>-227879.9450256967</v>
+        <v>-246737.3928256966</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2293,7 +2309,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2310,22 +2326,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C47" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D47" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E47" t="n">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F47" t="n">
-        <v>3268.1555</v>
+        <v>297.7611</v>
       </c>
       <c r="G47" t="n">
-        <v>-224611.7895256967</v>
+        <v>-247035.1539256966</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2335,7 +2351,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2352,22 +2368,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C48" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D48" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E48" t="n">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F48" t="n">
-        <v>1172.932</v>
+        <v>71.1944</v>
       </c>
       <c r="G48" t="n">
-        <v>-224611.7895256967</v>
+        <v>-246963.9595256966</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2377,7 +2393,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2394,22 +2410,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C49" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D49" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E49" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F49" t="n">
-        <v>30.4991</v>
+        <v>300</v>
       </c>
       <c r="G49" t="n">
-        <v>-224611.7895256967</v>
+        <v>-247263.9595256966</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2419,7 +2435,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2436,22 +2452,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C50" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D50" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E50" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F50" t="n">
-        <v>2167.0545</v>
+        <v>6.5758</v>
       </c>
       <c r="G50" t="n">
-        <v>-224611.7895256967</v>
+        <v>-247257.3837256967</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2461,7 +2477,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2478,22 +2494,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C51" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D51" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E51" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F51" t="n">
-        <v>18877.8396</v>
+        <v>10.9133</v>
       </c>
       <c r="G51" t="n">
-        <v>-224611.7895256967</v>
+        <v>-247257.3837256967</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2503,7 +2519,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2520,22 +2536,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C52" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D52" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E52" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F52" t="n">
-        <v>4117.369172289156</v>
+        <v>130</v>
       </c>
       <c r="G52" t="n">
-        <v>-224611.7895256967</v>
+        <v>-247387.3837256967</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2545,7 +2561,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2562,22 +2578,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C53" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D53" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E53" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F53" t="n">
-        <v>116.366</v>
+        <v>130</v>
       </c>
       <c r="G53" t="n">
-        <v>-224611.7895256967</v>
+        <v>-247387.3837256967</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2587,7 +2603,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2604,22 +2620,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C54" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D54" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E54" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F54" t="n">
-        <v>2174.0823</v>
+        <v>74</v>
       </c>
       <c r="G54" t="n">
-        <v>-224611.7895256967</v>
+        <v>-247461.3837256967</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2629,7 +2645,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2646,22 +2662,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C55" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D55" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E55" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F55" t="n">
-        <v>4262.5245</v>
+        <v>792.4661</v>
       </c>
       <c r="G55" t="n">
-        <v>-224611.7895256967</v>
+        <v>-246668.9176256967</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2671,7 +2687,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2688,22 +2704,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C56" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D56" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E56" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F56" t="n">
-        <v>5784.3459</v>
+        <v>2408.1837</v>
       </c>
       <c r="G56" t="n">
-        <v>-224611.7895256967</v>
+        <v>-246668.9176256967</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2713,7 +2729,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2730,22 +2746,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C57" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D57" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E57" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F57" t="n">
-        <v>720.6416</v>
+        <v>839.7748</v>
       </c>
       <c r="G57" t="n">
-        <v>-224611.7895256967</v>
+        <v>-246668.9176256967</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2755,7 +2771,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2772,22 +2788,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C58" t="n">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D58" t="n">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E58" t="n">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F58" t="n">
-        <v>5542.6009</v>
+        <v>535.8432</v>
       </c>
       <c r="G58" t="n">
-        <v>-219069.1886256967</v>
+        <v>-247204.7608256967</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2797,7 +2813,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2814,22 +2830,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C59" t="n">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D59" t="n">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E59" t="n">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F59" t="n">
-        <v>45.5938</v>
+        <v>2.0457</v>
       </c>
       <c r="G59" t="n">
-        <v>-219069.1886256967</v>
+        <v>-247202.7151256967</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2839,7 +2855,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2856,22 +2872,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C60" t="n">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D60" t="n">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E60" t="n">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F60" t="n">
-        <v>1.4187</v>
+        <v>4.01</v>
       </c>
       <c r="G60" t="n">
-        <v>-219070.6073256967</v>
+        <v>-247198.7051256967</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2881,7 +2897,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2898,22 +2914,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C61" t="n">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D61" t="n">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E61" t="n">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F61" t="n">
-        <v>2.7446</v>
+        <v>168</v>
       </c>
       <c r="G61" t="n">
-        <v>-219070.6073256967</v>
+        <v>-247198.7051256967</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2923,7 +2939,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2940,22 +2956,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C62" t="n">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D62" t="n">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E62" t="n">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F62" t="n">
-        <v>2096.3488</v>
+        <v>1771.2829</v>
       </c>
       <c r="G62" t="n">
-        <v>-216974.2585256967</v>
+        <v>-247198.7051256967</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2965,7 +2981,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2982,22 +2998,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C63" t="n">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D63" t="n">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E63" t="n">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F63" t="n">
-        <v>2219</v>
+        <v>2351.3591</v>
       </c>
       <c r="G63" t="n">
-        <v>-216974.2585256967</v>
+        <v>-247198.7051256967</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3007,7 +3023,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3024,22 +3040,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C64" t="n">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D64" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E64" t="n">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F64" t="n">
-        <v>1721.9189</v>
+        <v>96.9696</v>
       </c>
       <c r="G64" t="n">
-        <v>-218696.1774256967</v>
+        <v>-247101.7355256967</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3049,7 +3065,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3066,22 +3082,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C65" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D65" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E65" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F65" t="n">
-        <v>2114.57</v>
+        <v>967.9999</v>
       </c>
       <c r="G65" t="n">
-        <v>-216581.6074256967</v>
+        <v>-247101.7355256967</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3091,7 +3107,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3108,22 +3124,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C66" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D66" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E66" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F66" t="n">
-        <v>7975.4962</v>
+        <v>946.6745</v>
       </c>
       <c r="G66" t="n">
-        <v>-216581.6074256967</v>
+        <v>-247101.7355256967</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3133,7 +3149,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3150,22 +3166,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C67" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D67" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E67" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F67" t="n">
-        <v>180</v>
+        <v>3394.348</v>
       </c>
       <c r="G67" t="n">
-        <v>-216581.6074256967</v>
+        <v>-247101.7355256967</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3175,7 +3191,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3192,22 +3208,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C68" t="n">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D68" t="n">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E68" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F68" t="n">
-        <v>1980.9878</v>
+        <v>8589.318600000001</v>
       </c>
       <c r="G68" t="n">
-        <v>-216581.6074256967</v>
+        <v>-238512.4169256967</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3217,7 +3233,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3234,22 +3250,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C69" t="n">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D69" t="n">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E69" t="n">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F69" t="n">
-        <v>8838.907499999999</v>
+        <v>1934.2253</v>
       </c>
       <c r="G69" t="n">
-        <v>-216581.6074256967</v>
+        <v>-236578.1916256967</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3259,7 +3275,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3276,22 +3292,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C70" t="n">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D70" t="n">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E70" t="n">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F70" t="n">
-        <v>6945.4939</v>
+        <v>1227.5177</v>
       </c>
       <c r="G70" t="n">
-        <v>-216581.6074256967</v>
+        <v>-236578.1916256967</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3301,7 +3317,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3318,22 +3334,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C71" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D71" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E71" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F71" t="n">
-        <v>2760.1655</v>
+        <v>649.2456</v>
       </c>
       <c r="G71" t="n">
-        <v>-213821.4419256967</v>
+        <v>-236578.1916256967</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3343,7 +3359,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3360,22 +3376,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C72" t="n">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D72" t="n">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E72" t="n">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F72" t="n">
-        <v>1000</v>
+        <v>2259.7218</v>
       </c>
       <c r="G72" t="n">
-        <v>-214821.4419256967</v>
+        <v>-236578.1916256967</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3385,7 +3401,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3402,22 +3418,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C73" t="n">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D73" t="n">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E73" t="n">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F73" t="n">
-        <v>1000</v>
+        <v>2987.8964</v>
       </c>
       <c r="G73" t="n">
-        <v>-214821.4419256967</v>
+        <v>-233590.2952256967</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3427,7 +3443,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3444,22 +3460,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C74" t="n">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D74" t="n">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E74" t="n">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F74" t="n">
-        <v>54.7874</v>
+        <v>30</v>
       </c>
       <c r="G74" t="n">
-        <v>-214766.6545256967</v>
+        <v>-233590.2952256967</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3469,7 +3485,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3486,22 +3502,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C75" t="n">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D75" t="n">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E75" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F75" t="n">
-        <v>23757.6132</v>
+        <v>28.5369</v>
       </c>
       <c r="G75" t="n">
-        <v>-191009.0413256967</v>
+        <v>-233618.8321256967</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3511,7 +3527,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3528,22 +3544,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C76" t="n">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D76" t="n">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E76" t="n">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F76" t="n">
-        <v>1444.3792</v>
+        <v>920.433</v>
       </c>
       <c r="G76" t="n">
-        <v>-192453.4205256967</v>
+        <v>-234539.2651256967</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3553,7 +3569,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3570,22 +3586,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C77" t="n">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D77" t="n">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E77" t="n">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F77" t="n">
-        <v>352.13</v>
+        <v>1398.1133</v>
       </c>
       <c r="G77" t="n">
-        <v>-192453.4205256967</v>
+        <v>-234539.2651256967</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3595,7 +3611,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3612,22 +3628,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C78" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D78" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E78" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F78" t="n">
-        <v>3060.7985</v>
+        <v>1710.8798</v>
       </c>
       <c r="G78" t="n">
-        <v>-192453.4205256967</v>
+        <v>-232828.3853256967</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3637,7 +3653,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3654,22 +3670,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C79" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D79" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E79" t="n">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F79" t="n">
-        <v>1403.4958</v>
+        <v>3812.8816</v>
       </c>
       <c r="G79" t="n">
-        <v>-192453.4205256967</v>
+        <v>-229015.5037256967</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3679,7 +3695,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3696,22 +3712,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C80" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D80" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E80" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F80" t="n">
-        <v>2429.3285</v>
+        <v>468</v>
       </c>
       <c r="G80" t="n">
-        <v>-192453.4205256967</v>
+        <v>-229015.5037256967</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3721,7 +3737,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3738,22 +3754,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C81" t="n">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D81" t="n">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E81" t="n">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F81" t="n">
-        <v>3424.362</v>
+        <v>4895.543</v>
       </c>
       <c r="G81" t="n">
-        <v>-189029.0585256967</v>
+        <v>-229015.5037256967</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3763,7 +3779,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3780,22 +3796,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C82" t="n">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D82" t="n">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E82" t="n">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F82" t="n">
-        <v>817.1127</v>
+        <v>10239.6199</v>
       </c>
       <c r="G82" t="n">
-        <v>-188211.9458256967</v>
+        <v>-229015.5037256967</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3805,7 +3821,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3822,22 +3838,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C83" t="n">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D83" t="n">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E83" t="n">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F83" t="n">
-        <v>310.991</v>
+        <v>7968.5736</v>
       </c>
       <c r="G83" t="n">
-        <v>-188211.9458256967</v>
+        <v>-229015.5037256967</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3847,7 +3863,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3864,22 +3880,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C84" t="n">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D84" t="n">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E84" t="n">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F84" t="n">
-        <v>969.7952</v>
+        <v>989.7371000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>-188211.9458256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3889,7 +3905,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3906,22 +3922,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C85" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D85" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E85" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F85" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G85" t="n">
-        <v>-188331.9458256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3931,7 +3947,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3948,22 +3964,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C86" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D86" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E86" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F86" t="n">
-        <v>340.7956</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>-188331.9458256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3973,7 +3989,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3990,22 +4006,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C87" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D87" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E87" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F87" t="n">
-        <v>1489.9732</v>
+        <v>7007.4995</v>
       </c>
       <c r="G87" t="n">
-        <v>-188331.9458256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4015,7 +4031,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4032,22 +4048,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C88" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D88" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E88" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F88" t="n">
-        <v>4294.1898</v>
+        <v>1848.4878</v>
       </c>
       <c r="G88" t="n">
-        <v>-192626.1356256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4057,7 +4073,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4074,22 +4090,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C89" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D89" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E89" t="n">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F89" t="n">
-        <v>196.5686</v>
+        <v>100.8792</v>
       </c>
       <c r="G89" t="n">
-        <v>-192626.1356256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4099,7 +4115,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4116,22 +4132,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C90" t="n">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D90" t="n">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E90" t="n">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F90" t="n">
-        <v>815.0699</v>
+        <v>79.11450000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-193441.2055256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4141,7 +4157,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4158,22 +4174,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C91" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D91" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E91" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F91" t="n">
-        <v>684.5085</v>
+        <v>1649.9704</v>
       </c>
       <c r="G91" t="n">
-        <v>-192756.6970256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4183,7 +4199,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4200,22 +4216,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C92" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D92" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E92" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F92" t="n">
-        <v>279.1393</v>
+        <v>7690.3152</v>
       </c>
       <c r="G92" t="n">
-        <v>-192756.6970256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4225,7 +4241,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4242,22 +4258,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C93" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D93" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E93" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F93" t="n">
-        <v>3175.0171</v>
+        <v>936.7595</v>
       </c>
       <c r="G93" t="n">
-        <v>-195931.7141256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4267,7 +4283,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4284,22 +4300,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C94" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D94" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E94" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F94" t="n">
-        <v>33.4418</v>
+        <v>532.3097</v>
       </c>
       <c r="G94" t="n">
-        <v>-195898.2723256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4309,7 +4325,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4326,22 +4342,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C95" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D95" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E95" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F95" t="n">
-        <v>27.6172</v>
+        <v>2707.8488</v>
       </c>
       <c r="G95" t="n">
-        <v>-195898.2723256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4351,7 +4367,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4368,22 +4384,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C96" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D96" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E96" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F96" t="n">
-        <v>3357.9307</v>
+        <v>815.6155</v>
       </c>
       <c r="G96" t="n">
-        <v>-192540.3416256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4393,7 +4409,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4410,22 +4426,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C97" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D97" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E97" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F97" t="n">
-        <v>14.7418</v>
+        <v>2596.1931</v>
       </c>
       <c r="G97" t="n">
-        <v>-192540.3416256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4435,7 +4451,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4452,22 +4468,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C98" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D98" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E98" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F98" t="n">
-        <v>3420.7926</v>
+        <v>1663.0419</v>
       </c>
       <c r="G98" t="n">
-        <v>-195961.1342256967</v>
+        <v>-228025.7666256967</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4477,7 +4493,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4494,22 +4510,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C99" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D99" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E99" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F99" t="n">
-        <v>1104.0173</v>
+        <v>542.123</v>
       </c>
       <c r="G99" t="n">
-        <v>-194857.1169256967</v>
+        <v>-227483.6436256967</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4519,7 +4535,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4536,22 +4552,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C100" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D100" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E100" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F100" t="n">
-        <v>1213.3363</v>
+        <v>5259.4</v>
       </c>
       <c r="G100" t="n">
-        <v>-194857.1169256967</v>
+        <v>-227483.6436256967</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4561,7 +4577,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4578,22 +4594,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C101" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D101" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E101" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F101" t="n">
-        <v>223.994</v>
+        <v>2025.5029</v>
       </c>
       <c r="G101" t="n">
-        <v>-194857.1169256967</v>
+        <v>-227483.6436256967</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4603,7 +4619,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4620,22 +4636,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C102" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D102" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E102" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F102" t="n">
-        <v>609.9404</v>
+        <v>2955.3443</v>
       </c>
       <c r="G102" t="n">
-        <v>-195467.0573256967</v>
+        <v>-227483.6436256967</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4645,7 +4661,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4662,22 +4678,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C103" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D103" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E103" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F103" t="n">
-        <v>358.9443</v>
+        <v>2968.5826</v>
       </c>
       <c r="G103" t="n">
-        <v>-195467.0573256967</v>
+        <v>-227483.6436256967</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4687,7 +4703,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4704,22 +4720,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C104" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D104" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E104" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>1811.9733</v>
       </c>
       <c r="G104" t="n">
-        <v>-195468.0573256967</v>
+        <v>-227483.6436256967</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4729,7 +4745,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4746,22 +4762,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C105" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D105" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E105" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F105" t="n">
-        <v>9.5</v>
+        <v>193.0297</v>
       </c>
       <c r="G105" t="n">
-        <v>-195458.5573256967</v>
+        <v>-227483.6436256967</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4771,7 +4787,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4788,22 +4804,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C106" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D106" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E106" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F106" t="n">
-        <v>1245</v>
+        <v>1651.5827</v>
       </c>
       <c r="G106" t="n">
-        <v>-196703.5573256967</v>
+        <v>-225832.0609256967</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4813,7 +4829,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4830,22 +4846,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C107" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D107" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E107" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F107" t="n">
-        <v>4697.8776</v>
+        <v>1984.7296</v>
       </c>
       <c r="G107" t="n">
-        <v>-196703.5573256967</v>
+        <v>-225832.0609256967</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4855,7 +4871,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4872,22 +4888,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C108" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D108" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E108" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F108" t="n">
-        <v>647.4153</v>
+        <v>628.8381000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>-196703.5573256967</v>
+        <v>-225832.0609256967</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4897,7 +4913,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4914,22 +4930,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C109" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D109" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E109" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F109" t="n">
-        <v>969.7952</v>
+        <v>2013.1194</v>
       </c>
       <c r="G109" t="n">
-        <v>-197673.3525256967</v>
+        <v>-225832.0609256967</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4939,7 +4955,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4956,22 +4972,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C110" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D110" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E110" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F110" t="n">
-        <v>1159.7119</v>
+        <v>673.5006</v>
       </c>
       <c r="G110" t="n">
-        <v>-196513.6406256967</v>
+        <v>-225832.0609256967</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4981,7 +4997,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4998,22 +5014,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C111" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D111" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E111" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F111" t="n">
-        <v>13878.8776</v>
+        <v>1055.7461</v>
       </c>
       <c r="G111" t="n">
-        <v>-196513.6406256967</v>
+        <v>-225832.0609256967</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5023,7 +5039,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5040,22 +5056,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C112" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D112" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E112" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F112" t="n">
-        <v>927.176</v>
+        <v>6763.5648</v>
       </c>
       <c r="G112" t="n">
-        <v>-197440.8166256967</v>
+        <v>-225832.0609256967</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5065,7 +5081,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5082,22 +5098,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C113" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D113" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E113" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F113" t="n">
-        <v>72.3064</v>
+        <v>6017.9344</v>
       </c>
       <c r="G113" t="n">
-        <v>-197368.5102256967</v>
+        <v>-225832.0609256967</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5107,7 +5123,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5124,22 +5140,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C114" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D114" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E114" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F114" t="n">
-        <v>506.9183</v>
+        <v>1280.9678</v>
       </c>
       <c r="G114" t="n">
-        <v>-197875.4285256967</v>
+        <v>-225832.0609256967</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5149,7 +5165,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5166,22 +5182,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C115" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D115" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E115" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F115" t="n">
-        <v>8432.047699999999</v>
+        <v>26527.4228</v>
       </c>
       <c r="G115" t="n">
-        <v>-189443.3808256967</v>
+        <v>-225832.0609256967</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5191,7 +5207,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5208,22 +5224,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C116" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D116" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E116" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F116" t="n">
-        <v>34.7079</v>
+        <v>14603.2625</v>
       </c>
       <c r="G116" t="n">
-        <v>-189478.0887256967</v>
+        <v>-225832.0609256967</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5233,7 +5249,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5250,22 +5266,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C117" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D117" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E117" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F117" t="n">
-        <v>3015.5109</v>
+        <v>2047.8841</v>
       </c>
       <c r="G117" t="n">
-        <v>-192493.5996256967</v>
+        <v>-227879.9450256967</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5275,7 +5291,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5292,22 +5308,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C118" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D118" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E118" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F118" t="n">
-        <v>3032.6554</v>
+        <v>3268.1555</v>
       </c>
       <c r="G118" t="n">
-        <v>-192493.5996256967</v>
+        <v>-224611.7895256967</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5317,7 +5333,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5334,22 +5350,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C119" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D119" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E119" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F119" t="n">
-        <v>18488.6342</v>
+        <v>1172.932</v>
       </c>
       <c r="G119" t="n">
-        <v>-210982.2338256967</v>
+        <v>-224611.7895256967</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5359,7 +5375,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5376,22 +5392,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C120" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D120" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E120" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F120" t="n">
-        <v>17.7789</v>
+        <v>30.4991</v>
       </c>
       <c r="G120" t="n">
-        <v>-210982.2338256967</v>
+        <v>-224611.7895256967</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5401,7 +5417,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5418,22 +5434,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C121" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D121" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E121" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F121" t="n">
-        <v>3368.6502</v>
+        <v>2167.0545</v>
       </c>
       <c r="G121" t="n">
-        <v>-214350.8840256967</v>
+        <v>-224611.7895256967</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5443,7 +5459,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5460,22 +5476,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C122" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D122" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E122" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F122" t="n">
-        <v>29.8191</v>
+        <v>18877.8396</v>
       </c>
       <c r="G122" t="n">
-        <v>-214321.0649256967</v>
+        <v>-224611.7895256967</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5485,7 +5501,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5502,22 +5518,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C123" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D123" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E123" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F123" t="n">
-        <v>1939.2099</v>
+        <v>4117.369172289156</v>
       </c>
       <c r="G123" t="n">
-        <v>-216260.2748256967</v>
+        <v>-224611.7895256967</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5527,7 +5543,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5544,22 +5560,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C124" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D124" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E124" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F124" t="n">
-        <v>4064.0284</v>
+        <v>116.366</v>
       </c>
       <c r="G124" t="n">
-        <v>-216260.2748256967</v>
+        <v>-224611.7895256967</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5569,7 +5585,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5586,22 +5602,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C125" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D125" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E125" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F125" t="n">
-        <v>8051.2638</v>
+        <v>2174.0823</v>
       </c>
       <c r="G125" t="n">
-        <v>-216260.2748256967</v>
+        <v>-224611.7895256967</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5611,7 +5627,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5628,22 +5644,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C126" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D126" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E126" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F126" t="n">
-        <v>2833.436</v>
+        <v>4262.5245</v>
       </c>
       <c r="G126" t="n">
-        <v>-216260.2748256967</v>
+        <v>-224611.7895256967</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5653,7 +5669,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5670,22 +5686,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C127" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D127" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E127" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F127" t="n">
-        <v>2650.4845</v>
+        <v>5784.3459</v>
       </c>
       <c r="G127" t="n">
-        <v>-216260.2748256967</v>
+        <v>-224611.7895256967</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5695,7 +5711,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5712,22 +5728,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C128" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D128" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E128" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F128" t="n">
-        <v>137.1681</v>
+        <v>720.6416</v>
       </c>
       <c r="G128" t="n">
-        <v>-216123.1067256966</v>
+        <v>-224611.7895256967</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5737,7 +5753,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5766,10 +5782,10 @@
         <v>333</v>
       </c>
       <c r="F129" t="n">
-        <v>202.8361</v>
+        <v>5542.6009</v>
       </c>
       <c r="G129" t="n">
-        <v>-216123.1067256966</v>
+        <v>-219069.1886256967</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5779,7 +5795,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5796,22 +5812,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C130" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D130" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E130" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F130" t="n">
-        <v>2926.9775</v>
+        <v>45.5938</v>
       </c>
       <c r="G130" t="n">
-        <v>-213196.1292256966</v>
+        <v>-219069.1886256967</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5821,7 +5837,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5838,22 +5854,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C131" t="n">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D131" t="n">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E131" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F131" t="n">
-        <v>2459.3133</v>
+        <v>1.4187</v>
       </c>
       <c r="G131" t="n">
-        <v>-210736.8159256966</v>
+        <v>-219070.6073256967</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5863,7 +5879,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5880,22 +5896,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C132" t="n">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D132" t="n">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E132" t="n">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F132" t="n">
-        <v>159.5028</v>
+        <v>2.7446</v>
       </c>
       <c r="G132" t="n">
-        <v>-210736.8159256966</v>
+        <v>-219070.6073256967</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5905,7 +5921,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5922,22 +5938,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C133" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D133" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E133" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F133" t="n">
-        <v>10762.6324</v>
+        <v>2096.3488</v>
       </c>
       <c r="G133" t="n">
-        <v>-199974.1835256966</v>
+        <v>-216974.2585256967</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5947,7 +5963,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5964,22 +5980,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C134" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D134" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E134" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F134" t="n">
-        <v>1000</v>
+        <v>2219</v>
       </c>
       <c r="G134" t="n">
-        <v>-200974.1835256966</v>
+        <v>-216974.2585256967</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5989,7 +6005,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -6006,22 +6022,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C135" t="n">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D135" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E135" t="n">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F135" t="n">
-        <v>31.3127</v>
+        <v>1721.9189</v>
       </c>
       <c r="G135" t="n">
-        <v>-200942.8708256966</v>
+        <v>-218696.1774256967</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -6031,7 +6047,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -6048,22 +6064,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C136" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D136" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E136" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F136" t="n">
-        <v>1300.9019</v>
+        <v>2114.57</v>
       </c>
       <c r="G136" t="n">
-        <v>-200942.8708256966</v>
+        <v>-216581.6074256967</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -6073,7 +6089,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6090,22 +6106,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C137" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D137" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E137" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F137" t="n">
-        <v>1565.6339</v>
+        <v>7975.4962</v>
       </c>
       <c r="G137" t="n">
-        <v>-200942.8708256966</v>
+        <v>-216581.6074256967</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -6115,7 +6131,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6132,22 +6148,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C138" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D138" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E138" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F138" t="n">
-        <v>5278.9698</v>
+        <v>180</v>
       </c>
       <c r="G138" t="n">
-        <v>-195663.9010256966</v>
+        <v>-216581.6074256967</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6157,7 +6173,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6174,22 +6190,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C139" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D139" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E139" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F139" t="n">
-        <v>400.9604</v>
+        <v>1980.9878</v>
       </c>
       <c r="G139" t="n">
-        <v>-195663.9010256966</v>
+        <v>-216581.6074256967</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6199,7 +6215,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6216,22 +6232,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C140" t="n">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D140" t="n">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E140" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F140" t="n">
-        <v>3591.4773</v>
+        <v>8838.907499999999</v>
       </c>
       <c r="G140" t="n">
-        <v>-192072.4237256966</v>
+        <v>-216581.6074256967</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6241,7 +6257,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6258,22 +6274,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C141" t="n">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D141" t="n">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E141" t="n">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F141" t="n">
-        <v>6968.4663</v>
+        <v>6945.4939</v>
       </c>
       <c r="G141" t="n">
-        <v>-185103.9574256966</v>
+        <v>-216581.6074256967</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6283,7 +6299,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6300,22 +6316,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C142" t="n">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D142" t="n">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E142" t="n">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F142" t="n">
-        <v>6390.7349</v>
+        <v>2760.1655</v>
       </c>
       <c r="G142" t="n">
-        <v>-191494.6923256966</v>
+        <v>-213821.4419256967</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6325,7 +6341,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6342,22 +6358,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C143" t="n">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D143" t="n">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E143" t="n">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F143" t="n">
-        <v>2550.1576</v>
+        <v>1000</v>
       </c>
       <c r="G143" t="n">
-        <v>-188944.5347256966</v>
+        <v>-214821.4419256967</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6367,7 +6383,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6384,22 +6400,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C144" t="n">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D144" t="n">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E144" t="n">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F144" t="n">
-        <v>4816.0409</v>
+        <v>1000</v>
       </c>
       <c r="G144" t="n">
-        <v>-184128.4938256966</v>
+        <v>-214821.4419256967</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6409,7 +6425,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6426,22 +6442,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C145" t="n">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D145" t="n">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E145" t="n">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F145" t="n">
-        <v>24003.1569</v>
+        <v>54.7874</v>
       </c>
       <c r="G145" t="n">
-        <v>-160125.3369256966</v>
+        <v>-214766.6545256967</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6451,7 +6467,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6468,22 +6484,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C146" t="n">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D146" t="n">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E146" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F146" t="n">
-        <v>7842.5467</v>
+        <v>23757.6132</v>
       </c>
       <c r="G146" t="n">
-        <v>-160125.3369256966</v>
+        <v>-191009.0413256967</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6493,7 +6509,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6510,22 +6526,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C147" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D147" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E147" t="n">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F147" t="n">
-        <v>5105.6809</v>
+        <v>1444.3792</v>
       </c>
       <c r="G147" t="n">
-        <v>-165231.0178256966</v>
+        <v>-192453.4205256967</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6535,7 +6551,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6552,22 +6568,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C148" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D148" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E148" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F148" t="n">
-        <v>5330.7935</v>
+        <v>352.13</v>
       </c>
       <c r="G148" t="n">
-        <v>-165231.0178256966</v>
+        <v>-192453.4205256967</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6577,7 +6593,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6594,22 +6610,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C149" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D149" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E149" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F149" t="n">
-        <v>6537.7448</v>
+        <v>3060.7985</v>
       </c>
       <c r="G149" t="n">
-        <v>-165231.0178256966</v>
+        <v>-192453.4205256967</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6619,7 +6635,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6636,22 +6652,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C150" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D150" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E150" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F150" t="n">
-        <v>7991.6928</v>
+        <v>1403.4958</v>
       </c>
       <c r="G150" t="n">
-        <v>-165231.0178256966</v>
+        <v>-192453.4205256967</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6661,7 +6677,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6678,22 +6694,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C151" t="n">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D151" t="n">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E151" t="n">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F151" t="n">
-        <v>20.852</v>
+        <v>2429.3285</v>
       </c>
       <c r="G151" t="n">
-        <v>-165251.8698256967</v>
+        <v>-192453.4205256967</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6703,7 +6719,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6720,22 +6736,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C152" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D152" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E152" t="n">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F152" t="n">
-        <v>2491.2107</v>
+        <v>3424.362</v>
       </c>
       <c r="G152" t="n">
-        <v>-167743.0805256967</v>
+        <v>-189029.0585256967</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6745,7 +6761,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6762,22 +6778,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C153" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D153" t="n">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E153" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F153" t="n">
-        <v>15056.1233</v>
+        <v>817.1127</v>
       </c>
       <c r="G153" t="n">
-        <v>-167743.0805256967</v>
+        <v>-188211.9458256967</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6787,7 +6803,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6804,22 +6820,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C154" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D154" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E154" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F154" t="n">
-        <v>4649.5635</v>
+        <v>310.991</v>
       </c>
       <c r="G154" t="n">
-        <v>-167743.0805256967</v>
+        <v>-188211.9458256967</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6829,7 +6845,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6846,22 +6862,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C155" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D155" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E155" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F155" t="n">
-        <v>1573.3351</v>
+        <v>969.7952</v>
       </c>
       <c r="G155" t="n">
-        <v>-167743.0805256967</v>
+        <v>-188211.9458256967</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6871,7 +6887,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6888,22 +6904,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C156" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D156" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E156" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F156" t="n">
-        <v>4356.8872</v>
+        <v>120</v>
       </c>
       <c r="G156" t="n">
-        <v>-167743.0805256967</v>
+        <v>-188331.9458256967</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6913,7 +6929,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6930,22 +6946,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C157" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D157" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E157" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F157" t="n">
-        <v>25.4476</v>
+        <v>340.7956</v>
       </c>
       <c r="G157" t="n">
-        <v>-167717.6329256966</v>
+        <v>-188331.9458256967</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6955,7 +6971,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6972,22 +6988,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C158" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D158" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E158" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F158" t="n">
-        <v>1892.2999</v>
+        <v>1489.9732</v>
       </c>
       <c r="G158" t="n">
-        <v>-167717.6329256966</v>
+        <v>-188331.9458256967</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6997,7 +7013,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -7014,22 +7030,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C159" t="n">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D159" t="n">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E159" t="n">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F159" t="n">
-        <v>249.7005</v>
+        <v>4294.1898</v>
       </c>
       <c r="G159" t="n">
-        <v>-167717.6329256966</v>
+        <v>-192626.1356256967</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -7039,7 +7055,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -7056,22 +7072,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C160" t="n">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D160" t="n">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E160" t="n">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F160" t="n">
-        <v>2805.5096</v>
+        <v>196.5686</v>
       </c>
       <c r="G160" t="n">
-        <v>-164912.1233256967</v>
+        <v>-192626.1356256967</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -7081,7 +7097,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -7098,22 +7114,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C161" t="n">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D161" t="n">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E161" t="n">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F161" t="n">
-        <v>5773.3137</v>
+        <v>815.0699</v>
       </c>
       <c r="G161" t="n">
-        <v>-164912.1233256967</v>
+        <v>-193441.2055256967</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -7123,7 +7139,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -7140,22 +7156,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C162" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D162" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E162" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F162" t="n">
-        <v>10112.6648</v>
+        <v>684.5085</v>
       </c>
       <c r="G162" t="n">
-        <v>-154799.4585256967</v>
+        <v>-192756.6970256967</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -7165,7 +7181,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -7182,22 +7198,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C163" t="n">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D163" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E163" t="n">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F163" t="n">
-        <v>25642.46431710145</v>
+        <v>279.1393</v>
       </c>
       <c r="G163" t="n">
-        <v>-129156.9942085952</v>
+        <v>-192756.6970256967</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -7207,7 +7223,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -7224,22 +7240,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C164" t="n">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D164" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E164" t="n">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F164" t="n">
-        <v>4046.2512</v>
+        <v>3175.0171</v>
       </c>
       <c r="G164" t="n">
-        <v>-129156.9942085952</v>
+        <v>-195931.7141256967</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -7249,7 +7265,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -7266,22 +7282,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C165" t="n">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D165" t="n">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E165" t="n">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F165" t="n">
-        <v>1000</v>
+        <v>33.4418</v>
       </c>
       <c r="G165" t="n">
-        <v>-129156.9942085952</v>
+        <v>-195898.2723256967</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7291,7 +7307,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -7308,22 +7324,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C166" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D166" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E166" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="F166" t="n">
-        <v>6205.809248554913</v>
+        <v>27.6172</v>
       </c>
       <c r="G166" t="n">
-        <v>-122951.1849600403</v>
+        <v>-195898.2723256967</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -7333,7 +7349,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -7350,40 +7366,40 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C167" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D167" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E167" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F167" t="n">
-        <v>13090.0895</v>
+        <v>3357.9307</v>
       </c>
       <c r="G167" t="n">
-        <v>-122951.1849600403</v>
+        <v>-192540.3416256967</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>1.043484848484849</v>
+        <v>1</v>
       </c>
       <c r="N167" t="inlineStr"/>
     </row>
@@ -7392,32 +7408,38 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C168" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D168" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E168" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F168" t="n">
-        <v>30709.494</v>
+        <v>14.7418</v>
       </c>
       <c r="G168" t="n">
-        <v>-153660.6789600403</v>
+        <v>-192540.3416256967</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>318</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7428,32 +7450,38 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C169" t="n">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D169" t="n">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E169" t="n">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="F169" t="n">
-        <v>30996.1382</v>
+        <v>3420.7926</v>
       </c>
       <c r="G169" t="n">
-        <v>-153660.6789600403</v>
+        <v>-195961.1342256967</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>318</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7464,32 +7492,38 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C170" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D170" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E170" t="n">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F170" t="n">
-        <v>982.0622</v>
+        <v>1104.0173</v>
       </c>
       <c r="G170" t="n">
-        <v>-154642.7411600403</v>
+        <v>-194857.1169256967</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>318</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7500,32 +7534,38 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C171" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D171" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E171" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F171" t="n">
-        <v>1632.4216</v>
+        <v>1213.3363</v>
       </c>
       <c r="G171" t="n">
-        <v>-153010.3195600403</v>
+        <v>-194857.1169256967</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>318</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7536,32 +7576,38 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C172" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D172" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E172" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F172" t="n">
-        <v>5057.258</v>
+        <v>223.994</v>
       </c>
       <c r="G172" t="n">
-        <v>-158067.5775600403</v>
+        <v>-194857.1169256967</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>318</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7572,32 +7618,38 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C173" t="n">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D173" t="n">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E173" t="n">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F173" t="n">
-        <v>997.5</v>
+        <v>609.9404</v>
       </c>
       <c r="G173" t="n">
-        <v>-158067.5775600403</v>
+        <v>-195467.0573256967</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>318</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7608,32 +7660,38 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C174" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D174" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E174" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="F174" t="n">
-        <v>3531.9913</v>
+        <v>358.9443</v>
       </c>
       <c r="G174" t="n">
-        <v>-154535.5862600403</v>
+        <v>-195467.0573256967</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>318</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7644,32 +7702,38 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C175" t="n">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D175" t="n">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E175" t="n">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F175" t="n">
-        <v>770.7177</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>-154535.5862600403</v>
+        <v>-195468.0573256967</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>318</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7680,32 +7744,38 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C176" t="n">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D176" t="n">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E176" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F176" t="n">
-        <v>1333.4583</v>
+        <v>9.5</v>
       </c>
       <c r="G176" t="n">
-        <v>-153202.1279600403</v>
+        <v>-195458.5573256967</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>318</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7716,36 +7786,2816 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>334</v>
+      </c>
+      <c r="C177" t="n">
+        <v>334</v>
+      </c>
+      <c r="D177" t="n">
+        <v>334</v>
+      </c>
+      <c r="E177" t="n">
+        <v>334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1245</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-196703.5573256967</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>318</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>334</v>
+      </c>
+      <c r="C178" t="n">
+        <v>334</v>
+      </c>
+      <c r="D178" t="n">
+        <v>334</v>
+      </c>
+      <c r="E178" t="n">
+        <v>334</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4697.8776</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-196703.5573256967</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>318</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>334</v>
+      </c>
+      <c r="C179" t="n">
+        <v>334</v>
+      </c>
+      <c r="D179" t="n">
+        <v>334</v>
+      </c>
+      <c r="E179" t="n">
+        <v>334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>647.4153</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-196703.5573256967</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>318</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>333</v>
+      </c>
+      <c r="C180" t="n">
+        <v>333</v>
+      </c>
+      <c r="D180" t="n">
+        <v>333</v>
+      </c>
+      <c r="E180" t="n">
+        <v>333</v>
+      </c>
+      <c r="F180" t="n">
+        <v>969.7952</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-197673.3525256967</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>318</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>335</v>
+      </c>
+      <c r="C181" t="n">
+        <v>335</v>
+      </c>
+      <c r="D181" t="n">
+        <v>335</v>
+      </c>
+      <c r="E181" t="n">
+        <v>335</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1159.7119</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-196513.6406256967</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>318</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>335</v>
+      </c>
+      <c r="C182" t="n">
+        <v>335</v>
+      </c>
+      <c r="D182" t="n">
+        <v>335</v>
+      </c>
+      <c r="E182" t="n">
+        <v>335</v>
+      </c>
+      <c r="F182" t="n">
+        <v>13878.8776</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-196513.6406256967</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>318</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>335</v>
+      </c>
+      <c r="C183" t="n">
+        <v>334</v>
+      </c>
+      <c r="D183" t="n">
+        <v>335</v>
+      </c>
+      <c r="E183" t="n">
+        <v>334</v>
+      </c>
+      <c r="F183" t="n">
+        <v>927.176</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-197440.8166256967</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>318</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>335</v>
+      </c>
+      <c r="C184" t="n">
+        <v>335</v>
+      </c>
+      <c r="D184" t="n">
+        <v>335</v>
+      </c>
+      <c r="E184" t="n">
+        <v>335</v>
+      </c>
+      <c r="F184" t="n">
+        <v>72.3064</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-197368.5102256967</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>318</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>334</v>
+      </c>
+      <c r="C185" t="n">
+        <v>334</v>
+      </c>
+      <c r="D185" t="n">
+        <v>334</v>
+      </c>
+      <c r="E185" t="n">
+        <v>334</v>
+      </c>
+      <c r="F185" t="n">
+        <v>506.9183</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-197875.4285256967</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>318</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>335</v>
+      </c>
+      <c r="C186" t="n">
+        <v>335</v>
+      </c>
+      <c r="D186" t="n">
+        <v>335</v>
+      </c>
+      <c r="E186" t="n">
+        <v>335</v>
+      </c>
+      <c r="F186" t="n">
+        <v>8432.047699999999</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-189443.3808256967</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>318</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>334</v>
+      </c>
+      <c r="C187" t="n">
+        <v>334</v>
+      </c>
+      <c r="D187" t="n">
+        <v>334</v>
+      </c>
+      <c r="E187" t="n">
+        <v>334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>34.7079</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-189478.0887256967</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>318</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>333</v>
+      </c>
+      <c r="C188" t="n">
+        <v>333</v>
+      </c>
+      <c r="D188" t="n">
+        <v>333</v>
+      </c>
+      <c r="E188" t="n">
+        <v>333</v>
+      </c>
+      <c r="F188" t="n">
+        <v>3015.5109</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-192493.5996256967</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>318</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>333</v>
+      </c>
+      <c r="C189" t="n">
+        <v>333</v>
+      </c>
+      <c r="D189" t="n">
+        <v>333</v>
+      </c>
+      <c r="E189" t="n">
+        <v>333</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3032.6554</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-192493.5996256967</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>318</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>333</v>
+      </c>
+      <c r="C190" t="n">
+        <v>331</v>
+      </c>
+      <c r="D190" t="n">
+        <v>333</v>
+      </c>
+      <c r="E190" t="n">
+        <v>331</v>
+      </c>
+      <c r="F190" t="n">
+        <v>18488.6342</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-210982.2338256967</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>318</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>331</v>
+      </c>
+      <c r="C191" t="n">
+        <v>331</v>
+      </c>
+      <c r="D191" t="n">
+        <v>331</v>
+      </c>
+      <c r="E191" t="n">
+        <v>331</v>
+      </c>
+      <c r="F191" t="n">
+        <v>17.7789</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-210982.2338256967</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>318</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>333</v>
+      </c>
+      <c r="C192" t="n">
+        <v>329</v>
+      </c>
+      <c r="D192" t="n">
+        <v>333</v>
+      </c>
+      <c r="E192" t="n">
+        <v>329</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3368.6502</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-214350.8840256967</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>318</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>331</v>
+      </c>
+      <c r="C193" t="n">
+        <v>331</v>
+      </c>
+      <c r="D193" t="n">
+        <v>331</v>
+      </c>
+      <c r="E193" t="n">
+        <v>331</v>
+      </c>
+      <c r="F193" t="n">
+        <v>29.8191</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-214321.0649256967</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>318</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>330</v>
+      </c>
+      <c r="C194" t="n">
+        <v>330</v>
+      </c>
+      <c r="D194" t="n">
+        <v>330</v>
+      </c>
+      <c r="E194" t="n">
+        <v>330</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1939.2099</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-216260.2748256967</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>318</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>330</v>
+      </c>
+      <c r="C195" t="n">
+        <v>330</v>
+      </c>
+      <c r="D195" t="n">
+        <v>330</v>
+      </c>
+      <c r="E195" t="n">
+        <v>330</v>
+      </c>
+      <c r="F195" t="n">
+        <v>4064.0284</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-216260.2748256967</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>318</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>330</v>
+      </c>
+      <c r="C196" t="n">
+        <v>330</v>
+      </c>
+      <c r="D196" t="n">
+        <v>330</v>
+      </c>
+      <c r="E196" t="n">
+        <v>330</v>
+      </c>
+      <c r="F196" t="n">
+        <v>8051.2638</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-216260.2748256967</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>318</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>330</v>
+      </c>
+      <c r="C197" t="n">
+        <v>330</v>
+      </c>
+      <c r="D197" t="n">
+        <v>330</v>
+      </c>
+      <c r="E197" t="n">
+        <v>330</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2833.436</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-216260.2748256967</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>318</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>330</v>
+      </c>
+      <c r="C198" t="n">
+        <v>330</v>
+      </c>
+      <c r="D198" t="n">
+        <v>330</v>
+      </c>
+      <c r="E198" t="n">
+        <v>330</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2650.4845</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-216260.2748256967</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>318</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>333</v>
+      </c>
+      <c r="C199" t="n">
+        <v>333</v>
+      </c>
+      <c r="D199" t="n">
+        <v>333</v>
+      </c>
+      <c r="E199" t="n">
+        <v>333</v>
+      </c>
+      <c r="F199" t="n">
+        <v>137.1681</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-216123.1067256966</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>318</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>333</v>
+      </c>
+      <c r="C200" t="n">
+        <v>333</v>
+      </c>
+      <c r="D200" t="n">
+        <v>333</v>
+      </c>
+      <c r="E200" t="n">
+        <v>333</v>
+      </c>
+      <c r="F200" t="n">
+        <v>202.8361</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-216123.1067256966</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>318</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>334</v>
+      </c>
+      <c r="C201" t="n">
+        <v>334</v>
+      </c>
+      <c r="D201" t="n">
+        <v>334</v>
+      </c>
+      <c r="E201" t="n">
+        <v>334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2926.9775</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-213196.1292256966</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>318</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>335</v>
+      </c>
+      <c r="C202" t="n">
+        <v>336</v>
+      </c>
+      <c r="D202" t="n">
+        <v>336</v>
+      </c>
+      <c r="E202" t="n">
+        <v>335</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2459.3133</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-210736.8159256966</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>318</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>336</v>
+      </c>
+      <c r="C203" t="n">
+        <v>336</v>
+      </c>
+      <c r="D203" t="n">
+        <v>336</v>
+      </c>
+      <c r="E203" t="n">
+        <v>336</v>
+      </c>
+      <c r="F203" t="n">
+        <v>159.5028</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-210736.8159256966</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>318</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>336</v>
+      </c>
+      <c r="C204" t="n">
+        <v>337</v>
+      </c>
+      <c r="D204" t="n">
+        <v>337</v>
+      </c>
+      <c r="E204" t="n">
+        <v>336</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10762.6324</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-199974.1835256966</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>318</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>336</v>
+      </c>
+      <c r="C205" t="n">
+        <v>335</v>
+      </c>
+      <c r="D205" t="n">
+        <v>336</v>
+      </c>
+      <c r="E205" t="n">
+        <v>335</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-200974.1835256966</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>318</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>337</v>
+      </c>
+      <c r="C206" t="n">
+        <v>337</v>
+      </c>
+      <c r="D206" t="n">
+        <v>337</v>
+      </c>
+      <c r="E206" t="n">
+        <v>337</v>
+      </c>
+      <c r="F206" t="n">
+        <v>31.3127</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-200942.8708256966</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>318</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>335</v>
+      </c>
+      <c r="C207" t="n">
+        <v>337</v>
+      </c>
+      <c r="D207" t="n">
+        <v>337</v>
+      </c>
+      <c r="E207" t="n">
+        <v>335</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1300.9019</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-200942.8708256966</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>318</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>337</v>
+      </c>
+      <c r="C208" t="n">
+        <v>337</v>
+      </c>
+      <c r="D208" t="n">
+        <v>337</v>
+      </c>
+      <c r="E208" t="n">
+        <v>337</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1565.6339</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-200942.8708256966</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>318</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>337</v>
+      </c>
+      <c r="C209" t="n">
+        <v>338</v>
+      </c>
+      <c r="D209" t="n">
+        <v>338</v>
+      </c>
+      <c r="E209" t="n">
+        <v>337</v>
+      </c>
+      <c r="F209" t="n">
+        <v>5278.9698</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-195663.9010256966</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>318</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>338</v>
+      </c>
+      <c r="C210" t="n">
+        <v>338</v>
+      </c>
+      <c r="D210" t="n">
+        <v>338</v>
+      </c>
+      <c r="E210" t="n">
+        <v>338</v>
+      </c>
+      <c r="F210" t="n">
+        <v>400.9604</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-195663.9010256966</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>318</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>338</v>
+      </c>
+      <c r="C211" t="n">
+        <v>339</v>
+      </c>
+      <c r="D211" t="n">
+        <v>339</v>
+      </c>
+      <c r="E211" t="n">
+        <v>338</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3591.4773</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-192072.4237256966</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>318</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>339</v>
+      </c>
+      <c r="C212" t="n">
+        <v>340</v>
+      </c>
+      <c r="D212" t="n">
+        <v>340</v>
+      </c>
+      <c r="E212" t="n">
+        <v>339</v>
+      </c>
+      <c r="F212" t="n">
+        <v>6968.4663</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-185103.9574256966</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>318</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>340</v>
+      </c>
+      <c r="C213" t="n">
+        <v>339</v>
+      </c>
+      <c r="D213" t="n">
+        <v>340</v>
+      </c>
+      <c r="E213" t="n">
+        <v>339</v>
+      </c>
+      <c r="F213" t="n">
+        <v>6390.7349</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-191494.6923256966</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>318</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1.061037735849057</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>340</v>
+      </c>
+      <c r="C214" t="n">
+        <v>340</v>
+      </c>
+      <c r="D214" t="n">
+        <v>340</v>
+      </c>
+      <c r="E214" t="n">
+        <v>340</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2550.1576</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-188944.5347256966</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>341</v>
+      </c>
+      <c r="C215" t="n">
+        <v>341</v>
+      </c>
+      <c r="D215" t="n">
+        <v>341</v>
+      </c>
+      <c r="E215" t="n">
+        <v>341</v>
+      </c>
+      <c r="F215" t="n">
+        <v>4816.0409</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-184128.4938256966</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>342</v>
+      </c>
+      <c r="C216" t="n">
+        <v>343</v>
+      </c>
+      <c r="D216" t="n">
+        <v>343</v>
+      </c>
+      <c r="E216" t="n">
+        <v>342</v>
+      </c>
+      <c r="F216" t="n">
+        <v>24003.1569</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-160125.3369256966</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>343</v>
+      </c>
+      <c r="C217" t="n">
+        <v>343</v>
+      </c>
+      <c r="D217" t="n">
+        <v>343</v>
+      </c>
+      <c r="E217" t="n">
+        <v>342</v>
+      </c>
+      <c r="F217" t="n">
+        <v>7842.5467</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-160125.3369256966</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>343</v>
+      </c>
+      <c r="C218" t="n">
+        <v>342</v>
+      </c>
+      <c r="D218" t="n">
+        <v>343</v>
+      </c>
+      <c r="E218" t="n">
+        <v>341</v>
+      </c>
+      <c r="F218" t="n">
+        <v>5105.6809</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-165231.0178256966</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>342</v>
+      </c>
+      <c r="C219" t="n">
+        <v>342</v>
+      </c>
+      <c r="D219" t="n">
+        <v>342</v>
+      </c>
+      <c r="E219" t="n">
+        <v>342</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5330.7935</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-165231.0178256966</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>343</v>
+      </c>
+      <c r="C220" t="n">
+        <v>342</v>
+      </c>
+      <c r="D220" t="n">
+        <v>343</v>
+      </c>
+      <c r="E220" t="n">
+        <v>342</v>
+      </c>
+      <c r="F220" t="n">
+        <v>6537.7448</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-165231.0178256966</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>342</v>
+      </c>
+      <c r="C221" t="n">
+        <v>342</v>
+      </c>
+      <c r="D221" t="n">
+        <v>342</v>
+      </c>
+      <c r="E221" t="n">
+        <v>342</v>
+      </c>
+      <c r="F221" t="n">
+        <v>7991.6928</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-165231.0178256966</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>340</v>
+      </c>
+      <c r="C222" t="n">
+        <v>340</v>
+      </c>
+      <c r="D222" t="n">
+        <v>340</v>
+      </c>
+      <c r="E222" t="n">
+        <v>340</v>
+      </c>
+      <c r="F222" t="n">
+        <v>20.852</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-165251.8698256967</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>338</v>
+      </c>
+      <c r="C223" t="n">
+        <v>339</v>
+      </c>
+      <c r="D223" t="n">
+        <v>339</v>
+      </c>
+      <c r="E223" t="n">
+        <v>338</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2491.2107</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-167743.0805256967</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>338</v>
+      </c>
+      <c r="C224" t="n">
+        <v>339</v>
+      </c>
+      <c r="D224" t="n">
+        <v>340</v>
+      </c>
+      <c r="E224" t="n">
+        <v>338</v>
+      </c>
+      <c r="F224" t="n">
+        <v>15056.1233</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-167743.0805256967</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>339</v>
+      </c>
+      <c r="C225" t="n">
+        <v>339</v>
+      </c>
+      <c r="D225" t="n">
+        <v>339</v>
+      </c>
+      <c r="E225" t="n">
+        <v>338</v>
+      </c>
+      <c r="F225" t="n">
+        <v>4649.5635</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-167743.0805256967</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>339</v>
+      </c>
+      <c r="C226" t="n">
+        <v>339</v>
+      </c>
+      <c r="D226" t="n">
+        <v>339</v>
+      </c>
+      <c r="E226" t="n">
+        <v>339</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1573.3351</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-167743.0805256967</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>339</v>
+      </c>
+      <c r="C227" t="n">
+        <v>339</v>
+      </c>
+      <c r="D227" t="n">
+        <v>339</v>
+      </c>
+      <c r="E227" t="n">
+        <v>339</v>
+      </c>
+      <c r="F227" t="n">
+        <v>4356.8872</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-167743.0805256967</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>340</v>
+      </c>
+      <c r="C228" t="n">
+        <v>340</v>
+      </c>
+      <c r="D228" t="n">
+        <v>340</v>
+      </c>
+      <c r="E228" t="n">
+        <v>340</v>
+      </c>
+      <c r="F228" t="n">
+        <v>25.4476</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-167717.6329256966</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>340</v>
+      </c>
+      <c r="C229" t="n">
+        <v>340</v>
+      </c>
+      <c r="D229" t="n">
+        <v>340</v>
+      </c>
+      <c r="E229" t="n">
+        <v>340</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1892.2999</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-167717.6329256966</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>340</v>
+      </c>
+      <c r="C230" t="n">
+        <v>340</v>
+      </c>
+      <c r="D230" t="n">
+        <v>340</v>
+      </c>
+      <c r="E230" t="n">
+        <v>340</v>
+      </c>
+      <c r="F230" t="n">
+        <v>249.7005</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-167717.6329256966</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>340</v>
+      </c>
+      <c r="C231" t="n">
+        <v>341</v>
+      </c>
+      <c r="D231" t="n">
+        <v>341</v>
+      </c>
+      <c r="E231" t="n">
+        <v>340</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2805.5096</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-164912.1233256967</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>341</v>
+      </c>
+      <c r="C232" t="n">
+        <v>341</v>
+      </c>
+      <c r="D232" t="n">
+        <v>341</v>
+      </c>
+      <c r="E232" t="n">
+        <v>341</v>
+      </c>
+      <c r="F232" t="n">
+        <v>5773.3137</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-164912.1233256967</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>342</v>
+      </c>
+      <c r="C233" t="n">
+        <v>343</v>
+      </c>
+      <c r="D233" t="n">
+        <v>343</v>
+      </c>
+      <c r="E233" t="n">
+        <v>342</v>
+      </c>
+      <c r="F233" t="n">
+        <v>10112.6648</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-154799.4585256967</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>344</v>
+      </c>
+      <c r="C234" t="n">
+        <v>344</v>
+      </c>
+      <c r="D234" t="n">
+        <v>345</v>
+      </c>
+      <c r="E234" t="n">
+        <v>344</v>
+      </c>
+      <c r="F234" t="n">
+        <v>25642.46431710145</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-129156.9942085952</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>344</v>
+      </c>
+      <c r="C235" t="n">
+        <v>344</v>
+      </c>
+      <c r="D235" t="n">
         <v>346</v>
       </c>
-      <c r="C177" t="n">
+      <c r="E235" t="n">
+        <v>344</v>
+      </c>
+      <c r="F235" t="n">
+        <v>4046.2512</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-129156.9942085952</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>344</v>
+      </c>
+      <c r="C236" t="n">
+        <v>344</v>
+      </c>
+      <c r="D236" t="n">
+        <v>344</v>
+      </c>
+      <c r="E236" t="n">
+        <v>344</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-129156.9942085952</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
         <v>346</v>
       </c>
-      <c r="D177" t="n">
+      <c r="C237" t="n">
         <v>346</v>
       </c>
-      <c r="E177" t="n">
+      <c r="D237" t="n">
         <v>346</v>
       </c>
-      <c r="F177" t="n">
+      <c r="E237" t="n">
+        <v>346</v>
+      </c>
+      <c r="F237" t="n">
+        <v>6205.809248554913</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-122951.1849600403</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>346</v>
+      </c>
+      <c r="C238" t="n">
+        <v>346</v>
+      </c>
+      <c r="D238" t="n">
+        <v>346</v>
+      </c>
+      <c r="E238" t="n">
+        <v>346</v>
+      </c>
+      <c r="F238" t="n">
+        <v>13090.0895</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-122951.1849600403</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>345</v>
+      </c>
+      <c r="C239" t="n">
+        <v>345</v>
+      </c>
+      <c r="D239" t="n">
+        <v>345</v>
+      </c>
+      <c r="E239" t="n">
+        <v>345</v>
+      </c>
+      <c r="F239" t="n">
+        <v>30709.494</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-153660.6789600403</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>345</v>
+      </c>
+      <c r="C240" t="n">
+        <v>345</v>
+      </c>
+      <c r="D240" t="n">
+        <v>345</v>
+      </c>
+      <c r="E240" t="n">
+        <v>345</v>
+      </c>
+      <c r="F240" t="n">
+        <v>30996.1382</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-153660.6789600403</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>343</v>
+      </c>
+      <c r="C241" t="n">
+        <v>343</v>
+      </c>
+      <c r="D241" t="n">
+        <v>343</v>
+      </c>
+      <c r="E241" t="n">
+        <v>343</v>
+      </c>
+      <c r="F241" t="n">
+        <v>982.0622</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-154642.7411600403</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>345</v>
+      </c>
+      <c r="C242" t="n">
+        <v>346</v>
+      </c>
+      <c r="D242" t="n">
+        <v>346</v>
+      </c>
+      <c r="E242" t="n">
+        <v>345</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1632.4216</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-153010.3195600403</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>345</v>
+      </c>
+      <c r="C243" t="n">
+        <v>345</v>
+      </c>
+      <c r="D243" t="n">
+        <v>345</v>
+      </c>
+      <c r="E243" t="n">
+        <v>345</v>
+      </c>
+      <c r="F243" t="n">
+        <v>5057.258</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-158067.5775600403</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>345</v>
+      </c>
+      <c r="C244" t="n">
+        <v>345</v>
+      </c>
+      <c r="D244" t="n">
+        <v>345</v>
+      </c>
+      <c r="E244" t="n">
+        <v>345</v>
+      </c>
+      <c r="F244" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-158067.5775600403</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>346</v>
+      </c>
+      <c r="C245" t="n">
+        <v>346</v>
+      </c>
+      <c r="D245" t="n">
+        <v>346</v>
+      </c>
+      <c r="E245" t="n">
+        <v>346</v>
+      </c>
+      <c r="F245" t="n">
+        <v>3531.9913</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-154535.5862600403</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>345</v>
+      </c>
+      <c r="C246" t="n">
+        <v>346</v>
+      </c>
+      <c r="D246" t="n">
+        <v>346</v>
+      </c>
+      <c r="E246" t="n">
+        <v>345</v>
+      </c>
+      <c r="F246" t="n">
+        <v>770.7177</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-154535.5862600403</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>346</v>
+      </c>
+      <c r="C247" t="n">
+        <v>347</v>
+      </c>
+      <c r="D247" t="n">
+        <v>347</v>
+      </c>
+      <c r="E247" t="n">
+        <v>346</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1333.4583</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-153202.1279600403</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>346</v>
+      </c>
+      <c r="C248" t="n">
+        <v>346</v>
+      </c>
+      <c r="D248" t="n">
+        <v>346</v>
+      </c>
+      <c r="E248" t="n">
+        <v>346</v>
+      </c>
+      <c r="F248" t="n">
         <v>695.2414</v>
       </c>
-      <c r="G177" t="n">
+      <c r="G248" t="n">
         <v>-153897.3693600403</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-01 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N248"/>
+  <dimension ref="A1:M248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-279365.1312256966</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>-279365.1312256966</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>318</v>
+      </c>
+      <c r="J3" t="n">
+        <v>318</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +521,21 @@
         <v>-279365.1312256966</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>318</v>
       </c>
-      <c r="K4" t="n">
-        <v>318</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,22 +562,19 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>318</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>318</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -610,26 +599,15 @@
         <v>-279365.1312256966</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>318</v>
-      </c>
-      <c r="K6" t="n">
-        <v>318</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,22 +632,15 @@
         <v>-279365.1312256966</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>318</v>
-      </c>
-      <c r="K7" t="n">
-        <v>318</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,26 +665,15 @@
         <v>-279365.1312256966</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>318</v>
-      </c>
-      <c r="K8" t="n">
-        <v>318</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,26 +698,15 @@
         <v>-279365.1312256966</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>318</v>
-      </c>
-      <c r="K9" t="n">
-        <v>318</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -782,22 +731,15 @@
         <v>-279365.1312256966</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>318</v>
-      </c>
-      <c r="K10" t="n">
-        <v>318</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -824,22 +766,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>318</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -866,22 +799,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>318</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -908,22 +832,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>318</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -948,24 +863,19 @@
         <v>-286440.1312256966</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>318</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="J14" t="n">
+        <v>317</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -990,24 +900,23 @@
         <v>-281427.1312256966</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>318</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="J15" t="n">
+        <v>317</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1032,24 +941,23 @@
         <v>-281644.8958256966</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>318</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>319</v>
+      </c>
+      <c r="J16" t="n">
+        <v>317</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1074,24 +982,19 @@
         <v>-281644.8958256966</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>318</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>318</v>
+      </c>
+      <c r="J17" t="n">
+        <v>318</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1116,26 +1019,23 @@
         <v>-281635.8958256966</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="J18" t="n">
         <v>318</v>
       </c>
-      <c r="K18" t="n">
-        <v>318</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1160,26 +1060,23 @@
         <v>-281635.8958256966</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="J19" t="n">
-        <v>320</v>
-      </c>
-      <c r="K19" t="n">
-        <v>318</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>318</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1204,26 +1101,23 @@
         <v>-268597.3219256966</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="J20" t="n">
-        <v>320</v>
-      </c>
-      <c r="K20" t="n">
-        <v>318</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>318</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1248,26 +1142,23 @@
         <v>-268597.3219256966</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="J21" t="n">
-        <v>321</v>
-      </c>
-      <c r="K21" t="n">
-        <v>318</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>318</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1292,26 +1183,21 @@
         <v>-268597.3219256966</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>321</v>
-      </c>
-      <c r="K22" t="n">
-        <v>318</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>318</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1336,24 +1222,23 @@
         <v>-244549.6531256966</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>318</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>321</v>
+      </c>
+      <c r="J23" t="n">
+        <v>318</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1378,24 +1263,23 @@
         <v>-241742.6531256966</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>318</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>322</v>
+      </c>
+      <c r="J24" t="n">
+        <v>318</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1422,22 +1306,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>318</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>318</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1464,22 +1345,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>318</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>318</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1506,22 +1384,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>318</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>318</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1548,22 +1423,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>318</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>318</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1590,22 +1462,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>318</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>318</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1632,22 +1501,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>318</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>318</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1672,24 +1538,23 @@
         <v>-242041.7025256967</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>318</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>324</v>
+      </c>
+      <c r="J31" t="n">
+        <v>318</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1716,22 +1581,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>318</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>318</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1758,22 +1620,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>318</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>318</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1800,22 +1659,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>318</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>318</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1842,22 +1698,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>318</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>318</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1884,22 +1737,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>318</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>318</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1926,22 +1776,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>318</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>318</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1966,24 +1813,23 @@
         <v>-247281.8095256966</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>318</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>320</v>
+      </c>
+      <c r="J38" t="n">
+        <v>318</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2008,24 +1854,23 @@
         <v>-247573.8095256966</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>318</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>322</v>
+      </c>
+      <c r="J39" t="n">
+        <v>318</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2050,24 +1895,23 @@
         <v>-247573.8095256966</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>318</v>
-      </c>
-      <c r="L40" t="inlineStr">
+        <v>320</v>
+      </c>
+      <c r="J40" t="n">
+        <v>318</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2092,24 +1936,23 @@
         <v>-247573.8095256966</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>318</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>320</v>
+      </c>
+      <c r="J41" t="n">
+        <v>318</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2134,24 +1977,23 @@
         <v>-247189.2934256966</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>318</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>320</v>
+      </c>
+      <c r="J42" t="n">
+        <v>318</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2176,24 +2018,23 @@
         <v>-247189.2934256966</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>318</v>
-      </c>
-      <c r="L43" t="inlineStr">
+        <v>321</v>
+      </c>
+      <c r="J43" t="n">
+        <v>318</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2218,24 +2059,23 @@
         <v>-247221.2934256966</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>318</v>
-      </c>
-      <c r="L44" t="inlineStr">
+        <v>321</v>
+      </c>
+      <c r="J44" t="n">
+        <v>318</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2260,24 +2100,23 @@
         <v>-247221.2934256966</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>318</v>
-      </c>
-      <c r="L45" t="inlineStr">
+        <v>320</v>
+      </c>
+      <c r="J45" t="n">
+        <v>318</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2302,24 +2141,23 @@
         <v>-246737.3928256966</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>318</v>
-      </c>
-      <c r="L46" t="inlineStr">
+        <v>320</v>
+      </c>
+      <c r="J46" t="n">
+        <v>318</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2346,22 +2184,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>318</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>318</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2388,22 +2223,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>318</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>318</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2430,22 +2262,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>318</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>318</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2472,22 +2301,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>318</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>318</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2514,22 +2340,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>318</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>318</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2556,22 +2379,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>318</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>318</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2598,22 +2418,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>318</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>318</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2640,22 +2457,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>318</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>318</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2682,22 +2496,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>318</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>318</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2724,22 +2535,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>318</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>318</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2766,22 +2574,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>318</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>318</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2808,22 +2613,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>318</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>318</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2850,22 +2652,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>318</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>318</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2892,22 +2691,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>318</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>318</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2934,22 +2730,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>318</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>318</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2976,22 +2769,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>318</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>318</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3018,22 +2808,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>318</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>318</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3060,22 +2847,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>318</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>318</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3102,22 +2886,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>318</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>318</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3144,22 +2925,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>318</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>318</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3186,22 +2964,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>318</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>318</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3228,22 +3003,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>318</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>318</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3270,22 +3042,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>318</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>318</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3312,22 +3081,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>318</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>318</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3354,22 +3120,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>318</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>318</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3396,22 +3159,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>318</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>318</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3438,22 +3198,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>318</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>318</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3480,22 +3237,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>318</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>318</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3522,22 +3276,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>318</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>318</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3564,22 +3315,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>318</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>318</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3606,22 +3354,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>318</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>318</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3648,22 +3393,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>318</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>318</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3690,22 +3432,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>318</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>318</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3732,22 +3471,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>318</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>318</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3774,22 +3510,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>318</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>318</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3814,24 +3547,21 @@
         <v>-229015.5037256967</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>318</v>
-      </c>
-      <c r="L82" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>318</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3858,22 +3588,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>318</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>318</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3900,22 +3627,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>318</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>318</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3942,22 +3666,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>318</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>318</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3984,22 +3705,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>318</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>318</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4026,22 +3744,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>318</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>318</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4068,22 +3783,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>318</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>318</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4110,22 +3822,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>318</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>318</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4152,22 +3861,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>318</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>318</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4194,22 +3900,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>318</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>318</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4236,22 +3939,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>318</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>318</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4278,22 +3978,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>318</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>318</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4320,22 +4017,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>318</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>318</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4362,22 +4056,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>318</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>318</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4404,22 +4095,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>318</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>318</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4446,22 +4134,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>318</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>318</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4488,22 +4173,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>318</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>318</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4530,22 +4212,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>318</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>318</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4572,22 +4251,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>318</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>318</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4614,22 +4290,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>318</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>318</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4656,22 +4329,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>318</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>318</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4698,22 +4368,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>318</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>318</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4740,22 +4407,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>318</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>318</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4782,22 +4446,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>318</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>318</v>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4824,22 +4485,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>318</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>318</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4866,22 +4524,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>318</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>318</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4906,24 +4561,21 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>318</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>318</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.039025157232704</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4948,24 +4600,15 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>318</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4990,24 +4633,15 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>318</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5032,24 +4666,15 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>318</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5074,24 +4699,15 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>318</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5116,24 +4732,15 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>318</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5158,24 +4765,15 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>318</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5200,24 +4798,15 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>318</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5242,24 +4831,15 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>318</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5284,24 +4864,15 @@
         <v>-227879.9450256967</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>318</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5326,24 +4897,15 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>318</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5368,24 +4930,15 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>318</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5410,24 +4963,15 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>318</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5452,24 +4996,15 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>318</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5494,24 +5029,15 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>318</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5536,24 +5062,15 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>318</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5578,24 +5095,15 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>318</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5620,24 +5128,15 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>318</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5662,24 +5161,15 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>318</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5704,24 +5194,15 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>318</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5746,24 +5227,15 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>318</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5788,24 +5260,15 @@
         <v>-219069.1886256967</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>318</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5830,24 +5293,15 @@
         <v>-219069.1886256967</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>318</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5872,24 +5326,15 @@
         <v>-219070.6073256967</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>318</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5914,24 +5359,15 @@
         <v>-219070.6073256967</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>318</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5956,24 +5392,15 @@
         <v>-216974.2585256967</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>318</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5998,24 +5425,15 @@
         <v>-216974.2585256967</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>318</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6040,24 +5458,15 @@
         <v>-218696.1774256967</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>318</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6082,24 +5491,15 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>318</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6124,24 +5524,15 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>318</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6166,24 +5557,15 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>318</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6208,24 +5590,15 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>318</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6250,24 +5623,15 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>318</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6292,24 +5656,15 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>318</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6334,24 +5689,15 @@
         <v>-213821.4419256967</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>318</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6376,24 +5722,15 @@
         <v>-214821.4419256967</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>318</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6420,22 +5757,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>318</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6460,24 +5788,15 @@
         <v>-214766.6545256967</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>318</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6502,24 +5821,15 @@
         <v>-191009.0413256967</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>318</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6544,24 +5854,15 @@
         <v>-192453.4205256967</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>318</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6586,24 +5887,15 @@
         <v>-192453.4205256967</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>318</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6628,24 +5920,15 @@
         <v>-192453.4205256967</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>318</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6670,24 +5953,15 @@
         <v>-192453.4205256967</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>318</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6712,24 +5986,15 @@
         <v>-192453.4205256967</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>318</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6754,24 +6019,15 @@
         <v>-189029.0585256967</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>318</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6796,24 +6052,15 @@
         <v>-188211.9458256967</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>318</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6838,24 +6085,15 @@
         <v>-188211.9458256967</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>318</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6880,24 +6118,15 @@
         <v>-188211.9458256967</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>318</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6922,24 +6151,15 @@
         <v>-188331.9458256967</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>318</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6964,24 +6184,15 @@
         <v>-188331.9458256967</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>318</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7006,24 +6217,15 @@
         <v>-188331.9458256967</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>318</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7048,24 +6250,15 @@
         <v>-192626.1356256967</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>318</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7090,24 +6283,15 @@
         <v>-192626.1356256967</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>318</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7134,22 +6318,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>318</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7176,22 +6351,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>318</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7218,22 +6384,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>318</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7260,22 +6417,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>318</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7302,22 +6450,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>318</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7344,22 +6483,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>318</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7386,22 +6516,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>318</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7428,22 +6549,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>318</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7470,22 +6582,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>318</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7512,22 +6615,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>318</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7554,22 +6648,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>318</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7596,22 +6681,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>318</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7638,22 +6714,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>318</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7680,22 +6747,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>318</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7722,22 +6780,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>318</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7764,22 +6813,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>318</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7806,22 +6846,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>318</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7848,22 +6879,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>318</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7890,22 +6912,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>318</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7932,22 +6945,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>318</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7974,22 +6978,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>318</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8016,22 +7011,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>318</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8058,22 +7044,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>318</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8100,22 +7077,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>318</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8142,22 +7110,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>318</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8184,22 +7143,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>318</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8226,22 +7176,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>318</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8268,22 +7209,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>318</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8310,22 +7242,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>318</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8352,22 +7275,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>318</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8394,22 +7308,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>318</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8436,22 +7341,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>318</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8478,22 +7374,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>318</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8520,22 +7407,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>318</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8560,24 +7438,15 @@
         <v>-216260.2748256967</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>318</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8602,24 +7471,15 @@
         <v>-216260.2748256967</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>318</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8644,24 +7504,15 @@
         <v>-216260.2748256967</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>318</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8686,24 +7537,15 @@
         <v>-216260.2748256967</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>318</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8728,24 +7570,15 @@
         <v>-216123.1067256966</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>318</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8772,22 +7605,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>318</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8812,24 +7636,15 @@
         <v>-213196.1292256966</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>318</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8854,24 +7669,15 @@
         <v>-210736.8159256966</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>318</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8896,24 +7702,15 @@
         <v>-210736.8159256966</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>318</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8938,24 +7735,15 @@
         <v>-199974.1835256966</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>318</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8980,24 +7768,15 @@
         <v>-200974.1835256966</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>318</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -9022,24 +7801,15 @@
         <v>-200942.8708256966</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>318</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -9064,24 +7834,15 @@
         <v>-200942.8708256966</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>318</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -9106,24 +7867,15 @@
         <v>-200942.8708256966</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>318</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9150,22 +7902,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>318</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9190,24 +7933,15 @@
         <v>-195663.9010256966</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>318</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9234,22 +7968,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>318</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9276,22 +8001,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>318</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9318,24 +8034,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>318</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1.061037735849057</v>
-      </c>
-      <c r="N213" t="n">
-        <v>1</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9362,16 +8067,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9398,16 +8100,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9432,18 +8131,15 @@
         <v>-160125.3369256966</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9468,18 +8164,15 @@
         <v>-160125.3369256966</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9504,18 +8197,15 @@
         <v>-165231.0178256966</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9540,18 +8230,15 @@
         <v>-165231.0178256966</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9576,18 +8263,15 @@
         <v>-165231.0178256966</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9612,18 +8296,15 @@
         <v>-165231.0178256966</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9648,18 +8329,15 @@
         <v>-165251.8698256967</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9684,18 +8362,15 @@
         <v>-167743.0805256967</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9720,18 +8395,15 @@
         <v>-167743.0805256967</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9756,18 +8428,15 @@
         <v>-167743.0805256967</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9792,18 +8461,15 @@
         <v>-167743.0805256967</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9830,16 +8496,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9866,16 +8529,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9902,16 +8562,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9936,18 +8593,15 @@
         <v>-167717.6329256966</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9974,16 +8628,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -10010,16 +8661,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -10046,16 +8694,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -10080,18 +8725,15 @@
         <v>-129156.9942085952</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -10116,18 +8758,15 @@
         <v>-129156.9942085952</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -10152,18 +8791,15 @@
         <v>-129156.9942085952</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -10188,18 +8824,15 @@
         <v>-122951.1849600403</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10224,18 +8857,15 @@
         <v>-122951.1849600403</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10262,16 +8892,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10296,18 +8923,15 @@
         <v>-153660.6789600403</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10334,16 +8958,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10368,18 +8989,15 @@
         <v>-153010.3195600403</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10406,16 +9024,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10440,18 +9055,15 @@
         <v>-158067.5775600403</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10478,16 +9090,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>1</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10514,16 +9123,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>1</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10550,16 +9156,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10586,18 +9189,15 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-01 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>-279365.1312256966</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>318</v>
-      </c>
-      <c r="J3" t="n">
-        <v>318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>318</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>318</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -698,10 +682,14 @@
         <v>-279365.1312256966</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>318</v>
+      </c>
+      <c r="J9" t="n">
+        <v>318</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -731,11 +719,19 @@
         <v>-279365.1312256966</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>318</v>
+      </c>
+      <c r="J10" t="n">
+        <v>318</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -764,11 +760,19 @@
         <v>-286440.1312256966</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>318</v>
+      </c>
+      <c r="J11" t="n">
+        <v>318</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -797,11 +801,19 @@
         <v>-286440.1312256966</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>317</v>
+      </c>
+      <c r="J12" t="n">
+        <v>318</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -830,11 +842,19 @@
         <v>-286440.1312256966</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>317</v>
+      </c>
+      <c r="J13" t="n">
+        <v>318</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -863,15 +883,19 @@
         <v>-286440.1312256966</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>317</v>
       </c>
       <c r="J14" t="n">
-        <v>317</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>318</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -900,17 +924,17 @@
         <v>-281427.1312256966</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>317</v>
       </c>
       <c r="J15" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -941,17 +965,17 @@
         <v>-281644.8958256966</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>319</v>
       </c>
       <c r="J16" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -982,7 +1006,7 @@
         <v>-281644.8958256966</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>318</v>
@@ -990,7 +1014,11 @@
       <c r="J17" t="n">
         <v>318</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1019,7 +1047,7 @@
         <v>-281635.8958256966</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>318</v>
@@ -1029,7 +1057,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1060,7 +1088,7 @@
         <v>-281635.8958256966</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>320</v>
@@ -1070,7 +1098,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1101,7 +1129,7 @@
         <v>-268597.3219256966</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>320</v>
@@ -1111,7 +1139,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1142,7 +1170,7 @@
         <v>-268597.3219256966</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>321</v>
@@ -1222,11 +1250,9 @@
         <v>-244549.6531256966</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>321</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>318</v>
       </c>
@@ -1263,11 +1289,9 @@
         <v>-241742.6531256966</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>318</v>
       </c>
@@ -1538,11 +1562,9 @@
         <v>-242041.7025256967</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>324</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>318</v>
       </c>
@@ -1813,7 +1835,7 @@
         <v>-247281.8095256966</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>320</v>
@@ -1854,7 +1876,7 @@
         <v>-247573.8095256966</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>322</v>
@@ -1895,7 +1917,7 @@
         <v>-247573.8095256966</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>320</v>
@@ -1936,7 +1958,7 @@
         <v>-247573.8095256966</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>320</v>
@@ -1977,7 +1999,7 @@
         <v>-247189.2934256966</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>320</v>
@@ -2018,7 +2040,7 @@
         <v>-247189.2934256966</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>321</v>
@@ -2059,7 +2081,7 @@
         <v>-247221.2934256966</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>321</v>
@@ -2100,7 +2122,7 @@
         <v>-247221.2934256966</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>320</v>
@@ -2141,7 +2163,7 @@
         <v>-246737.3928256966</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>320</v>
@@ -2221,9 +2243,11 @@
         <v>-246963.9595256966</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>320</v>
+      </c>
       <c r="J48" t="n">
         <v>318</v>
       </c>
@@ -2455,9 +2479,11 @@
         <v>-247461.3837256967</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>321</v>
+      </c>
       <c r="J54" t="n">
         <v>318</v>
       </c>
@@ -2494,9 +2520,11 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>320</v>
+      </c>
       <c r="J55" t="n">
         <v>318</v>
       </c>
@@ -2533,9 +2561,11 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>323</v>
+      </c>
       <c r="J56" t="n">
         <v>318</v>
       </c>
@@ -2572,9 +2602,11 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>323</v>
+      </c>
       <c r="J57" t="n">
         <v>318</v>
       </c>
@@ -2611,9 +2643,11 @@
         <v>-247204.7608256967</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>323</v>
+      </c>
       <c r="J58" t="n">
         <v>318</v>
       </c>
@@ -2650,9 +2684,11 @@
         <v>-247202.7151256967</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>322</v>
+      </c>
       <c r="J59" t="n">
         <v>318</v>
       </c>
@@ -2689,9 +2725,11 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>323</v>
+      </c>
       <c r="J60" t="n">
         <v>318</v>
       </c>
@@ -2728,9 +2766,11 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>324</v>
+      </c>
       <c r="J61" t="n">
         <v>318</v>
       </c>
@@ -2767,9 +2807,11 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>324</v>
+      </c>
       <c r="J62" t="n">
         <v>318</v>
       </c>
@@ -3547,7 +3589,7 @@
         <v>-229015.5037256967</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
@@ -4561,7 +4603,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
@@ -4569,11 +4611,11 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.039025157232704</v>
+        <v>1</v>
       </c>
       <c r="M108" t="inlineStr"/>
     </row>
@@ -4600,11 +4642,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>318</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4633,11 +4681,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>318</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4666,11 +4720,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>318</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4699,11 +4759,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>318</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4732,11 +4798,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>318</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4765,11 +4837,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>318</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4798,11 +4876,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>318</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4831,11 +4915,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>318</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4864,11 +4954,17 @@
         <v>-227879.9450256967</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>318</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4897,11 +4993,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>318</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4930,11 +5032,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>318</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4963,11 +5071,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>318</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4996,11 +5110,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>318</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5029,11 +5149,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>318</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5062,11 +5188,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>318</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5095,11 +5227,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>318</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5128,11 +5266,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>318</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5161,11 +5305,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>318</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5194,11 +5344,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>318</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5227,11 +5383,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>318</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5260,11 +5422,17 @@
         <v>-219069.1886256967</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>318</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5293,11 +5461,17 @@
         <v>-219069.1886256967</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>318</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5326,11 +5500,17 @@
         <v>-219070.6073256967</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>318</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5359,11 +5539,17 @@
         <v>-219070.6073256967</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>318</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5392,11 +5578,17 @@
         <v>-216974.2585256967</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>318</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5425,11 +5617,17 @@
         <v>-216974.2585256967</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>318</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5458,11 +5656,17 @@
         <v>-218696.1774256967</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>318</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5491,11 +5695,17 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>318</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5524,11 +5734,17 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>318</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5557,11 +5773,17 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>318</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5590,11 +5812,17 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>318</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5623,11 +5851,17 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>318</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5656,11 +5890,17 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>318</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5689,11 +5929,17 @@
         <v>-213821.4419256967</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>318</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5722,11 +5968,17 @@
         <v>-214821.4419256967</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>318</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5758,8 +6010,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>318</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5788,11 +6046,17 @@
         <v>-214766.6545256967</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>318</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5821,11 +6085,17 @@
         <v>-191009.0413256967</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>318</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5854,11 +6124,17 @@
         <v>-192453.4205256967</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>318</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5887,11 +6163,17 @@
         <v>-192453.4205256967</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>318</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5920,11 +6202,17 @@
         <v>-192453.4205256967</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>318</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5953,11 +6241,17 @@
         <v>-192453.4205256967</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>318</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +6280,17 @@
         <v>-192453.4205256967</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>318</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6019,11 +6319,17 @@
         <v>-189029.0585256967</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>318</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6052,11 +6358,17 @@
         <v>-188211.9458256967</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>318</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6085,11 +6397,17 @@
         <v>-188211.9458256967</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>318</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6118,11 +6436,17 @@
         <v>-188211.9458256967</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>318</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6151,11 +6475,17 @@
         <v>-188331.9458256967</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>318</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6184,11 +6514,17 @@
         <v>-188331.9458256967</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>318</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +6553,17 @@
         <v>-188331.9458256967</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>318</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6250,11 +6592,17 @@
         <v>-192626.1356256967</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>318</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6283,11 +6631,17 @@
         <v>-192626.1356256967</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>318</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6319,8 +6673,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>318</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6352,8 +6712,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>318</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6385,8 +6751,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>318</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6418,8 +6790,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>318</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6451,8 +6829,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>318</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6484,8 +6868,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>318</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6517,8 +6907,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>318</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6550,8 +6946,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>318</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6583,8 +6985,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>318</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6616,8 +7024,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>318</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6649,8 +7063,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>318</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6682,8 +7102,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>318</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6715,8 +7141,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>318</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6748,8 +7180,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>318</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6781,8 +7219,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>318</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6814,8 +7258,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>318</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6847,8 +7297,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>318</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6880,8 +7336,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>318</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6913,8 +7375,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>318</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6946,8 +7414,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>318</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6979,8 +7453,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>318</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7012,8 +7492,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>318</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7045,8 +7531,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>318</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7078,8 +7570,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>318</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7111,8 +7609,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>318</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7144,8 +7648,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>318</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7177,8 +7687,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>318</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7210,8 +7726,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>318</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7243,8 +7765,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>318</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7276,8 +7804,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>318</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7309,8 +7843,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>318</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7342,8 +7882,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>318</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7375,8 +7921,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>318</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7408,8 +7960,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>318</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7438,11 +7996,17 @@
         <v>-216260.2748256967</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>318</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7471,11 +8035,17 @@
         <v>-216260.2748256967</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>318</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7504,11 +8074,17 @@
         <v>-216260.2748256967</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>318</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7537,11 +8113,17 @@
         <v>-216260.2748256967</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>318</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7570,11 +8152,17 @@
         <v>-216123.1067256966</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>318</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7606,8 +8194,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>318</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7636,11 +8230,17 @@
         <v>-213196.1292256966</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>318</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7669,11 +8269,17 @@
         <v>-210736.8159256966</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>318</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7702,11 +8308,17 @@
         <v>-210736.8159256966</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>318</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7735,11 +8347,17 @@
         <v>-199974.1835256966</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>318</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7768,11 +8386,17 @@
         <v>-200974.1835256966</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>318</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7801,11 +8425,17 @@
         <v>-200942.8708256966</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>318</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7834,11 +8464,17 @@
         <v>-200942.8708256966</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>318</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7867,11 +8503,17 @@
         <v>-200942.8708256966</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>318</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7903,8 +8545,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>318</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7933,11 +8581,17 @@
         <v>-195663.9010256966</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>318</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7969,8 +8623,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>318</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8002,8 +8662,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>318</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8035,8 +8701,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>318</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8068,8 +8740,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>318</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8101,8 +8779,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>318</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8131,11 +8815,17 @@
         <v>-160125.3369256966</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>318</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8164,11 +8854,17 @@
         <v>-160125.3369256966</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>318</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8197,11 +8893,17 @@
         <v>-165231.0178256966</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>318</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8230,11 +8932,17 @@
         <v>-165231.0178256966</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>318</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8263,11 +8971,17 @@
         <v>-165231.0178256966</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>318</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8296,11 +9010,17 @@
         <v>-165231.0178256966</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>318</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8329,11 +9049,17 @@
         <v>-165251.8698256967</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>318</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8362,11 +9088,17 @@
         <v>-167743.0805256967</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>318</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8395,11 +9127,17 @@
         <v>-167743.0805256967</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>318</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8428,11 +9166,17 @@
         <v>-167743.0805256967</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>318</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8461,11 +9205,17 @@
         <v>-167743.0805256967</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>318</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8497,8 +9247,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>318</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8530,8 +9286,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>318</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8563,8 +9325,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>318</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8593,11 +9361,17 @@
         <v>-167717.6329256966</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>318</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8629,8 +9403,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>318</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8662,8 +9442,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>318</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8695,8 +9481,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>318</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8725,11 +9517,17 @@
         <v>-129156.9942085952</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>318</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8758,11 +9556,17 @@
         <v>-129156.9942085952</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>318</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8791,11 +9595,17 @@
         <v>-129156.9942085952</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>318</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8824,11 +9634,17 @@
         <v>-122951.1849600403</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>318</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8857,11 +9673,17 @@
         <v>-122951.1849600403</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>318</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8890,15 +9712,23 @@
         <v>-153660.6789600403</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>318</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>1.079905660377359</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8923,7 +9753,7 @@
         <v>-153660.6789600403</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8956,7 +9786,7 @@
         <v>-154642.7411600403</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8989,7 +9819,7 @@
         <v>-153010.3195600403</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9022,7 +9852,7 @@
         <v>-158067.5775600403</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9055,7 +9885,7 @@
         <v>-158067.5775600403</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9088,7 +9918,7 @@
         <v>-154535.5862600403</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9121,7 +9951,7 @@
         <v>-154535.5862600403</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9154,7 +9984,7 @@
         <v>-153202.1279600403</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9187,7 +10017,7 @@
         <v>-153897.3693600403</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9198,6 +10028,6 @@
       <c r="M248" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-01 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,14 +682,10 @@
         <v>-279365.1312256966</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>318</v>
-      </c>
-      <c r="J9" t="n">
-        <v>318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -719,1299 +715,1107 @@
         <v>-279365.1312256966</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>318</v>
       </c>
-      <c r="J10" t="n">
+      <c r="C11" t="n">
+        <v>317</v>
+      </c>
+      <c r="D11" t="n">
         <v>318</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="E11" t="n">
+        <v>317</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7075</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-286440.1312256966</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>317</v>
+      </c>
+      <c r="C12" t="n">
+        <v>317</v>
+      </c>
+      <c r="D12" t="n">
+        <v>317</v>
+      </c>
+      <c r="E12" t="n">
+        <v>317</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1645.7199</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-286440.1312256966</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>317</v>
+      </c>
+      <c r="C13" t="n">
+        <v>317</v>
+      </c>
+      <c r="D13" t="n">
+        <v>317</v>
+      </c>
+      <c r="E13" t="n">
+        <v>317</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9662.0221</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-286440.1312256966</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>317</v>
+      </c>
+      <c r="C14" t="n">
+        <v>317</v>
+      </c>
+      <c r="D14" t="n">
+        <v>317</v>
+      </c>
+      <c r="E14" t="n">
+        <v>317</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4610.4103</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-286440.1312256966</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>319</v>
+      </c>
+      <c r="C15" t="n">
+        <v>319</v>
+      </c>
+      <c r="D15" t="n">
+        <v>319</v>
+      </c>
+      <c r="E15" t="n">
+        <v>319</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5013</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-281427.1312256966</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>318</v>
+      </c>
+      <c r="C16" t="n">
+        <v>318</v>
+      </c>
+      <c r="D16" t="n">
+        <v>318</v>
+      </c>
+      <c r="E16" t="n">
+        <v>318</v>
+      </c>
+      <c r="F16" t="n">
+        <v>217.7646</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-281644.8958256966</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>318</v>
+      </c>
+      <c r="C17" t="n">
+        <v>318</v>
+      </c>
+      <c r="D17" t="n">
+        <v>318</v>
+      </c>
+      <c r="E17" t="n">
+        <v>318</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2566.2672</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-281644.8958256966</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>320</v>
+      </c>
+      <c r="C18" t="n">
+        <v>320</v>
+      </c>
+      <c r="D18" t="n">
+        <v>320</v>
+      </c>
+      <c r="E18" t="n">
+        <v>320</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-281635.8958256966</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>320</v>
+      </c>
+      <c r="C19" t="n">
+        <v>320</v>
+      </c>
+      <c r="D19" t="n">
+        <v>320</v>
+      </c>
+      <c r="E19" t="n">
+        <v>320</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2125.3312</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-281635.8958256966</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>320</v>
+      </c>
+      <c r="C20" t="n">
+        <v>321</v>
+      </c>
+      <c r="D20" t="n">
+        <v>321</v>
+      </c>
+      <c r="E20" t="n">
+        <v>320</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13038.5739</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-268597.3219256966</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>321</v>
+      </c>
+      <c r="C21" t="n">
+        <v>321</v>
+      </c>
+      <c r="D21" t="n">
+        <v>321</v>
+      </c>
+      <c r="E21" t="n">
+        <v>321</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1161.249</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-268597.3219256966</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>321</v>
+      </c>
+      <c r="C22" t="n">
+        <v>321</v>
+      </c>
+      <c r="D22" t="n">
+        <v>321</v>
+      </c>
+      <c r="E22" t="n">
+        <v>321</v>
+      </c>
+      <c r="F22" t="n">
+        <v>717.2465999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-268597.3219256966</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>322</v>
+      </c>
+      <c r="C23" t="n">
+        <v>322</v>
+      </c>
+      <c r="D23" t="n">
+        <v>322</v>
+      </c>
+      <c r="E23" t="n">
+        <v>322</v>
+      </c>
+      <c r="F23" t="n">
+        <v>24047.6688</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-244549.6531256966</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>323</v>
+      </c>
+      <c r="C24" t="n">
+        <v>323</v>
+      </c>
+      <c r="D24" t="n">
+        <v>323</v>
+      </c>
+      <c r="E24" t="n">
+        <v>323</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2807</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-241742.6531256966</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>323</v>
+      </c>
+      <c r="C25" t="n">
+        <v>323</v>
+      </c>
+      <c r="D25" t="n">
+        <v>323</v>
+      </c>
+      <c r="E25" t="n">
+        <v>323</v>
+      </c>
+      <c r="F25" t="n">
+        <v>496.6368</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-241742.6531256966</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>324</v>
+      </c>
+      <c r="C26" t="n">
+        <v>324</v>
+      </c>
+      <c r="D26" t="n">
+        <v>325</v>
+      </c>
+      <c r="E26" t="n">
+        <v>324</v>
+      </c>
+      <c r="F26" t="n">
+        <v>697.4369</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-241045.2162256966</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>323</v>
+      </c>
+      <c r="C27" t="n">
+        <v>323</v>
+      </c>
+      <c r="D27" t="n">
+        <v>323</v>
+      </c>
+      <c r="E27" t="n">
+        <v>323</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.9713</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-241053.1875256966</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>325</v>
+      </c>
+      <c r="C28" t="n">
+        <v>325</v>
+      </c>
+      <c r="D28" t="n">
+        <v>325</v>
+      </c>
+      <c r="E28" t="n">
+        <v>325</v>
+      </c>
+      <c r="F28" t="n">
+        <v>198.4049</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-240854.7826256967</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>322</v>
+      </c>
+      <c r="C29" t="n">
+        <v>322</v>
+      </c>
+      <c r="D29" t="n">
+        <v>322</v>
+      </c>
+      <c r="E29" t="n">
+        <v>322</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1209.622</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-242064.4046256967</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>324</v>
+      </c>
+      <c r="C30" t="n">
+        <v>324</v>
+      </c>
+      <c r="D30" t="n">
+        <v>324</v>
+      </c>
+      <c r="E30" t="n">
+        <v>324</v>
+      </c>
+      <c r="F30" t="n">
+        <v>22.7021</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-242041.7025256967</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>323</v>
+      </c>
+      <c r="C31" t="n">
+        <v>324</v>
+      </c>
+      <c r="D31" t="n">
+        <v>324</v>
+      </c>
+      <c r="E31" t="n">
+        <v>323</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1911.0804</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-242041.7025256967</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>323</v>
+      </c>
+      <c r="C32" t="n">
+        <v>322</v>
+      </c>
+      <c r="D32" t="n">
+        <v>323</v>
+      </c>
+      <c r="E32" t="n">
+        <v>322</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2516.0064</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-244557.7089256967</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>322</v>
+      </c>
+      <c r="C33" t="n">
+        <v>322</v>
+      </c>
+      <c r="D33" t="n">
+        <v>322</v>
+      </c>
+      <c r="E33" t="n">
+        <v>322</v>
+      </c>
+      <c r="F33" t="n">
+        <v>615</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-244557.7089256967</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>322</v>
+      </c>
+      <c r="C34" t="n">
+        <v>320</v>
+      </c>
+      <c r="D34" t="n">
+        <v>322</v>
+      </c>
+      <c r="E34" t="n">
+        <v>320</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3756.4195</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-248314.1284256967</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>321</v>
+      </c>
+      <c r="C35" t="n">
+        <v>321</v>
+      </c>
+      <c r="D35" t="n">
+        <v>321</v>
+      </c>
+      <c r="E35" t="n">
+        <v>321</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-248311.1284256967</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>319</v>
+      </c>
+      <c r="C36" t="n">
+        <v>319</v>
+      </c>
+      <c r="D36" t="n">
+        <v>319</v>
+      </c>
+      <c r="E36" t="n">
+        <v>319</v>
+      </c>
+      <c r="F36" t="n">
+        <v>498.4587</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-248809.5871256966</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>320</v>
+      </c>
+      <c r="C37" t="n">
+        <v>320</v>
+      </c>
+      <c r="D37" t="n">
+        <v>320</v>
+      </c>
+      <c r="E37" t="n">
+        <v>320</v>
+      </c>
+      <c r="F37" t="n">
+        <v>473.5357</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-248336.0514256966</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>319</v>
+      </c>
+      <c r="J37" t="n">
+        <v>319</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>320</v>
+      </c>
+      <c r="C38" t="n">
+        <v>322</v>
+      </c>
+      <c r="D38" t="n">
+        <v>322</v>
+      </c>
+      <c r="E38" t="n">
+        <v>320</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1054.2419</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-247281.8095256966</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>320</v>
+      </c>
+      <c r="J38" t="n">
+        <v>319</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>318</v>
-      </c>
-      <c r="C11" t="n">
-        <v>317</v>
-      </c>
-      <c r="D11" t="n">
-        <v>318</v>
-      </c>
-      <c r="E11" t="n">
-        <v>317</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7075</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-286440.1312256966</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>318</v>
-      </c>
-      <c r="J11" t="n">
-        <v>318</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>320</v>
+      </c>
+      <c r="C39" t="n">
+        <v>320</v>
+      </c>
+      <c r="D39" t="n">
+        <v>320</v>
+      </c>
+      <c r="E39" t="n">
+        <v>320</v>
+      </c>
+      <c r="F39" t="n">
+        <v>292</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-247573.8095256966</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>322</v>
+      </c>
+      <c r="J39" t="n">
+        <v>319</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>320</v>
+      </c>
+      <c r="C40" t="n">
+        <v>320</v>
+      </c>
+      <c r="D40" t="n">
+        <v>320</v>
+      </c>
+      <c r="E40" t="n">
+        <v>320</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5.8217</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-247573.8095256966</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>320</v>
+      </c>
+      <c r="J40" t="n">
+        <v>320</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>320</v>
+      </c>
+      <c r="C41" t="n">
+        <v>320</v>
+      </c>
+      <c r="D41" t="n">
+        <v>320</v>
+      </c>
+      <c r="E41" t="n">
+        <v>320</v>
+      </c>
+      <c r="F41" t="n">
+        <v>192</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-247573.8095256966</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>320</v>
+      </c>
+      <c r="J41" t="n">
+        <v>320</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>320</v>
+      </c>
+      <c r="C42" t="n">
+        <v>321</v>
+      </c>
+      <c r="D42" t="n">
+        <v>321</v>
+      </c>
+      <c r="E42" t="n">
+        <v>320</v>
+      </c>
+      <c r="F42" t="n">
+        <v>384.5161</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-247189.2934256966</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>320</v>
+      </c>
+      <c r="J42" t="n">
+        <v>320</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>317</v>
-      </c>
-      <c r="C12" t="n">
-        <v>317</v>
-      </c>
-      <c r="D12" t="n">
-        <v>317</v>
-      </c>
-      <c r="E12" t="n">
-        <v>317</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1645.7199</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-286440.1312256966</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>317</v>
-      </c>
-      <c r="J12" t="n">
-        <v>318</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>317</v>
-      </c>
-      <c r="C13" t="n">
-        <v>317</v>
-      </c>
-      <c r="D13" t="n">
-        <v>317</v>
-      </c>
-      <c r="E13" t="n">
-        <v>317</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9662.0221</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-286440.1312256966</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>317</v>
-      </c>
-      <c r="J13" t="n">
-        <v>318</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>317</v>
-      </c>
-      <c r="C14" t="n">
-        <v>317</v>
-      </c>
-      <c r="D14" t="n">
-        <v>317</v>
-      </c>
-      <c r="E14" t="n">
-        <v>317</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4610.4103</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-286440.1312256966</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>317</v>
-      </c>
-      <c r="J14" t="n">
-        <v>318</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>319</v>
-      </c>
-      <c r="C15" t="n">
-        <v>319</v>
-      </c>
-      <c r="D15" t="n">
-        <v>319</v>
-      </c>
-      <c r="E15" t="n">
-        <v>319</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5013</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-281427.1312256966</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>317</v>
-      </c>
-      <c r="J15" t="n">
-        <v>318</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>318</v>
-      </c>
-      <c r="C16" t="n">
-        <v>318</v>
-      </c>
-      <c r="D16" t="n">
-        <v>318</v>
-      </c>
-      <c r="E16" t="n">
-        <v>318</v>
-      </c>
-      <c r="F16" t="n">
-        <v>217.7646</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-281644.8958256966</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>319</v>
-      </c>
-      <c r="J16" t="n">
-        <v>318</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>318</v>
-      </c>
-      <c r="C17" t="n">
-        <v>318</v>
-      </c>
-      <c r="D17" t="n">
-        <v>318</v>
-      </c>
-      <c r="E17" t="n">
-        <v>318</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2566.2672</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-281644.8958256966</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>318</v>
-      </c>
-      <c r="J17" t="n">
-        <v>318</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>320</v>
-      </c>
-      <c r="C18" t="n">
-        <v>320</v>
-      </c>
-      <c r="D18" t="n">
-        <v>320</v>
-      </c>
-      <c r="E18" t="n">
-        <v>320</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-281635.8958256966</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>318</v>
-      </c>
-      <c r="J18" t="n">
-        <v>318</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>320</v>
-      </c>
-      <c r="C19" t="n">
-        <v>320</v>
-      </c>
-      <c r="D19" t="n">
-        <v>320</v>
-      </c>
-      <c r="E19" t="n">
-        <v>320</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2125.3312</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-281635.8958256966</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>320</v>
-      </c>
-      <c r="J19" t="n">
-        <v>318</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>320</v>
-      </c>
-      <c r="C20" t="n">
-        <v>321</v>
-      </c>
-      <c r="D20" t="n">
-        <v>321</v>
-      </c>
-      <c r="E20" t="n">
-        <v>320</v>
-      </c>
-      <c r="F20" t="n">
-        <v>13038.5739</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-268597.3219256966</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>320</v>
-      </c>
-      <c r="J20" t="n">
-        <v>318</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>321</v>
-      </c>
-      <c r="C21" t="n">
-        <v>321</v>
-      </c>
-      <c r="D21" t="n">
-        <v>321</v>
-      </c>
-      <c r="E21" t="n">
-        <v>321</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1161.249</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-268597.3219256966</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>321</v>
-      </c>
-      <c r="J21" t="n">
-        <v>318</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>321</v>
-      </c>
-      <c r="C22" t="n">
-        <v>321</v>
-      </c>
-      <c r="D22" t="n">
-        <v>321</v>
-      </c>
-      <c r="E22" t="n">
-        <v>321</v>
-      </c>
-      <c r="F22" t="n">
-        <v>717.2465999999999</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-268597.3219256966</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>318</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>322</v>
-      </c>
-      <c r="C23" t="n">
-        <v>322</v>
-      </c>
-      <c r="D23" t="n">
-        <v>322</v>
-      </c>
-      <c r="E23" t="n">
-        <v>322</v>
-      </c>
-      <c r="F23" t="n">
-        <v>24047.6688</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-244549.6531256966</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>318</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>323</v>
-      </c>
-      <c r="C24" t="n">
-        <v>323</v>
-      </c>
-      <c r="D24" t="n">
-        <v>323</v>
-      </c>
-      <c r="E24" t="n">
-        <v>323</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2807</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-241742.6531256966</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>318</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>323</v>
-      </c>
-      <c r="C25" t="n">
-        <v>323</v>
-      </c>
-      <c r="D25" t="n">
-        <v>323</v>
-      </c>
-      <c r="E25" t="n">
-        <v>323</v>
-      </c>
-      <c r="F25" t="n">
-        <v>496.6368</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-241742.6531256966</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>318</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>324</v>
-      </c>
-      <c r="C26" t="n">
-        <v>324</v>
-      </c>
-      <c r="D26" t="n">
-        <v>325</v>
-      </c>
-      <c r="E26" t="n">
-        <v>324</v>
-      </c>
-      <c r="F26" t="n">
-        <v>697.4369</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-241045.2162256966</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>318</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>323</v>
-      </c>
-      <c r="C27" t="n">
-        <v>323</v>
-      </c>
-      <c r="D27" t="n">
-        <v>323</v>
-      </c>
-      <c r="E27" t="n">
-        <v>323</v>
-      </c>
-      <c r="F27" t="n">
-        <v>7.9713</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-241053.1875256966</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>318</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>325</v>
-      </c>
-      <c r="C28" t="n">
-        <v>325</v>
-      </c>
-      <c r="D28" t="n">
-        <v>325</v>
-      </c>
-      <c r="E28" t="n">
-        <v>325</v>
-      </c>
-      <c r="F28" t="n">
-        <v>198.4049</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-240854.7826256967</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>318</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>322</v>
-      </c>
-      <c r="C29" t="n">
-        <v>322</v>
-      </c>
-      <c r="D29" t="n">
-        <v>322</v>
-      </c>
-      <c r="E29" t="n">
-        <v>322</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1209.622</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-242064.4046256967</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>318</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>324</v>
-      </c>
-      <c r="C30" t="n">
-        <v>324</v>
-      </c>
-      <c r="D30" t="n">
-        <v>324</v>
-      </c>
-      <c r="E30" t="n">
-        <v>324</v>
-      </c>
-      <c r="F30" t="n">
-        <v>22.7021</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-242041.7025256967</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>318</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>323</v>
-      </c>
-      <c r="C31" t="n">
-        <v>324</v>
-      </c>
-      <c r="D31" t="n">
-        <v>324</v>
-      </c>
-      <c r="E31" t="n">
-        <v>323</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1911.0804</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-242041.7025256967</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>318</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>323</v>
-      </c>
-      <c r="C32" t="n">
-        <v>322</v>
-      </c>
-      <c r="D32" t="n">
-        <v>323</v>
-      </c>
-      <c r="E32" t="n">
-        <v>322</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2516.0064</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-244557.7089256967</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>318</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>322</v>
-      </c>
-      <c r="C33" t="n">
-        <v>322</v>
-      </c>
-      <c r="D33" t="n">
-        <v>322</v>
-      </c>
-      <c r="E33" t="n">
-        <v>322</v>
-      </c>
-      <c r="F33" t="n">
-        <v>615</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-244557.7089256967</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>318</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>322</v>
-      </c>
-      <c r="C34" t="n">
-        <v>320</v>
-      </c>
-      <c r="D34" t="n">
-        <v>322</v>
-      </c>
-      <c r="E34" t="n">
-        <v>320</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3756.4195</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-248314.1284256967</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>318</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>321</v>
-      </c>
-      <c r="C35" t="n">
-        <v>321</v>
-      </c>
-      <c r="D35" t="n">
-        <v>321</v>
-      </c>
-      <c r="E35" t="n">
-        <v>321</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-248311.1284256967</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>318</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>319</v>
-      </c>
-      <c r="C36" t="n">
-        <v>319</v>
-      </c>
-      <c r="D36" t="n">
-        <v>319</v>
-      </c>
-      <c r="E36" t="n">
-        <v>319</v>
-      </c>
-      <c r="F36" t="n">
-        <v>498.4587</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-248809.5871256966</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>318</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>320</v>
-      </c>
-      <c r="C37" t="n">
-        <v>320</v>
-      </c>
-      <c r="D37" t="n">
-        <v>320</v>
-      </c>
-      <c r="E37" t="n">
-        <v>320</v>
-      </c>
-      <c r="F37" t="n">
-        <v>473.5357</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-248336.0514256966</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>318</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>320</v>
-      </c>
-      <c r="C38" t="n">
-        <v>322</v>
-      </c>
-      <c r="D38" t="n">
-        <v>322</v>
-      </c>
-      <c r="E38" t="n">
-        <v>320</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1054.2419</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-247281.8095256966</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>320</v>
-      </c>
-      <c r="J38" t="n">
-        <v>318</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>320</v>
-      </c>
-      <c r="C39" t="n">
-        <v>320</v>
-      </c>
-      <c r="D39" t="n">
-        <v>320</v>
-      </c>
-      <c r="E39" t="n">
-        <v>320</v>
-      </c>
-      <c r="F39" t="n">
-        <v>292</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-247573.8095256966</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>322</v>
-      </c>
-      <c r="J39" t="n">
-        <v>318</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>320</v>
-      </c>
-      <c r="C40" t="n">
-        <v>320</v>
-      </c>
-      <c r="D40" t="n">
-        <v>320</v>
-      </c>
-      <c r="E40" t="n">
-        <v>320</v>
-      </c>
-      <c r="F40" t="n">
-        <v>5.8217</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-247573.8095256966</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>320</v>
-      </c>
-      <c r="J40" t="n">
-        <v>318</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>320</v>
-      </c>
-      <c r="C41" t="n">
-        <v>320</v>
-      </c>
-      <c r="D41" t="n">
-        <v>320</v>
-      </c>
-      <c r="E41" t="n">
-        <v>320</v>
-      </c>
-      <c r="F41" t="n">
-        <v>192</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-247573.8095256966</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>320</v>
-      </c>
-      <c r="J41" t="n">
-        <v>318</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>320</v>
-      </c>
-      <c r="C42" t="n">
-        <v>321</v>
-      </c>
-      <c r="D42" t="n">
-        <v>321</v>
-      </c>
-      <c r="E42" t="n">
-        <v>320</v>
-      </c>
-      <c r="F42" t="n">
-        <v>384.5161</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-247189.2934256966</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>320</v>
-      </c>
-      <c r="J42" t="n">
-        <v>318</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2046,7 +1850,7 @@
         <v>321</v>
       </c>
       <c r="J43" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2087,7 +1891,7 @@
         <v>321</v>
       </c>
       <c r="J44" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2128,7 +1932,7 @@
         <v>320</v>
       </c>
       <c r="J45" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2169,7 +1973,7 @@
         <v>320</v>
       </c>
       <c r="J46" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2204,11 +2008,13 @@
         <v>-247035.1539256966</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>323</v>
+      </c>
       <c r="J47" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2249,7 +2055,7 @@
         <v>320</v>
       </c>
       <c r="J48" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2284,11 +2090,13 @@
         <v>-247263.9595256966</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>323</v>
+      </c>
       <c r="J49" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2327,7 +2135,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2366,7 +2174,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2405,7 +2213,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2444,7 +2252,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2479,13 +2287,11 @@
         <v>-247461.3837256967</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>321</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2520,13 +2326,11 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2561,13 +2365,11 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2602,13 +2404,11 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2643,13 +2443,11 @@
         <v>-247204.7608256967</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2684,13 +2482,11 @@
         <v>-247202.7151256967</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2725,13 +2521,11 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2766,13 +2560,11 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>324</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2807,13 +2599,11 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>324</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2852,7 +2642,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2891,7 +2681,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2930,7 +2720,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2969,7 +2759,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3008,7 +2798,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3047,7 +2837,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3086,7 +2876,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3125,7 +2915,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3164,7 +2954,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3203,7 +2993,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3242,7 +3032,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3281,7 +3071,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3320,7 +3110,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3359,7 +3149,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3398,7 +3188,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3437,7 +3227,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3476,7 +3266,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3515,7 +3305,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3554,7 +3344,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3593,7 +3383,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3628,19 +3418,19 @@
         <v>-229015.5037256967</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>1.023125</v>
       </c>
       <c r="M83" t="inlineStr"/>
     </row>
@@ -3667,17 +3457,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>318</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3706,17 +3490,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>318</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3745,17 +3523,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>318</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3784,17 +3556,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>318</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3823,17 +3589,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>318</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3862,17 +3622,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>318</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3901,17 +3655,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>318</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3940,17 +3688,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>318</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3979,17 +3721,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>318</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4018,17 +3754,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>318</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4057,17 +3787,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>318</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4096,17 +3820,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>318</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4135,17 +3853,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>318</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4174,17 +3886,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>318</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4213,17 +3919,11 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>318</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4252,17 +3952,11 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>318</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4291,17 +3985,11 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>318</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4330,17 +4018,11 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>318</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4369,17 +4051,11 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>318</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4408,17 +4084,11 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>318</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4447,17 +4117,11 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>318</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4486,17 +4150,11 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>318</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4525,17 +4183,11 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>318</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4564,17 +4216,11 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>318</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4603,17 +4249,11 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>318</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4642,17 +4282,11 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>318</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4681,17 +4315,11 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>318</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4720,17 +4348,11 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>318</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4759,17 +4381,11 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>318</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4798,17 +4414,11 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>318</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4837,17 +4447,11 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>318</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4876,17 +4480,11 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>318</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4915,17 +4513,11 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>318</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4954,17 +4546,11 @@
         <v>-227879.9450256967</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>318</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4993,17 +4579,11 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>318</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5032,17 +4612,11 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>318</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5071,17 +4645,11 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>318</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5110,17 +4678,11 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>318</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5149,17 +4711,11 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>318</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5188,17 +4744,11 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>318</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5227,17 +4777,11 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>318</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5266,17 +4810,11 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>318</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5305,17 +4843,11 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>318</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5344,17 +4876,11 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>318</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5383,17 +4909,11 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>318</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5422,17 +4942,11 @@
         <v>-219069.1886256967</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>318</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5461,17 +4975,11 @@
         <v>-219069.1886256967</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>318</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5500,17 +5008,11 @@
         <v>-219070.6073256967</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>318</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5539,17 +5041,11 @@
         <v>-219070.6073256967</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>318</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5578,17 +5074,11 @@
         <v>-216974.2585256967</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>318</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5617,17 +5107,11 @@
         <v>-216974.2585256967</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>318</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5656,17 +5140,11 @@
         <v>-218696.1774256967</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>318</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5695,17 +5173,11 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>318</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5734,17 +5206,11 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>318</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5776,14 +5242,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>318</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5815,14 +5275,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>318</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5854,14 +5308,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>318</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5893,14 +5341,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>318</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5932,14 +5374,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>318</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5971,14 +5407,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>318</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6010,14 +5440,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>318</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6049,14 +5473,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>318</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6088,14 +5506,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>318</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6127,14 +5539,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>318</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6166,14 +5572,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>318</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6205,14 +5605,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>318</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6244,14 +5638,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>318</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6283,14 +5671,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>318</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6322,14 +5704,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>318</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6361,14 +5737,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>318</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6400,14 +5770,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>318</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6439,14 +5803,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>318</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6478,14 +5836,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>318</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6517,14 +5869,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>318</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6556,14 +5902,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>318</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6595,14 +5935,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>318</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6634,14 +5968,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>318</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6673,14 +6001,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>318</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6712,14 +6034,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>318</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6751,14 +6067,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>318</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6790,14 +6100,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>318</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6829,14 +6133,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>318</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6868,14 +6166,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>318</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6907,14 +6199,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>318</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6946,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>318</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6985,14 +6265,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>318</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7024,14 +6298,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>318</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7063,14 +6331,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>318</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7102,14 +6364,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>318</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7141,14 +6397,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>318</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7180,14 +6430,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>318</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7219,14 +6463,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>318</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7258,14 +6496,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>318</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7297,14 +6529,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>318</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7336,14 +6562,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>318</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7375,14 +6595,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>318</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7414,14 +6628,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>318</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7453,14 +6661,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>318</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7492,14 +6694,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>318</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7531,14 +6727,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>318</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7570,14 +6760,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>318</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7609,14 +6793,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>318</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7648,14 +6826,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>318</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7687,14 +6859,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>318</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7726,14 +6892,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>318</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7765,14 +6925,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>318</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7804,14 +6958,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>318</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7843,14 +6991,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>318</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7882,14 +7024,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>318</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7921,14 +7057,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>318</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7960,14 +7090,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>318</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7999,14 +7123,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>318</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8038,14 +7156,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>318</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8077,14 +7189,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>318</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8116,14 +7222,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>318</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8155,14 +7255,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>318</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8194,14 +7288,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>318</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8233,14 +7321,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>318</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8272,14 +7354,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>318</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8311,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>318</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8350,14 +7420,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>318</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8389,14 +7453,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>318</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8428,14 +7486,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>318</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8467,14 +7519,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>318</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8506,14 +7552,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>318</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8545,14 +7585,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>318</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8584,14 +7618,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>318</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8623,14 +7651,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>318</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8662,14 +7684,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>318</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8701,14 +7717,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>318</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8740,14 +7750,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>318</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8779,14 +7783,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>318</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8818,14 +7816,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>318</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8857,14 +7849,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>318</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8896,14 +7882,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>318</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8935,14 +7915,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>318</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8974,14 +7948,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>318</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9013,14 +7981,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>318</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9052,14 +8014,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>318</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9091,14 +8047,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>318</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9130,14 +8080,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>318</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9169,14 +8113,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>318</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9208,14 +8146,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>318</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9247,14 +8179,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>318</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9286,14 +8212,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>318</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9325,14 +8245,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>318</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9364,14 +8278,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>318</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9403,14 +8311,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>318</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9442,14 +8344,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>318</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9481,14 +8377,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>318</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9520,14 +8410,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>318</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9559,14 +8443,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>318</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9598,14 +8476,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>318</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9637,14 +8509,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>318</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9676,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>318</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9712,23 +8572,15 @@
         <v>-153660.6789600403</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>318</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
-        <v>1.079905660377359</v>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9753,7 +8605,7 @@
         <v>-153660.6789600403</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9786,7 +8638,7 @@
         <v>-154642.7411600403</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9819,7 +8671,7 @@
         <v>-153010.3195600403</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9852,7 +8704,7 @@
         <v>-158067.5775600403</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9885,7 +8737,7 @@
         <v>-158067.5775600403</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9918,7 +8770,7 @@
         <v>-154535.5862600403</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9951,7 +8803,7 @@
         <v>-154535.5862600403</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9984,7 +8836,7 @@
         <v>-153202.1279600403</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10017,7 +8869,7 @@
         <v>-153897.3693600403</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10028,6 +8880,6 @@
       <c r="M248" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-01 BackTest ZRX.xlsx
@@ -814,10 +814,14 @@
         <v>-286440.1312256966</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>317</v>
+      </c>
+      <c r="J13" t="n">
+        <v>317</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -847,11 +851,19 @@
         <v>-286440.1312256966</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>317</v>
+      </c>
+      <c r="J14" t="n">
+        <v>317</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +892,19 @@
         <v>-281427.1312256966</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>317</v>
+      </c>
+      <c r="J15" t="n">
+        <v>317</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,10 +933,14 @@
         <v>-281644.8958256966</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>319</v>
+      </c>
+      <c r="J16" t="n">
+        <v>319</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -946,11 +970,19 @@
         <v>-281644.8958256966</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>318</v>
+      </c>
+      <c r="J17" t="n">
+        <v>319</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1011,19 @@
         <v>-281635.8958256966</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>318</v>
+      </c>
+      <c r="J18" t="n">
+        <v>319</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,10 +1052,14 @@
         <v>-281635.8958256966</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>320</v>
+      </c>
+      <c r="J19" t="n">
+        <v>320</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1045,11 +1089,19 @@
         <v>-268597.3219256966</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>320</v>
+      </c>
+      <c r="J20" t="n">
+        <v>320</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1130,19 @@
         <v>-268597.3219256966</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>321</v>
+      </c>
+      <c r="J21" t="n">
+        <v>320</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1171,19 @@
         <v>-268597.3219256966</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>321</v>
+      </c>
+      <c r="J22" t="n">
+        <v>320</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1212,19 @@
         <v>-244549.6531256966</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>321</v>
+      </c>
+      <c r="J23" t="n">
+        <v>320</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1256,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>320</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1295,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>320</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1334,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>320</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1373,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>320</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1412,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>320</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1451,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>320</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1487,19 @@
         <v>-242041.7025256967</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>322</v>
+      </c>
+      <c r="J30" t="n">
+        <v>320</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1531,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>320</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1570,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>320</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1609,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>320</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1648,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>320</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1687,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>320</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1726,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>320</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1612,9 +1768,13 @@
         <v>319</v>
       </c>
       <c r="J37" t="n">
-        <v>319</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>320</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1649,11 +1809,11 @@
         <v>320</v>
       </c>
       <c r="J38" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1690,11 +1850,11 @@
         <v>322</v>
       </c>
       <c r="J39" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1733,7 +1893,11 @@
       <c r="J40" t="n">
         <v>320</v>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1772,7 +1936,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1813,7 +1977,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -2131,9 +2295,11 @@
         <v>-247257.3837256967</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>320</v>
+      </c>
       <c r="J50" t="n">
         <v>320</v>
       </c>
@@ -2170,9 +2336,11 @@
         <v>-247257.3837256967</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>323</v>
+      </c>
       <c r="J51" t="n">
         <v>320</v>
       </c>
@@ -2209,9 +2377,11 @@
         <v>-247387.3837256967</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>323</v>
+      </c>
       <c r="J52" t="n">
         <v>320</v>
       </c>
@@ -2248,9 +2418,11 @@
         <v>-247387.3837256967</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>321</v>
+      </c>
       <c r="J53" t="n">
         <v>320</v>
       </c>
@@ -2287,9 +2459,11 @@
         <v>-247461.3837256967</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>321</v>
+      </c>
       <c r="J54" t="n">
         <v>320</v>
       </c>
@@ -2326,9 +2500,11 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>320</v>
+      </c>
       <c r="J55" t="n">
         <v>320</v>
       </c>
@@ -2365,9 +2541,11 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>323</v>
+      </c>
       <c r="J56" t="n">
         <v>320</v>
       </c>
@@ -2404,9 +2582,11 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>323</v>
+      </c>
       <c r="J57" t="n">
         <v>320</v>
       </c>
@@ -2443,9 +2623,11 @@
         <v>-247204.7608256967</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>323</v>
+      </c>
       <c r="J58" t="n">
         <v>320</v>
       </c>
@@ -2482,9 +2664,11 @@
         <v>-247202.7151256967</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>322</v>
+      </c>
       <c r="J59" t="n">
         <v>320</v>
       </c>
@@ -2521,9 +2705,11 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>323</v>
+      </c>
       <c r="J60" t="n">
         <v>320</v>
       </c>
@@ -2560,9 +2746,11 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>324</v>
+      </c>
       <c r="J61" t="n">
         <v>320</v>
       </c>
@@ -2599,9 +2787,11 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>324</v>
+      </c>
       <c r="J62" t="n">
         <v>320</v>
       </c>
@@ -2638,9 +2828,11 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>324</v>
+      </c>
       <c r="J63" t="n">
         <v>320</v>
       </c>
@@ -3418,7 +3610,7 @@
         <v>-229015.5037256967</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
@@ -3426,11 +3618,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.023125</v>
+        <v>1</v>
       </c>
       <c r="M83" t="inlineStr"/>
     </row>
@@ -3457,11 +3649,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>320</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3490,11 +3688,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>320</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3523,11 +3727,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>320</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3556,11 +3766,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>320</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3589,11 +3805,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>320</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3622,11 +3844,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>320</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3655,11 +3883,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>320</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3688,11 +3922,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>320</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3721,11 +3961,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>320</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3754,11 +4000,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>320</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3787,11 +4039,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>320</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3820,11 +4078,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>320</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +4117,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>320</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +4156,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>320</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3919,11 +4195,17 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>320</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3952,11 +4234,17 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>320</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3985,11 +4273,17 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>320</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4018,11 +4312,17 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>320</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4051,11 +4351,17 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>320</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4084,11 +4390,17 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>320</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4117,11 +4429,17 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>320</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4150,11 +4468,17 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>320</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4183,11 +4507,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>320</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4216,11 +4546,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>320</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4249,11 +4585,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>320</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4282,11 +4624,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>320</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4315,11 +4663,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>320</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4348,11 +4702,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>320</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4381,11 +4741,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>320</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4414,11 +4780,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>320</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4447,11 +4819,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>320</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4480,11 +4858,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>320</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4513,11 +4897,17 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>320</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4546,11 +4936,17 @@
         <v>-227879.9450256967</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>320</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4579,11 +4975,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>320</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4612,11 +5014,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>320</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4645,11 +5053,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>320</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4678,11 +5092,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>320</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4711,11 +5131,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>320</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4744,11 +5170,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>320</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4777,11 +5209,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>320</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4810,11 +5248,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>320</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4843,11 +5287,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>320</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4876,11 +5326,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>320</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4909,11 +5365,17 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>320</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4942,11 +5404,17 @@
         <v>-219069.1886256967</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>320</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4975,11 +5443,17 @@
         <v>-219069.1886256967</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>320</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5008,11 +5482,17 @@
         <v>-219070.6073256967</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>320</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5041,11 +5521,17 @@
         <v>-219070.6073256967</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>320</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5074,11 +5560,17 @@
         <v>-216974.2585256967</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>320</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5107,11 +5599,17 @@
         <v>-216974.2585256967</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>320</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5140,11 +5638,17 @@
         <v>-218696.1774256967</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>320</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5173,11 +5677,17 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>320</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5206,11 +5716,17 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>320</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5242,8 +5758,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>320</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5275,8 +5797,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>320</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5308,8 +5836,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>320</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5341,8 +5875,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>320</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5374,8 +5914,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>320</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5407,8 +5953,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>320</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5440,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>320</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5473,8 +6031,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>320</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5506,8 +6070,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>320</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5539,8 +6109,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>320</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5572,8 +6148,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>320</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5605,8 +6187,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>320</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5638,8 +6226,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>320</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5671,8 +6265,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>320</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5704,8 +6304,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>320</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5737,8 +6343,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>320</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5770,8 +6382,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>320</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5803,8 +6421,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>320</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5836,8 +6460,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>320</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5869,8 +6499,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>320</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5902,8 +6538,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>320</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5935,8 +6577,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>320</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5968,8 +6616,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>320</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6001,8 +6655,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>320</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6034,8 +6694,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>320</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6067,8 +6733,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>320</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6100,8 +6772,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>320</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6133,8 +6811,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>320</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6166,8 +6850,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>320</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6199,8 +6889,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>320</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6928,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>320</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6265,8 +6967,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>320</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6298,8 +7006,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>320</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6331,8 +7045,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>320</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6364,8 +7084,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>320</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6397,8 +7123,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>320</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6430,8 +7162,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>320</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6463,8 +7201,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>320</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6496,8 +7240,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>320</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6529,8 +7279,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>320</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6562,8 +7318,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>320</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6595,8 +7357,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>320</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6628,8 +7396,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>320</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6661,8 +7435,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>320</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6694,8 +7474,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>320</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6727,8 +7513,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>320</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6760,8 +7552,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>320</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6793,8 +7591,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>320</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6826,8 +7630,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>320</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6859,8 +7669,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>320</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6892,8 +7708,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>320</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6925,8 +7747,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>320</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6958,8 +7786,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>320</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6991,8 +7825,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>320</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7024,8 +7864,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>320</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7057,8 +7903,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>320</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7090,8 +7942,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>320</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7123,8 +7981,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>320</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7156,8 +8020,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>320</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7189,8 +8059,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>320</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7222,8 +8098,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>320</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7255,8 +8137,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>320</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7288,8 +8176,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>320</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7321,8 +8215,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>320</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7354,8 +8254,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>320</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +8293,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>320</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7420,8 +8332,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>320</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7453,8 +8371,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>320</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7486,8 +8410,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>320</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7519,8 +8449,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>320</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7552,8 +8488,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>320</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7585,8 +8527,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>320</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7618,8 +8566,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>320</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7651,8 +8605,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>320</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7684,8 +8644,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>320</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7717,8 +8683,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>320</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7750,8 +8722,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>320</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7783,8 +8761,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>320</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7816,8 +8800,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>320</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7849,8 +8839,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>320</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7882,8 +8878,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>320</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7915,8 +8917,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>320</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7948,8 +8956,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>320</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7981,8 +8995,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>320</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8014,8 +9034,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>320</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8047,8 +9073,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>320</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8080,8 +9112,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>320</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8113,8 +9151,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>320</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8146,8 +9190,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>320</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8179,8 +9229,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>320</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8212,8 +9268,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>320</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8245,8 +9307,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>320</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8278,8 +9346,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>320</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8311,8 +9385,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>320</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8344,8 +9424,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>320</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8377,8 +9463,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>320</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8410,8 +9502,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>320</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8440,15 +9538,23 @@
         <v>-129156.9942085952</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>320</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>1.07</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1.009463722397476</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8473,7 +9579,7 @@
         <v>-129156.9942085952</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8506,7 +9612,7 @@
         <v>-122951.1849600403</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8539,7 +9645,7 @@
         <v>-122951.1849600403</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8572,7 +9678,7 @@
         <v>-153660.6789600403</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8605,7 +9711,7 @@
         <v>-153660.6789600403</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8638,7 +9744,7 @@
         <v>-154642.7411600403</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8671,7 +9777,7 @@
         <v>-153010.3195600403</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8704,7 +9810,7 @@
         <v>-158067.5775600403</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8737,7 +9843,7 @@
         <v>-158067.5775600403</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8770,7 +9876,7 @@
         <v>-154535.5862600403</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8803,7 +9909,7 @@
         <v>-154535.5862600403</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8836,7 +9942,7 @@
         <v>-153202.1279600403</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8869,7 +9975,7 @@
         <v>-153897.3693600403</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-01 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M248"/>
+  <dimension ref="A1:L248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>129</v>
       </c>
       <c r="G2" t="n">
-        <v>-279365.1312256966</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>360</v>
       </c>
       <c r="G3" t="n">
-        <v>-279365.1312256966</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>16165.5898</v>
       </c>
       <c r="G4" t="n">
-        <v>-279365.1312256966</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>631.2849</v>
       </c>
       <c r="G5" t="n">
-        <v>-279365.1312256966</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>17219.611</v>
       </c>
       <c r="G6" t="n">
-        <v>-279365.1312256966</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2399.9961</v>
       </c>
       <c r="G7" t="n">
-        <v>-279365.1312256966</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>165</v>
       </c>
       <c r="G8" t="n">
-        <v>-279365.1312256966</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>329.47</v>
       </c>
       <c r="G9" t="n">
-        <v>-279365.1312256966</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>781.1126</v>
       </c>
       <c r="G10" t="n">
-        <v>-279365.1312256966</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,21 @@
         <v>7075</v>
       </c>
       <c r="G11" t="n">
-        <v>-286440.1312256966</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +749,21 @@
         <v>1645.7199</v>
       </c>
       <c r="G12" t="n">
-        <v>-286440.1312256966</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,22 +785,21 @@
         <v>9662.0221</v>
       </c>
       <c r="G13" t="n">
-        <v>-286440.1312256966</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
         <v>317</v>
       </c>
-      <c r="J13" t="n">
-        <v>317</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -848,26 +821,21 @@
         <v>4610.4103</v>
       </c>
       <c r="G14" t="n">
-        <v>-286440.1312256966</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
         <v>317</v>
       </c>
-      <c r="J14" t="n">
-        <v>317</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -889,26 +857,21 @@
         <v>5013</v>
       </c>
       <c r="G15" t="n">
-        <v>-281427.1312256966</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
         <v>317</v>
       </c>
-      <c r="J15" t="n">
-        <v>317</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -930,22 +893,21 @@
         <v>217.7646</v>
       </c>
       <c r="G16" t="n">
-        <v>-281644.8958256966</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
         <v>319</v>
       </c>
-      <c r="J16" t="n">
-        <v>319</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -967,26 +929,21 @@
         <v>2566.2672</v>
       </c>
       <c r="G17" t="n">
-        <v>-281644.8958256966</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
         <v>318</v>
       </c>
-      <c r="J17" t="n">
-        <v>319</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,26 +965,21 @@
         <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>-281635.8958256966</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
         <v>318</v>
       </c>
-      <c r="J18" t="n">
-        <v>319</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1049,22 +1001,21 @@
         <v>2125.3312</v>
       </c>
       <c r="G19" t="n">
-        <v>-281635.8958256966</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
         <v>320</v>
       </c>
-      <c r="J19" t="n">
-        <v>320</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1086,26 +1037,19 @@
         <v>13038.5739</v>
       </c>
       <c r="G20" t="n">
-        <v>-268597.3219256966</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>320</v>
-      </c>
-      <c r="J20" t="n">
-        <v>320</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,26 +1071,19 @@
         <v>1161.249</v>
       </c>
       <c r="G21" t="n">
-        <v>-268597.3219256966</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>321</v>
-      </c>
-      <c r="J21" t="n">
-        <v>320</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1168,26 +1105,19 @@
         <v>717.2465999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-268597.3219256966</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>321</v>
-      </c>
-      <c r="J22" t="n">
-        <v>320</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1209,26 +1139,19 @@
         <v>24047.6688</v>
       </c>
       <c r="G23" t="n">
-        <v>-244549.6531256966</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>321</v>
-      </c>
-      <c r="J23" t="n">
-        <v>320</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,24 +1173,19 @@
         <v>2807</v>
       </c>
       <c r="G24" t="n">
-        <v>-241742.6531256966</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>320</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1289,24 +1207,19 @@
         <v>496.6368</v>
       </c>
       <c r="G25" t="n">
-        <v>-241742.6531256966</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>320</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1328,24 +1241,19 @@
         <v>697.4369</v>
       </c>
       <c r="G26" t="n">
-        <v>-241045.2162256966</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>320</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1367,24 +1275,19 @@
         <v>7.9713</v>
       </c>
       <c r="G27" t="n">
-        <v>-241053.1875256966</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>320</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1406,24 +1309,19 @@
         <v>198.4049</v>
       </c>
       <c r="G28" t="n">
-        <v>-240854.7826256967</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>320</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1445,24 +1343,19 @@
         <v>1209.622</v>
       </c>
       <c r="G29" t="n">
-        <v>-242064.4046256967</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>320</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1484,26 +1377,19 @@
         <v>22.7021</v>
       </c>
       <c r="G30" t="n">
-        <v>-242041.7025256967</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>322</v>
-      </c>
-      <c r="J30" t="n">
-        <v>320</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1525,24 +1411,19 @@
         <v>1911.0804</v>
       </c>
       <c r="G31" t="n">
-        <v>-242041.7025256967</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>320</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1564,24 +1445,19 @@
         <v>2516.0064</v>
       </c>
       <c r="G32" t="n">
-        <v>-244557.7089256967</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>320</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1603,24 +1479,19 @@
         <v>615</v>
       </c>
       <c r="G33" t="n">
-        <v>-244557.7089256967</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>320</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1642,24 +1513,19 @@
         <v>3756.4195</v>
       </c>
       <c r="G34" t="n">
-        <v>-248314.1284256967</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>320</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1681,24 +1547,19 @@
         <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>-248311.1284256967</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>320</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1720,24 +1581,19 @@
         <v>498.4587</v>
       </c>
       <c r="G36" t="n">
-        <v>-248809.5871256966</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>320</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1759,26 +1615,19 @@
         <v>473.5357</v>
       </c>
       <c r="G37" t="n">
-        <v>-248336.0514256966</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>319</v>
-      </c>
-      <c r="J37" t="n">
-        <v>320</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1800,26 +1649,19 @@
         <v>1054.2419</v>
       </c>
       <c r="G38" t="n">
-        <v>-247281.8095256966</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>320</v>
-      </c>
-      <c r="J38" t="n">
-        <v>320</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1841,26 +1683,19 @@
         <v>292</v>
       </c>
       <c r="G39" t="n">
-        <v>-247573.8095256966</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>322</v>
-      </c>
-      <c r="J39" t="n">
-        <v>320</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1882,26 +1717,19 @@
         <v>5.8217</v>
       </c>
       <c r="G40" t="n">
-        <v>-247573.8095256966</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>320</v>
-      </c>
-      <c r="J40" t="n">
-        <v>320</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1923,26 +1751,19 @@
         <v>192</v>
       </c>
       <c r="G41" t="n">
-        <v>-247573.8095256966</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>320</v>
-      </c>
-      <c r="J41" t="n">
-        <v>320</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1964,26 +1785,19 @@
         <v>384.5161</v>
       </c>
       <c r="G42" t="n">
-        <v>-247189.2934256966</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>320</v>
-      </c>
-      <c r="J42" t="n">
-        <v>320</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2005,26 +1819,19 @@
         <v>735.1556</v>
       </c>
       <c r="G43" t="n">
-        <v>-247189.2934256966</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>321</v>
-      </c>
-      <c r="J43" t="n">
-        <v>320</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2046,26 +1853,19 @@
         <v>32</v>
       </c>
       <c r="G44" t="n">
-        <v>-247221.2934256966</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>321</v>
-      </c>
-      <c r="J44" t="n">
-        <v>320</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2087,26 +1887,19 @@
         <v>907.7542999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-247221.2934256966</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>320</v>
-      </c>
-      <c r="J45" t="n">
-        <v>320</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2128,26 +1921,19 @@
         <v>483.9006</v>
       </c>
       <c r="G46" t="n">
-        <v>-246737.3928256966</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>320</v>
-      </c>
-      <c r="J46" t="n">
-        <v>320</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2169,26 +1955,19 @@
         <v>297.7611</v>
       </c>
       <c r="G47" t="n">
-        <v>-247035.1539256966</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>323</v>
-      </c>
-      <c r="J47" t="n">
-        <v>320</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2210,26 +1989,19 @@
         <v>71.1944</v>
       </c>
       <c r="G48" t="n">
-        <v>-246963.9595256966</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>320</v>
-      </c>
-      <c r="J48" t="n">
-        <v>320</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2251,26 +2023,19 @@
         <v>300</v>
       </c>
       <c r="G49" t="n">
-        <v>-247263.9595256966</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>323</v>
-      </c>
-      <c r="J49" t="n">
-        <v>320</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2292,26 +2057,19 @@
         <v>6.5758</v>
       </c>
       <c r="G50" t="n">
-        <v>-247257.3837256967</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>320</v>
-      </c>
-      <c r="J50" t="n">
-        <v>320</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2333,26 +2091,19 @@
         <v>10.9133</v>
       </c>
       <c r="G51" t="n">
-        <v>-247257.3837256967</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>323</v>
-      </c>
-      <c r="J51" t="n">
-        <v>320</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2374,26 +2125,19 @@
         <v>130</v>
       </c>
       <c r="G52" t="n">
-        <v>-247387.3837256967</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>323</v>
-      </c>
-      <c r="J52" t="n">
-        <v>320</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2415,26 +2159,19 @@
         <v>130</v>
       </c>
       <c r="G53" t="n">
-        <v>-247387.3837256967</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>321</v>
-      </c>
-      <c r="J53" t="n">
-        <v>320</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2456,26 +2193,19 @@
         <v>74</v>
       </c>
       <c r="G54" t="n">
-        <v>-247461.3837256967</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>321</v>
-      </c>
-      <c r="J54" t="n">
-        <v>320</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2497,26 +2227,19 @@
         <v>792.4661</v>
       </c>
       <c r="G55" t="n">
-        <v>-246668.9176256967</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>320</v>
-      </c>
-      <c r="J55" t="n">
-        <v>320</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2538,26 +2261,19 @@
         <v>2408.1837</v>
       </c>
       <c r="G56" t="n">
-        <v>-246668.9176256967</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>323</v>
-      </c>
-      <c r="J56" t="n">
-        <v>320</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2579,26 +2295,19 @@
         <v>839.7748</v>
       </c>
       <c r="G57" t="n">
-        <v>-246668.9176256967</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>323</v>
-      </c>
-      <c r="J57" t="n">
-        <v>320</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2620,26 +2329,19 @@
         <v>535.8432</v>
       </c>
       <c r="G58" t="n">
-        <v>-247204.7608256967</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>323</v>
-      </c>
-      <c r="J58" t="n">
-        <v>320</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2661,26 +2363,19 @@
         <v>2.0457</v>
       </c>
       <c r="G59" t="n">
-        <v>-247202.7151256967</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>322</v>
-      </c>
-      <c r="J59" t="n">
-        <v>320</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2702,26 +2397,19 @@
         <v>4.01</v>
       </c>
       <c r="G60" t="n">
-        <v>-247198.7051256967</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>323</v>
-      </c>
-      <c r="J60" t="n">
-        <v>320</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2743,26 +2431,19 @@
         <v>168</v>
       </c>
       <c r="G61" t="n">
-        <v>-247198.7051256967</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>324</v>
-      </c>
-      <c r="J61" t="n">
-        <v>320</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2784,26 +2465,19 @@
         <v>1771.2829</v>
       </c>
       <c r="G62" t="n">
-        <v>-247198.7051256967</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>324</v>
-      </c>
-      <c r="J62" t="n">
-        <v>320</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2825,26 +2499,19 @@
         <v>2351.3591</v>
       </c>
       <c r="G63" t="n">
-        <v>-247198.7051256967</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>324</v>
-      </c>
-      <c r="J63" t="n">
-        <v>320</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2866,24 +2533,19 @@
         <v>96.9696</v>
       </c>
       <c r="G64" t="n">
-        <v>-247101.7355256967</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>320</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2905,24 +2567,19 @@
         <v>967.9999</v>
       </c>
       <c r="G65" t="n">
-        <v>-247101.7355256967</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>320</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2944,24 +2601,19 @@
         <v>946.6745</v>
       </c>
       <c r="G66" t="n">
-        <v>-247101.7355256967</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>320</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2983,24 +2635,19 @@
         <v>3394.348</v>
       </c>
       <c r="G67" t="n">
-        <v>-247101.7355256967</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>320</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3022,24 +2669,19 @@
         <v>8589.318600000001</v>
       </c>
       <c r="G68" t="n">
-        <v>-238512.4169256967</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>320</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3061,24 +2703,19 @@
         <v>1934.2253</v>
       </c>
       <c r="G69" t="n">
-        <v>-236578.1916256967</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>320</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3100,24 +2737,19 @@
         <v>1227.5177</v>
       </c>
       <c r="G70" t="n">
-        <v>-236578.1916256967</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>320</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3139,24 +2771,19 @@
         <v>649.2456</v>
       </c>
       <c r="G71" t="n">
-        <v>-236578.1916256967</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>320</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3178,24 +2805,19 @@
         <v>2259.7218</v>
       </c>
       <c r="G72" t="n">
-        <v>-236578.1916256967</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>320</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3217,24 +2839,19 @@
         <v>2987.8964</v>
       </c>
       <c r="G73" t="n">
-        <v>-233590.2952256967</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>320</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3256,24 +2873,19 @@
         <v>30</v>
       </c>
       <c r="G74" t="n">
-        <v>-233590.2952256967</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>320</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3295,24 +2907,19 @@
         <v>28.5369</v>
       </c>
       <c r="G75" t="n">
-        <v>-233618.8321256967</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>320</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3334,24 +2941,19 @@
         <v>920.433</v>
       </c>
       <c r="G76" t="n">
-        <v>-234539.2651256967</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>320</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3373,24 +2975,19 @@
         <v>1398.1133</v>
       </c>
       <c r="G77" t="n">
-        <v>-234539.2651256967</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>320</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3412,24 +3009,19 @@
         <v>1710.8798</v>
       </c>
       <c r="G78" t="n">
-        <v>-232828.3853256967</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>320</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3451,24 +3043,19 @@
         <v>3812.8816</v>
       </c>
       <c r="G79" t="n">
-        <v>-229015.5037256967</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>320</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3490,24 +3077,19 @@
         <v>468</v>
       </c>
       <c r="G80" t="n">
-        <v>-229015.5037256967</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>320</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3529,24 +3111,19 @@
         <v>4895.543</v>
       </c>
       <c r="G81" t="n">
-        <v>-229015.5037256967</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>320</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3568,24 +3145,19 @@
         <v>10239.6199</v>
       </c>
       <c r="G82" t="n">
-        <v>-229015.5037256967</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>320</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3607,24 +3179,19 @@
         <v>7968.5736</v>
       </c>
       <c r="G83" t="n">
-        <v>-229015.5037256967</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>320</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3646,24 +3213,19 @@
         <v>989.7371000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>320</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3685,24 +3247,19 @@
         <v>117</v>
       </c>
       <c r="G85" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>320</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3724,24 +3281,19 @@
         <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>320</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3763,24 +3315,19 @@
         <v>7007.4995</v>
       </c>
       <c r="G87" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>320</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3802,24 +3349,19 @@
         <v>1848.4878</v>
       </c>
       <c r="G88" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>320</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3841,24 +3383,19 @@
         <v>100.8792</v>
       </c>
       <c r="G89" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>320</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3880,24 +3417,19 @@
         <v>79.11450000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>320</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3919,24 +3451,19 @@
         <v>1649.9704</v>
       </c>
       <c r="G91" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>320</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3958,24 +3485,19 @@
         <v>7690.3152</v>
       </c>
       <c r="G92" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>320</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3997,24 +3519,19 @@
         <v>936.7595</v>
       </c>
       <c r="G93" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>320</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4036,24 +3553,19 @@
         <v>532.3097</v>
       </c>
       <c r="G94" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>320</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4075,24 +3587,19 @@
         <v>2707.8488</v>
       </c>
       <c r="G95" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>320</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4114,24 +3621,19 @@
         <v>815.6155</v>
       </c>
       <c r="G96" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>320</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4153,24 +3655,19 @@
         <v>2596.1931</v>
       </c>
       <c r="G97" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>320</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4192,24 +3689,19 @@
         <v>1663.0419</v>
       </c>
       <c r="G98" t="n">
-        <v>-228025.7666256967</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>320</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4231,24 +3723,19 @@
         <v>542.123</v>
       </c>
       <c r="G99" t="n">
-        <v>-227483.6436256967</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>320</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4270,24 +3757,19 @@
         <v>5259.4</v>
       </c>
       <c r="G100" t="n">
-        <v>-227483.6436256967</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>320</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4309,24 +3791,19 @@
         <v>2025.5029</v>
       </c>
       <c r="G101" t="n">
-        <v>-227483.6436256967</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>320</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4348,24 +3825,19 @@
         <v>2955.3443</v>
       </c>
       <c r="G102" t="n">
-        <v>-227483.6436256967</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>320</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4387,24 +3859,19 @@
         <v>2968.5826</v>
       </c>
       <c r="G103" t="n">
-        <v>-227483.6436256967</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>320</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4426,24 +3893,19 @@
         <v>1811.9733</v>
       </c>
       <c r="G104" t="n">
-        <v>-227483.6436256967</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>320</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4465,24 +3927,19 @@
         <v>193.0297</v>
       </c>
       <c r="G105" t="n">
-        <v>-227483.6436256967</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>320</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4504,24 +3961,19 @@
         <v>1651.5827</v>
       </c>
       <c r="G106" t="n">
-        <v>-225832.0609256967</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>320</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4543,24 +3995,19 @@
         <v>1984.7296</v>
       </c>
       <c r="G107" t="n">
-        <v>-225832.0609256967</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>320</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4582,24 +4029,19 @@
         <v>628.8381000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>-225832.0609256967</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>320</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4621,24 +4063,19 @@
         <v>2013.1194</v>
       </c>
       <c r="G109" t="n">
-        <v>-225832.0609256967</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>320</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4660,24 +4097,19 @@
         <v>673.5006</v>
       </c>
       <c r="G110" t="n">
-        <v>-225832.0609256967</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>320</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4699,24 +4131,19 @@
         <v>1055.7461</v>
       </c>
       <c r="G111" t="n">
-        <v>-225832.0609256967</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>320</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4738,24 +4165,19 @@
         <v>6763.5648</v>
       </c>
       <c r="G112" t="n">
-        <v>-225832.0609256967</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>320</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4777,24 +4199,19 @@
         <v>6017.9344</v>
       </c>
       <c r="G113" t="n">
-        <v>-225832.0609256967</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>320</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4816,24 +4233,19 @@
         <v>1280.9678</v>
       </c>
       <c r="G114" t="n">
-        <v>-225832.0609256967</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>320</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4855,24 +4267,19 @@
         <v>26527.4228</v>
       </c>
       <c r="G115" t="n">
-        <v>-225832.0609256967</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>320</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4894,24 +4301,19 @@
         <v>14603.2625</v>
       </c>
       <c r="G116" t="n">
-        <v>-225832.0609256967</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>320</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4933,24 +4335,19 @@
         <v>2047.8841</v>
       </c>
       <c r="G117" t="n">
-        <v>-227879.9450256967</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>320</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4972,24 +4369,19 @@
         <v>3268.1555</v>
       </c>
       <c r="G118" t="n">
-        <v>-224611.7895256967</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>320</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5011,24 +4403,19 @@
         <v>1172.932</v>
       </c>
       <c r="G119" t="n">
-        <v>-224611.7895256967</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>320</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5050,24 +4437,19 @@
         <v>30.4991</v>
       </c>
       <c r="G120" t="n">
-        <v>-224611.7895256967</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>320</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5089,24 +4471,19 @@
         <v>2167.0545</v>
       </c>
       <c r="G121" t="n">
-        <v>-224611.7895256967</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>320</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5128,24 +4505,19 @@
         <v>18877.8396</v>
       </c>
       <c r="G122" t="n">
-        <v>-224611.7895256967</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>320</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5167,24 +4539,19 @@
         <v>4117.369172289156</v>
       </c>
       <c r="G123" t="n">
-        <v>-224611.7895256967</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>320</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5206,24 +4573,19 @@
         <v>116.366</v>
       </c>
       <c r="G124" t="n">
-        <v>-224611.7895256967</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>320</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5245,24 +4607,19 @@
         <v>2174.0823</v>
       </c>
       <c r="G125" t="n">
-        <v>-224611.7895256967</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>320</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5284,24 +4641,19 @@
         <v>4262.5245</v>
       </c>
       <c r="G126" t="n">
-        <v>-224611.7895256967</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>320</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5323,24 +4675,19 @@
         <v>5784.3459</v>
       </c>
       <c r="G127" t="n">
-        <v>-224611.7895256967</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>320</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5362,24 +4709,19 @@
         <v>720.6416</v>
       </c>
       <c r="G128" t="n">
-        <v>-224611.7895256967</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>320</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5401,24 +4743,19 @@
         <v>5542.6009</v>
       </c>
       <c r="G129" t="n">
-        <v>-219069.1886256967</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>320</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5440,24 +4777,19 @@
         <v>45.5938</v>
       </c>
       <c r="G130" t="n">
-        <v>-219069.1886256967</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>320</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5479,24 +4811,19 @@
         <v>1.4187</v>
       </c>
       <c r="G131" t="n">
-        <v>-219070.6073256967</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>320</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5518,24 +4845,19 @@
         <v>2.7446</v>
       </c>
       <c r="G132" t="n">
-        <v>-219070.6073256967</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>320</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5557,24 +4879,19 @@
         <v>2096.3488</v>
       </c>
       <c r="G133" t="n">
-        <v>-216974.2585256967</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>320</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5596,24 +4913,19 @@
         <v>2219</v>
       </c>
       <c r="G134" t="n">
-        <v>-216974.2585256967</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>320</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5635,24 +4947,19 @@
         <v>1721.9189</v>
       </c>
       <c r="G135" t="n">
-        <v>-218696.1774256967</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>320</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5674,24 +4981,19 @@
         <v>2114.57</v>
       </c>
       <c r="G136" t="n">
-        <v>-216581.6074256967</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>320</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5713,24 +5015,19 @@
         <v>7975.4962</v>
       </c>
       <c r="G137" t="n">
-        <v>-216581.6074256967</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>320</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5752,24 +5049,19 @@
         <v>180</v>
       </c>
       <c r="G138" t="n">
-        <v>-216581.6074256967</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>320</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5791,24 +5083,19 @@
         <v>1980.9878</v>
       </c>
       <c r="G139" t="n">
-        <v>-216581.6074256967</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>320</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5830,24 +5117,19 @@
         <v>8838.907499999999</v>
       </c>
       <c r="G140" t="n">
-        <v>-216581.6074256967</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>320</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5869,24 +5151,19 @@
         <v>6945.4939</v>
       </c>
       <c r="G141" t="n">
-        <v>-216581.6074256967</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>320</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5908,24 +5185,19 @@
         <v>2760.1655</v>
       </c>
       <c r="G142" t="n">
-        <v>-213821.4419256967</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>320</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5947,24 +5219,19 @@
         <v>1000</v>
       </c>
       <c r="G143" t="n">
-        <v>-214821.4419256967</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>320</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5986,24 +5253,19 @@
         <v>1000</v>
       </c>
       <c r="G144" t="n">
-        <v>-214821.4419256967</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>320</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6025,24 +5287,19 @@
         <v>54.7874</v>
       </c>
       <c r="G145" t="n">
-        <v>-214766.6545256967</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>320</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6064,24 +5321,19 @@
         <v>23757.6132</v>
       </c>
       <c r="G146" t="n">
-        <v>-191009.0413256967</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>320</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6103,24 +5355,19 @@
         <v>1444.3792</v>
       </c>
       <c r="G147" t="n">
-        <v>-192453.4205256967</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>320</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6142,24 +5389,19 @@
         <v>352.13</v>
       </c>
       <c r="G148" t="n">
-        <v>-192453.4205256967</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>320</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6181,24 +5423,19 @@
         <v>3060.7985</v>
       </c>
       <c r="G149" t="n">
-        <v>-192453.4205256967</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>320</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6220,24 +5457,19 @@
         <v>1403.4958</v>
       </c>
       <c r="G150" t="n">
-        <v>-192453.4205256967</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>320</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6259,24 +5491,19 @@
         <v>2429.3285</v>
       </c>
       <c r="G151" t="n">
-        <v>-192453.4205256967</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>320</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6298,24 +5525,19 @@
         <v>3424.362</v>
       </c>
       <c r="G152" t="n">
-        <v>-189029.0585256967</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>320</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6337,24 +5559,19 @@
         <v>817.1127</v>
       </c>
       <c r="G153" t="n">
-        <v>-188211.9458256967</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>320</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6376,24 +5593,19 @@
         <v>310.991</v>
       </c>
       <c r="G154" t="n">
-        <v>-188211.9458256967</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>320</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6415,24 +5627,19 @@
         <v>969.7952</v>
       </c>
       <c r="G155" t="n">
-        <v>-188211.9458256967</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>320</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6454,24 +5661,19 @@
         <v>120</v>
       </c>
       <c r="G156" t="n">
-        <v>-188331.9458256967</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>320</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6493,24 +5695,19 @@
         <v>340.7956</v>
       </c>
       <c r="G157" t="n">
-        <v>-188331.9458256967</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>320</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6532,24 +5729,19 @@
         <v>1489.9732</v>
       </c>
       <c r="G158" t="n">
-        <v>-188331.9458256967</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>320</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6571,24 +5763,19 @@
         <v>4294.1898</v>
       </c>
       <c r="G159" t="n">
-        <v>-192626.1356256967</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>320</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6610,24 +5797,19 @@
         <v>196.5686</v>
       </c>
       <c r="G160" t="n">
-        <v>-192626.1356256967</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>320</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6649,24 +5831,19 @@
         <v>815.0699</v>
       </c>
       <c r="G161" t="n">
-        <v>-193441.2055256967</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>320</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6688,24 +5865,19 @@
         <v>684.5085</v>
       </c>
       <c r="G162" t="n">
-        <v>-192756.6970256967</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>320</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6727,24 +5899,19 @@
         <v>279.1393</v>
       </c>
       <c r="G163" t="n">
-        <v>-192756.6970256967</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>320</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6766,24 +5933,19 @@
         <v>3175.0171</v>
       </c>
       <c r="G164" t="n">
-        <v>-195931.7141256967</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>320</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6805,24 +5967,19 @@
         <v>33.4418</v>
       </c>
       <c r="G165" t="n">
-        <v>-195898.2723256967</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>320</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6844,24 +6001,19 @@
         <v>27.6172</v>
       </c>
       <c r="G166" t="n">
-        <v>-195898.2723256967</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>320</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6883,24 +6035,19 @@
         <v>3357.9307</v>
       </c>
       <c r="G167" t="n">
-        <v>-192540.3416256967</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>320</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6922,24 +6069,19 @@
         <v>14.7418</v>
       </c>
       <c r="G168" t="n">
-        <v>-192540.3416256967</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>320</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6961,24 +6103,19 @@
         <v>3420.7926</v>
       </c>
       <c r="G169" t="n">
-        <v>-195961.1342256967</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>320</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7000,24 +6137,19 @@
         <v>1104.0173</v>
       </c>
       <c r="G170" t="n">
-        <v>-194857.1169256967</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>320</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7039,24 +6171,19 @@
         <v>1213.3363</v>
       </c>
       <c r="G171" t="n">
-        <v>-194857.1169256967</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>320</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7078,24 +6205,19 @@
         <v>223.994</v>
       </c>
       <c r="G172" t="n">
-        <v>-194857.1169256967</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>320</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7117,24 +6239,19 @@
         <v>609.9404</v>
       </c>
       <c r="G173" t="n">
-        <v>-195467.0573256967</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>320</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7156,24 +6273,19 @@
         <v>358.9443</v>
       </c>
       <c r="G174" t="n">
-        <v>-195467.0573256967</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>320</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7195,24 +6307,19 @@
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>-195468.0573256967</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>320</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7234,24 +6341,19 @@
         <v>9.5</v>
       </c>
       <c r="G176" t="n">
-        <v>-195458.5573256967</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>320</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7273,24 +6375,19 @@
         <v>1245</v>
       </c>
       <c r="G177" t="n">
-        <v>-196703.5573256967</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>320</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7312,24 +6409,19 @@
         <v>4697.8776</v>
       </c>
       <c r="G178" t="n">
-        <v>-196703.5573256967</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>320</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7351,24 +6443,19 @@
         <v>647.4153</v>
       </c>
       <c r="G179" t="n">
-        <v>-196703.5573256967</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>320</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7390,24 +6477,19 @@
         <v>969.7952</v>
       </c>
       <c r="G180" t="n">
-        <v>-197673.3525256967</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>320</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7429,24 +6511,19 @@
         <v>1159.7119</v>
       </c>
       <c r="G181" t="n">
-        <v>-196513.6406256967</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>320</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7468,24 +6545,19 @@
         <v>13878.8776</v>
       </c>
       <c r="G182" t="n">
-        <v>-196513.6406256967</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>320</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7507,24 +6579,19 @@
         <v>927.176</v>
       </c>
       <c r="G183" t="n">
-        <v>-197440.8166256967</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>320</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7546,24 +6613,19 @@
         <v>72.3064</v>
       </c>
       <c r="G184" t="n">
-        <v>-197368.5102256967</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>320</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7585,24 +6647,19 @@
         <v>506.9183</v>
       </c>
       <c r="G185" t="n">
-        <v>-197875.4285256967</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>320</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7624,24 +6681,19 @@
         <v>8432.047699999999</v>
       </c>
       <c r="G186" t="n">
-        <v>-189443.3808256967</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>320</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7663,24 +6715,19 @@
         <v>34.7079</v>
       </c>
       <c r="G187" t="n">
-        <v>-189478.0887256967</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>320</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7702,24 +6749,19 @@
         <v>3015.5109</v>
       </c>
       <c r="G188" t="n">
-        <v>-192493.5996256967</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>320</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7741,24 +6783,19 @@
         <v>3032.6554</v>
       </c>
       <c r="G189" t="n">
-        <v>-192493.5996256967</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>320</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7780,24 +6817,19 @@
         <v>18488.6342</v>
       </c>
       <c r="G190" t="n">
-        <v>-210982.2338256967</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>320</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7819,24 +6851,19 @@
         <v>17.7789</v>
       </c>
       <c r="G191" t="n">
-        <v>-210982.2338256967</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>320</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7858,24 +6885,19 @@
         <v>3368.6502</v>
       </c>
       <c r="G192" t="n">
-        <v>-214350.8840256967</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>320</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7897,24 +6919,19 @@
         <v>29.8191</v>
       </c>
       <c r="G193" t="n">
-        <v>-214321.0649256967</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>320</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7936,24 +6953,19 @@
         <v>1939.2099</v>
       </c>
       <c r="G194" t="n">
-        <v>-216260.2748256967</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>320</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7975,24 +6987,19 @@
         <v>4064.0284</v>
       </c>
       <c r="G195" t="n">
-        <v>-216260.2748256967</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>320</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8014,24 +7021,19 @@
         <v>8051.2638</v>
       </c>
       <c r="G196" t="n">
-        <v>-216260.2748256967</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>320</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8053,24 +7055,19 @@
         <v>2833.436</v>
       </c>
       <c r="G197" t="n">
-        <v>-216260.2748256967</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>320</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8092,24 +7089,19 @@
         <v>2650.4845</v>
       </c>
       <c r="G198" t="n">
-        <v>-216260.2748256967</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>320</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8131,24 +7123,19 @@
         <v>137.1681</v>
       </c>
       <c r="G199" t="n">
-        <v>-216123.1067256966</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>320</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8170,24 +7157,19 @@
         <v>202.8361</v>
       </c>
       <c r="G200" t="n">
-        <v>-216123.1067256966</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>320</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8209,24 +7191,19 @@
         <v>2926.9775</v>
       </c>
       <c r="G201" t="n">
-        <v>-213196.1292256966</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>320</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8248,24 +7225,19 @@
         <v>2459.3133</v>
       </c>
       <c r="G202" t="n">
-        <v>-210736.8159256966</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>320</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8287,24 +7259,19 @@
         <v>159.5028</v>
       </c>
       <c r="G203" t="n">
-        <v>-210736.8159256966</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>320</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8326,24 +7293,19 @@
         <v>10762.6324</v>
       </c>
       <c r="G204" t="n">
-        <v>-199974.1835256966</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>320</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8365,24 +7327,19 @@
         <v>1000</v>
       </c>
       <c r="G205" t="n">
-        <v>-200974.1835256966</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>320</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8404,24 +7361,19 @@
         <v>31.3127</v>
       </c>
       <c r="G206" t="n">
-        <v>-200942.8708256966</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>320</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8443,24 +7395,19 @@
         <v>1300.9019</v>
       </c>
       <c r="G207" t="n">
-        <v>-200942.8708256966</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>320</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8482,24 +7429,19 @@
         <v>1565.6339</v>
       </c>
       <c r="G208" t="n">
-        <v>-200942.8708256966</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>320</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8521,24 +7463,19 @@
         <v>5278.9698</v>
       </c>
       <c r="G209" t="n">
-        <v>-195663.9010256966</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>320</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8560,24 +7497,19 @@
         <v>400.9604</v>
       </c>
       <c r="G210" t="n">
-        <v>-195663.9010256966</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>320</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8599,24 +7531,19 @@
         <v>3591.4773</v>
       </c>
       <c r="G211" t="n">
-        <v>-192072.4237256966</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>320</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8638,24 +7565,19 @@
         <v>6968.4663</v>
       </c>
       <c r="G212" t="n">
-        <v>-185103.9574256966</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>320</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8677,24 +7599,19 @@
         <v>6390.7349</v>
       </c>
       <c r="G213" t="n">
-        <v>-191494.6923256966</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>320</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8716,24 +7633,19 @@
         <v>2550.1576</v>
       </c>
       <c r="G214" t="n">
-        <v>-188944.5347256966</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>320</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8755,24 +7667,19 @@
         <v>4816.0409</v>
       </c>
       <c r="G215" t="n">
-        <v>-184128.4938256966</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>320</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8794,24 +7701,19 @@
         <v>24003.1569</v>
       </c>
       <c r="G216" t="n">
-        <v>-160125.3369256966</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>320</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8833,24 +7735,19 @@
         <v>7842.5467</v>
       </c>
       <c r="G217" t="n">
-        <v>-160125.3369256966</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>320</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8872,24 +7769,19 @@
         <v>5105.6809</v>
       </c>
       <c r="G218" t="n">
-        <v>-165231.0178256966</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>320</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8911,24 +7803,19 @@
         <v>5330.7935</v>
       </c>
       <c r="G219" t="n">
-        <v>-165231.0178256966</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>320</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8950,24 +7837,19 @@
         <v>6537.7448</v>
       </c>
       <c r="G220" t="n">
-        <v>-165231.0178256966</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>320</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8989,24 +7871,19 @@
         <v>7991.6928</v>
       </c>
       <c r="G221" t="n">
-        <v>-165231.0178256966</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>320</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9028,24 +7905,19 @@
         <v>20.852</v>
       </c>
       <c r="G222" t="n">
-        <v>-165251.8698256967</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>320</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9067,24 +7939,19 @@
         <v>2491.2107</v>
       </c>
       <c r="G223" t="n">
-        <v>-167743.0805256967</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>320</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9106,24 +7973,19 @@
         <v>15056.1233</v>
       </c>
       <c r="G224" t="n">
-        <v>-167743.0805256967</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>320</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9145,24 +8007,19 @@
         <v>4649.5635</v>
       </c>
       <c r="G225" t="n">
-        <v>-167743.0805256967</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>320</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9184,24 +8041,19 @@
         <v>1573.3351</v>
       </c>
       <c r="G226" t="n">
-        <v>-167743.0805256967</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>320</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9223,24 +8075,19 @@
         <v>4356.8872</v>
       </c>
       <c r="G227" t="n">
-        <v>-167743.0805256967</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>320</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9262,24 +8109,19 @@
         <v>25.4476</v>
       </c>
       <c r="G228" t="n">
-        <v>-167717.6329256966</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>320</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9301,24 +8143,19 @@
         <v>1892.2999</v>
       </c>
       <c r="G229" t="n">
-        <v>-167717.6329256966</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>320</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9340,24 +8177,19 @@
         <v>249.7005</v>
       </c>
       <c r="G230" t="n">
-        <v>-167717.6329256966</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>320</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9379,24 +8211,19 @@
         <v>2805.5096</v>
       </c>
       <c r="G231" t="n">
-        <v>-164912.1233256967</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>320</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9418,24 +8245,19 @@
         <v>5773.3137</v>
       </c>
       <c r="G232" t="n">
-        <v>-164912.1233256967</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>320</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9457,24 +8279,19 @@
         <v>10112.6648</v>
       </c>
       <c r="G233" t="n">
-        <v>-154799.4585256967</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>320</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9496,24 +8313,19 @@
         <v>25642.46431710145</v>
       </c>
       <c r="G234" t="n">
-        <v>-129156.9942085952</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>320</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9535,26 +8347,19 @@
         <v>4046.2512</v>
       </c>
       <c r="G235" t="n">
-        <v>-129156.9942085952</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>320</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="M235" t="n">
-        <v>1.009463722397476</v>
-      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9576,18 +8381,19 @@
         <v>1000</v>
       </c>
       <c r="G236" t="n">
-        <v>-129156.9942085952</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9609,18 +8415,19 @@
         <v>6205.809248554913</v>
       </c>
       <c r="G237" t="n">
-        <v>-122951.1849600403</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9642,18 +8449,19 @@
         <v>13090.0895</v>
       </c>
       <c r="G238" t="n">
-        <v>-122951.1849600403</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9675,18 +8483,17 @@
         <v>30709.494</v>
       </c>
       <c r="G239" t="n">
-        <v>-153660.6789600403</v>
-      </c>
-      <c r="H239" t="n">
         <v>2</v>
       </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9708,18 +8515,15 @@
         <v>30996.1382</v>
       </c>
       <c r="G240" t="n">
-        <v>-153660.6789600403</v>
-      </c>
-      <c r="H240" t="n">
         <v>2</v>
       </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9741,18 +8545,15 @@
         <v>982.0622</v>
       </c>
       <c r="G241" t="n">
-        <v>-154642.7411600403</v>
-      </c>
-      <c r="H241" t="n">
         <v>2</v>
       </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9774,18 +8575,15 @@
         <v>1632.4216</v>
       </c>
       <c r="G242" t="n">
-        <v>-153010.3195600403</v>
-      </c>
-      <c r="H242" t="n">
         <v>2</v>
       </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9807,18 +8605,15 @@
         <v>5057.258</v>
       </c>
       <c r="G243" t="n">
-        <v>-158067.5775600403</v>
-      </c>
-      <c r="H243" t="n">
         <v>2</v>
       </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9840,18 +8635,15 @@
         <v>997.5</v>
       </c>
       <c r="G244" t="n">
-        <v>-158067.5775600403</v>
-      </c>
-      <c r="H244" t="n">
         <v>2</v>
       </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9873,18 +8665,15 @@
         <v>3531.9913</v>
       </c>
       <c r="G245" t="n">
-        <v>-154535.5862600403</v>
-      </c>
-      <c r="H245" t="n">
         <v>2</v>
       </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9906,18 +8695,15 @@
         <v>770.7177</v>
       </c>
       <c r="G246" t="n">
-        <v>-154535.5862600403</v>
-      </c>
-      <c r="H246" t="n">
         <v>2</v>
       </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9939,18 +8725,15 @@
         <v>1333.4583</v>
       </c>
       <c r="G247" t="n">
-        <v>-153202.1279600403</v>
-      </c>
-      <c r="H247" t="n">
         <v>2</v>
       </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9972,18 +8755,15 @@
         <v>695.2414</v>
       </c>
       <c r="G248" t="n">
-        <v>-153897.3693600403</v>
-      </c>
-      <c r="H248" t="n">
         <v>2</v>
       </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
